--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лево" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="544">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1387,6 +1387,12 @@
     <t xml:space="preserve">ОЫЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">А</t>
   </si>
   <si>
@@ -1625,12 +1631,6 @@
   </si>
   <si>
     <t xml:space="preserve">ИЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ив</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЫЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ик</t>
@@ -1801,6 +1801,9 @@
   </si>
   <si>
     <t xml:space="preserve">ОЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ив</t>
   </si>
 </sst>
 </file>
@@ -2116,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2590,7 +2593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>2</v>
       </c>
@@ -2598,14 +2601,14 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>30083</v>
+        <v>30330</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>1618766</v>
+        <v>1632059</v>
       </c>
       <c r="E20" s="8" t="n">
         <f aca="false">SUM(C20:C29)</f>
-        <v>46448</v>
+        <v>46695</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>65</v>
@@ -3590,7 +3593,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>14</v>
       </c>
@@ -3598,14 +3601,14 @@
         <v>193</v>
       </c>
       <c r="C74" s="7" t="n">
-        <v>9718</v>
+        <v>7507</v>
       </c>
       <c r="D74" s="7" t="n">
-        <v>522834</v>
+        <v>403853</v>
       </c>
       <c r="E74" s="8" t="n">
         <f aca="false">SUM(C74:C78)</f>
-        <v>21977</v>
+        <v>19766</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>194</v>
@@ -4598,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G98" activeCellId="0" sqref="G98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5157,7 +5160,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +5168,14 @@
         <v>314</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>76536</v>
+        <v>72094</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>4117750</v>
+        <v>3878489</v>
       </c>
       <c r="E28" s="8" t="n">
         <f aca="false">SUM(C28:C52)</f>
-        <v>124421</v>
+        <v>126612</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>65</v>
@@ -5580,9 +5583,23 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>6633</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>118981</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="4"/>
@@ -5625,7 +5642,7 @@
         <v>94</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5633,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C55" s="7" t="n">
         <v>8047</v>
@@ -5646,7 +5663,7 @@
         <v>245</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5671,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C56" s="7" t="n">
         <v>1670</v>
@@ -5667,7 +5684,7 @@
         <v>275</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5692,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C57" s="7" t="n">
         <v>2414</v>
@@ -5688,7 +5705,7 @@
         <v>293</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5713,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C58" s="7" t="n">
         <v>3554</v>
@@ -5709,7 +5726,7 @@
         <v>206</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5734,7 @@
         <v>82</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>814</v>
@@ -5730,7 +5747,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C60" s="7" t="n">
         <v>7029</v>
@@ -5751,7 +5768,7 @@
         <v>112</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,7 +5776,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C61" s="7" t="n">
         <v>2122</v>
@@ -5772,7 +5789,7 @@
         <v>118</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C62" s="7" t="n">
         <v>4238</v>
@@ -5790,10 +5807,10 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C63" s="7" t="n">
         <v>3905</v>
@@ -5811,10 +5828,10 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5839,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C64" s="7" t="n">
         <v>1320</v>
@@ -5835,7 +5852,7 @@
         <v>106</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,7 +5860,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C65" s="7" t="n">
         <v>3749</v>
@@ -5853,10 +5870,10 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5881,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C66" s="7" t="n">
         <v>1001</v>
@@ -5874,10 +5891,10 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +5902,7 @@
         <v>83</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C67" s="5" t="n">
         <v>794</v>
@@ -5895,10 +5912,10 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,7 +5923,7 @@
         <v>31</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C68" s="7" t="n">
         <v>3075</v>
@@ -5916,10 +5933,10 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,7 +5944,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C69" s="7" t="n">
         <v>2213</v>
@@ -5937,10 +5954,10 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C70" s="7" t="n">
         <v>2848</v>
@@ -5961,7 +5978,7 @@
         <v>197</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,7 +5986,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C71" s="7" t="n">
         <v>2065</v>
@@ -5979,10 +5996,10 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5990,7 +6007,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C72" s="7" t="n">
         <v>2780</v>
@@ -6003,7 +6020,7 @@
         <v>115</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,7 +6028,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C73" s="5" t="n">
         <v>921</v>
@@ -6024,7 +6041,7 @@
         <v>248</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,7 +6068,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>4</v>
       </c>
@@ -6059,20 +6076,20 @@
         <v>320</v>
       </c>
       <c r="C80" s="7" t="n">
-        <v>40447</v>
+        <v>40695</v>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2176303</v>
+        <v>2189596</v>
       </c>
       <c r="E80" s="8" t="n">
         <f aca="false">SUM(C80:C102)</f>
-        <v>78475</v>
+        <v>78229</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C81" s="7" t="n">
         <v>5080</v>
@@ -6093,7 +6110,7 @@
         <v>263</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6118,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C82" s="7" t="n">
         <v>2677</v>
@@ -6114,7 +6131,7 @@
         <v>302</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6122,7 +6139,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C83" s="7" t="n">
         <v>2641</v>
@@ -6135,7 +6152,7 @@
         <v>284</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,7 +6160,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C84" s="7" t="n">
         <v>2825</v>
@@ -6156,7 +6173,7 @@
         <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6181,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C85" s="7" t="n">
         <v>2592</v>
@@ -6177,7 +6194,7 @@
         <v>266</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6202,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C86" s="7" t="n">
         <v>2126</v>
@@ -6195,10 +6212,10 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,7 +6223,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C87" s="7" t="n">
         <v>4025</v>
@@ -6219,7 +6236,7 @@
         <v>299</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6244,7 @@
         <v>25</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C88" s="7" t="n">
         <v>3583</v>
@@ -6237,10 +6254,10 @@
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6265,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C89" s="7" t="n">
         <v>2223</v>
@@ -6257,10 +6274,10 @@
         <v>39876</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,7 +6285,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C90" s="5" t="n">
         <v>679</v>
@@ -6280,7 +6297,7 @@
         <v>296</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,7 +6305,7 @@
         <v>60</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C91" s="7" t="n">
         <v>1686</v>
@@ -6301,7 +6318,7 @@
         <v>135</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6326,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C92" s="7" t="n">
         <v>3369</v>
@@ -6319,32 +6336,20 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C93" s="5" t="n">
-        <v>494</v>
-      </c>
-      <c r="D93" s="7" t="n">
-        <v>13293</v>
-      </c>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>488</v>
-      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -8367,13 +8372,13 @@
         <v>3654</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>8047</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H2" s="16" t="n">
         <v>5080</v>
@@ -8411,13 +8416,13 @@
         <v>9615</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>1670</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H3" s="16" t="n">
         <v>2677</v>
@@ -8451,13 +8456,13 @@
         <v>7956</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>2414</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H4" s="16" t="n">
         <v>2641</v>
@@ -8491,13 +8496,13 @@
         <v>2017</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>3554</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H5" s="16" t="n">
         <v>2825</v>
@@ -8527,13 +8532,13 @@
         <v>3419</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F6" s="19" t="n">
         <v>814</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H6" s="16" t="n">
         <v>2592</v>
@@ -8573,13 +8578,13 @@
         <v>1416</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>7029</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H7" s="16" t="n">
         <v>4025</v>
@@ -8617,7 +8622,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H8" s="16" t="n">
         <v>2126</v>
@@ -8657,13 +8662,13 @@
         <v>2439</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>2122</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="H9" s="19" t="n">
         <v>494</v>
@@ -8693,13 +8698,13 @@
         <v>3163</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="16" t="n">
         <v>4238</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H10" s="16" t="n">
         <v>3583</v>
@@ -8747,13 +8752,13 @@
         <v>1224</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F12" s="16" t="n">
         <v>3905</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H12" s="16" t="n">
         <v>1686</v>
@@ -8781,13 +8786,13 @@
         <v>674</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" s="16" t="n">
         <v>1320</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H13" s="16" t="n">
         <v>3369</v>
@@ -8821,13 +8826,13 @@
         <v>2178</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F14" s="16" t="n">
         <v>3749</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H14" s="16" t="n">
         <v>2223</v>
@@ -8847,13 +8852,13 @@
         <v>594</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F15" s="16" t="n">
         <v>1001</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H15" s="19" t="n">
         <v>679</v>
@@ -8895,7 +8900,7 @@
         <v>2759</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F17" s="19" t="n">
         <v>794</v>
@@ -8919,7 +8924,7 @@
         <v>1006</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F18" s="16" t="n">
         <v>3075</v>
@@ -8943,7 +8948,7 @@
         <v>1023</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F19" s="16" t="n">
         <v>2213</v>
@@ -8967,7 +8972,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
@@ -9003,7 +9008,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>2780</v>
@@ -9027,7 +9032,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="n">
         <v>2065</v>
@@ -9081,7 +9086,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>921</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -2119,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3541,7 +3541,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>5</v>
       </c>
@@ -3549,14 +3549,14 @@
         <v>187</v>
       </c>
       <c r="C70" s="7" t="n">
-        <v>19762</v>
+        <v>19697</v>
       </c>
       <c r="D70" s="7" t="n">
-        <v>1063187</v>
+        <v>1059693</v>
       </c>
       <c r="E70" s="8" t="n">
         <f aca="false">C70</f>
-        <v>19762</v>
+        <v>19697</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>188</v>
@@ -4601,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5168,14 +5168,14 @@
         <v>314</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>72094</v>
+        <v>72026</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>3878489</v>
+        <v>3874995</v>
       </c>
       <c r="E28" s="8" t="n">
         <f aca="false">SUM(C28:C52)</f>
-        <v>126612</v>
+        <v>126673</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>65</v>
@@ -5184,7 +5184,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>24</v>
       </c>
@@ -5192,10 +5192,10 @@
         <v>367</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>3654</v>
+        <v>3783</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>98353</v>
+        <v>101847</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лево" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Право" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Одна рука" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево!$A$1:$G$157</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Одна рука'!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$G$152</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="545">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1429,7 +1431,7 @@
     <t xml:space="preserve">ать</t>
   </si>
   <si>
-    <t xml:space="preserve">АИУЬ</t>
+    <t xml:space="preserve">АУЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ар</t>
@@ -1533,7 +1535,7 @@
     <t xml:space="preserve">ами</t>
   </si>
   <si>
-    <t xml:space="preserve">АУЬ</t>
+    <t xml:space="preserve">АИУЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ают</t>
@@ -1804,6 +1806,9 @@
   </si>
   <si>
     <t xml:space="preserve">ив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВК</t>
   </si>
 </sst>
 </file>
@@ -2112,6 +2117,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2119,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4499,6 +4508,22 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G128" s="9"/>
     </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>826</v>
+      </c>
+      <c r="D129" s="7" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+    </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -4529,18 +4554,6 @@
       <c r="G151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C152" s="5" t="n">
-        <v>826</v>
-      </c>
-      <c r="D152" s="7" t="n">
-        <v>44439</v>
-      </c>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -4601,8 +4614,8 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5750,7 +5763,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>13</v>
       </c>
@@ -5765,7 +5778,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>425</v>
@@ -6002,7 +6015,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>36</v>
       </c>
@@ -6017,7 +6030,7 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>457</v>
@@ -8299,7 +8312,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9165,4 +9178,804 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D157"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="9"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D34"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лево" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="552">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1246,6 +1246,12 @@
     <t xml:space="preserve">ЕЫУЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">О</t>
   </si>
   <si>
@@ -1395,6 +1401,16 @@
     <t xml:space="preserve">ОУЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">оль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">А</t>
   </si>
   <si>
@@ -1431,7 +1447,7 @@
     <t xml:space="preserve">ать</t>
   </si>
   <si>
-    <t xml:space="preserve">АУЬ</t>
+    <t xml:space="preserve">АЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ар</t>
@@ -1539,6 +1555,12 @@
   </si>
   <si>
     <t xml:space="preserve">ают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аль</t>
   </si>
   <si>
     <t xml:space="preserve">АИЬ</t>
@@ -1887,7 +1909,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1898,6 +1920,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1956,7 +1990,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2005,6 +2039,34 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2017,11 +2079,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2029,11 +2091,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2085,7 +2147,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2128,8 +2190,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="1" sqref="A21:G21 B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4614,8 +4676,8 @@
   </sheetPr>
   <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5124,30 +5186,37 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="12" t="n">
         <v>91</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="12" t="n">
         <v>633</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="14" t="n">
         <v>17044</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="8"/>
@@ -5194,7 +5263,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5271,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>3783</v>
@@ -5212,10 +5281,10 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,7 +5292,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>9615</v>
@@ -5236,7 +5305,7 @@
         <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,7 +5313,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>7956</v>
@@ -5257,7 +5326,7 @@
         <v>221</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,7 +5347,7 @@
         <v>209</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,7 +5355,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>3419</v>
@@ -5299,7 +5368,7 @@
         <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,7 +5389,7 @@
         <v>224</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>2439</v>
@@ -5341,7 +5410,7 @@
         <v>103</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5418,7 @@
         <v>71</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>1224</v>
@@ -5362,7 +5431,7 @@
         <v>218</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,7 +5439,7 @@
         <v>94</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>594</v>
@@ -5380,10 +5449,10 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,7 +5460,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>2178</v>
@@ -5401,10 +5470,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5481,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>2759</v>
@@ -5422,10 +5491,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>1006</v>
@@ -5446,7 +5515,7 @@
         <v>123</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,7 +5523,7 @@
         <v>74</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>1023</v>
@@ -5464,10 +5533,10 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,7 +5544,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>3163</v>
@@ -5488,7 +5557,7 @@
         <v>230</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5565,7 @@
         <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>1101</v>
@@ -5506,10 +5575,10 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,7 +5586,7 @@
         <v>66</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>1416</v>
@@ -5527,10 +5596,10 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,7 +5607,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C45" s="5" t="n">
         <v>528</v>
@@ -5551,28 +5620,28 @@
         <v>236</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="12" t="n">
         <v>90</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C46" s="5" t="n">
+      <c r="B46" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="12" t="n">
         <v>665</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="14" t="n">
         <v>11946</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>408</v>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,7 +5649,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>833</v>
@@ -5593,12 +5662,12 @@
         <v>239</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>6633</v>
@@ -5611,12 +5680,19 @@
         <v>74</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="4"/>
@@ -5655,7 +5731,7 @@
         <v>94</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,7 +5739,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C55" s="7" t="n">
         <v>8047</v>
@@ -5676,7 +5752,7 @@
         <v>245</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5760,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C56" s="7" t="n">
         <v>1670</v>
@@ -5697,7 +5773,7 @@
         <v>275</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C57" s="7" t="n">
         <v>2414</v>
@@ -5718,7 +5794,7 @@
         <v>293</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5802,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C58" s="7" t="n">
         <v>3554</v>
@@ -5739,7 +5815,7 @@
         <v>206</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,7 +5823,7 @@
         <v>82</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>814</v>
@@ -5760,7 +5836,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5844,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C60" s="7" t="n">
         <v>7029</v>
@@ -5778,10 +5854,10 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="4" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5865,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C61" s="7" t="n">
         <v>2122</v>
@@ -5802,7 +5878,7 @@
         <v>118</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,7 +5886,7 @@
         <v>20</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C62" s="7" t="n">
         <v>4238</v>
@@ -5820,10 +5896,10 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,7 +5907,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C63" s="7" t="n">
         <v>3905</v>
@@ -5841,10 +5917,10 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5852,7 +5928,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C64" s="7" t="n">
         <v>1320</v>
@@ -5865,7 +5941,7 @@
         <v>106</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,7 +5949,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C65" s="7" t="n">
         <v>3749</v>
@@ -5883,10 +5959,10 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +5970,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C66" s="7" t="n">
         <v>1001</v>
@@ -5904,10 +5980,10 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,7 +5991,7 @@
         <v>83</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C67" s="5" t="n">
         <v>794</v>
@@ -5925,10 +6001,10 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +6012,7 @@
         <v>31</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C68" s="7" t="n">
         <v>3075</v>
@@ -5946,10 +6022,10 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,7 +6033,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C69" s="7" t="n">
         <v>2213</v>
@@ -5967,10 +6043,10 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,7 +6054,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C70" s="7" t="n">
         <v>2848</v>
@@ -5991,7 +6067,7 @@
         <v>197</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,7 +6075,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C71" s="7" t="n">
         <v>2065</v>
@@ -6009,10 +6085,10 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6096,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C72" s="7" t="n">
         <v>2780</v>
@@ -6033,7 +6109,7 @@
         <v>112</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,7 +6117,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C73" s="5" t="n">
         <v>921</v>
@@ -6051,15 +6127,22 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="4"/>
@@ -6102,7 +6185,7 @@
         <v>120</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,7 +6193,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C81" s="7" t="n">
         <v>5080</v>
@@ -6123,7 +6206,7 @@
         <v>263</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,7 +6214,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C82" s="7" t="n">
         <v>2677</v>
@@ -6144,7 +6227,7 @@
         <v>302</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6235,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C83" s="7" t="n">
         <v>2641</v>
@@ -6165,7 +6248,7 @@
         <v>284</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,7 +6256,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C84" s="7" t="n">
         <v>2825</v>
@@ -6186,7 +6269,7 @@
         <v>132</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C85" s="7" t="n">
         <v>2592</v>
@@ -6207,7 +6290,7 @@
         <v>266</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,7 +6298,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C86" s="7" t="n">
         <v>2126</v>
@@ -6225,10 +6308,10 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="4" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,7 +6319,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C87" s="7" t="n">
         <v>4025</v>
@@ -6249,7 +6332,7 @@
         <v>299</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6340,7 @@
         <v>25</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C88" s="7" t="n">
         <v>3583</v>
@@ -6267,10 +6350,10 @@
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6278,7 +6361,7 @@
         <v>47</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C89" s="7" t="n">
         <v>2223</v>
@@ -6287,10 +6370,10 @@
         <v>39876</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,7 +6381,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C90" s="5" t="n">
         <v>679</v>
@@ -6310,7 +6393,7 @@
         <v>296</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,7 +6401,7 @@
         <v>60</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C91" s="7" t="n">
         <v>1686</v>
@@ -6331,7 +6414,7 @@
         <v>135</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6422,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C92" s="7" t="n">
         <v>3369</v>
@@ -6349,10 +6432,10 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="4" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,7 +6452,7 @@
         <v>73</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C94" s="7" t="n">
         <v>1085</v>
@@ -6379,10 +6462,10 @@
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="4" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6473,7 @@
         <v>85</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C95" s="5" t="n">
         <v>725</v>
@@ -6400,10 +6483,10 @@
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="4" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,7 +6494,7 @@
         <v>59</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C96" s="7" t="n">
         <v>1696</v>
@@ -6421,30 +6504,31 @@
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="4" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
+      <c r="A97" s="12" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C97" s="5" t="n">
+      <c r="B97" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="12" t="n">
         <v>522</v>
       </c>
-      <c r="D97" s="7" t="n">
+      <c r="D97" s="14" t="n">
         <v>14030</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>500</v>
+      <c r="E97" s="18"/>
+      <c r="F97" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,7 +6572,7 @@
         <v>140</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6496,7 +6580,7 @@
         <v>27</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C105" s="7" t="n">
         <v>3471</v>
@@ -6509,7 +6593,7 @@
         <v>290</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6517,7 +6601,7 @@
         <v>63</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C106" s="7" t="n">
         <v>1606</v>
@@ -6530,7 +6614,7 @@
         <v>155</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6538,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C107" s="7" t="n">
         <v>2665</v>
@@ -6551,7 +6635,7 @@
         <v>152</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,7 +6643,7 @@
         <v>57</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C108" s="7" t="n">
         <v>1807</v>
@@ -6572,7 +6656,7 @@
         <v>158</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,7 +6704,7 @@
         <v>160</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +6712,7 @@
         <v>62</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C116" s="7" t="n">
         <v>1653</v>
@@ -6641,7 +6725,7 @@
         <v>188</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,7 +6733,7 @@
         <v>67</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C117" s="7" t="n">
         <v>1414</v>
@@ -6662,7 +6746,7 @@
         <v>166</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,7 +6754,7 @@
         <v>84</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C118" s="5" t="n">
         <v>760</v>
@@ -6680,10 +6764,10 @@
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="4" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,7 +6775,7 @@
         <v>56</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C119" s="7" t="n">
         <v>1836</v>
@@ -6704,7 +6788,7 @@
         <v>191</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,7 +6836,7 @@
         <v>174</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C127" s="5" t="n">
         <v>922</v>
@@ -6773,7 +6857,7 @@
         <v>177</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +6865,7 @@
         <v>87</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C128" s="5" t="n">
         <v>682</v>
@@ -6790,10 +6874,10 @@
         <v>18299</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,7 +6885,7 @@
         <v>58</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C129" s="7" t="n">
         <v>1713</v>
@@ -6813,7 +6897,7 @@
         <v>180</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,7 +6940,7 @@
         <v>185</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6864,7 +6948,7 @@
         <v>93</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C135" s="5" t="n">
         <v>622</v>
@@ -6876,7 +6960,7 @@
         <v>251</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,7 +6968,7 @@
         <v>77</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C136" s="5" t="n">
         <v>923</v>
@@ -6896,7 +6980,7 @@
         <v>260</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6904,7 +6988,7 @@
         <v>86</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C137" s="5" t="n">
         <v>699</v>
@@ -6916,7 +7000,7 @@
         <v>183</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,7 +7012,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C142" s="7" t="n">
         <v>2371</v>
@@ -6944,7 +7028,7 @@
         <v>42</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6956,7 +7040,7 @@
         <v>98</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C144" s="5" t="n">
         <v>335</v>
@@ -6972,7 +7056,7 @@
         <v>233</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,7 +7068,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C146" s="5" t="n">
         <v>212</v>
@@ -7000,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,7 +7097,7 @@
         <v>100</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C148" s="5" t="n">
         <v>51</v>
@@ -7025,7 +7109,7 @@
         <v>242</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,1241 +7139,1241 @@
       <c r="G152" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="14"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="21"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="14"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="21"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="14"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="21"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12"/>
-      <c r="B188" s="13"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="14"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="21"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="14"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="21"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="14"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="21"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="14"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="21"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="14"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="21"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="14"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="21"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12"/>
-      <c r="B195" s="13"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12"/>
-      <c r="B196" s="13"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="14"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="21"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="14"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="21"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="14"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="21"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12"/>
-      <c r="B199" s="13"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="14"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="21"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="14"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="21"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12"/>
-      <c r="B201" s="13"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="14"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="21"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12"/>
-      <c r="B202" s="13"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12"/>
-      <c r="B204" s="13"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="14"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="21"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12"/>
-      <c r="B206" s="13"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="14"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="21"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12"/>
-      <c r="B208" s="13"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="14"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="21"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12"/>
-      <c r="B210" s="13"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12"/>
-      <c r="B211" s="13"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="14"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="21"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="12"/>
-      <c r="B212" s="13"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12"/>
-      <c r="B213" s="13"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="14"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="21"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12"/>
-      <c r="B214" s="13"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="14"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="21"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="14"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="21"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12"/>
-      <c r="B217" s="13"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="14"/>
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="21"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12"/>
-      <c r="B218" s="13"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12"/>
-      <c r="B219" s="13"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12"/>
-      <c r="B220" s="13"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12"/>
-      <c r="B221" s="13"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="14"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="21"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12"/>
-      <c r="B222" s="13"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="14"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="21"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12"/>
-      <c r="B224" s="13"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12"/>
-      <c r="B226" s="13"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="14"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="21"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
+      <c r="A227" s="19"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12"/>
-      <c r="B228" s="13"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
+      <c r="A228" s="19"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12"/>
-      <c r="B229" s="13"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12"/>
-      <c r="B230" s="13"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
+      <c r="A230" s="19"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
+      <c r="A235" s="19"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
+      <c r="A237" s="19"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
+      <c r="A239" s="19"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="19"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
+      <c r="A241" s="19"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="19"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="19"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
+      <c r="A243" s="19"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12"/>
-      <c r="B244" s="13"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="19"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12"/>
-      <c r="B245" s="13"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12"/>
-      <c r="B246" s="13"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="19"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="14"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="21"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12"/>
-      <c r="B248" s="13"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12"/>
-      <c r="B252" s="13"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12"/>
-      <c r="B256" s="13"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
+      <c r="A257" s="19"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12"/>
-      <c r="B258" s="13"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
+      <c r="A258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
+      <c r="A259" s="19"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="19"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12"/>
-      <c r="B260" s="13"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
+      <c r="A261" s="19"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
+      <c r="A263" s="19"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12"/>
-      <c r="B264" s="13"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
+      <c r="A264" s="19"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12"/>
-      <c r="B265" s="13"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12"/>
-      <c r="B268" s="13"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12"/>
-      <c r="B269" s="13"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12"/>
-      <c r="B270" s="13"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="19"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12"/>
-      <c r="B271" s="13"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12"/>
-      <c r="B273" s="13"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12"/>
-      <c r="B274" s="13"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12"/>
-      <c r="B275" s="13"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="19"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12"/>
-      <c r="B276" s="13"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="19"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12"/>
-      <c r="B277" s="13"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12"/>
-      <c r="B278" s="13"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
+      <c r="A278" s="19"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="19"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12"/>
-      <c r="B279" s="13"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
+      <c r="A279" s="19"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12"/>
-      <c r="B280" s="13"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
+      <c r="A280" s="19"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12"/>
-      <c r="B281" s="13"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
+      <c r="A281" s="19"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12"/>
-      <c r="B282" s="13"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="19"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12"/>
-      <c r="B283" s="13"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="19"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12"/>
-      <c r="B284" s="13"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12"/>
-      <c r="B285" s="13"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12"/>
-      <c r="B286" s="13"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12"/>
-      <c r="B287" s="13"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="19"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12"/>
-      <c r="B288" s="13"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="19"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12"/>
-      <c r="B289" s="13"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="19"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12"/>
-      <c r="B290" s="13"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="19"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12"/>
-      <c r="B291" s="13"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12"/>
-      <c r="B292" s="13"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12"/>
-      <c r="B293" s="13"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
+      <c r="A293" s="19"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="19"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12"/>
-      <c r="B294" s="13"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
+      <c r="A294" s="19"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="19"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12"/>
-      <c r="B295" s="13"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
+      <c r="A295" s="19"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12"/>
-      <c r="B296" s="13"/>
-      <c r="C296" s="12"/>
-      <c r="D296" s="12"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="19"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12"/>
-      <c r="B297" s="13"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="19"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12"/>
-      <c r="B298" s="13"/>
-      <c r="C298" s="12"/>
-      <c r="D298" s="12"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="19"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12"/>
-      <c r="B299" s="13"/>
-      <c r="C299" s="12"/>
-      <c r="D299" s="12"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="19"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12"/>
-      <c r="B300" s="13"/>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
+      <c r="A300" s="19"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="19"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12"/>
-      <c r="B301" s="13"/>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
+      <c r="A301" s="19"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="19"/>
+      <c r="D301" s="19"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12"/>
-      <c r="B302" s="13"/>
-      <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="19"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12"/>
-      <c r="B303" s="13"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="19"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12"/>
-      <c r="B304" s="13"/>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12"/>
-      <c r="B305" s="13"/>
-      <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12"/>
-      <c r="B306" s="13"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12"/>
-      <c r="B307" s="13"/>
-      <c r="C307" s="12"/>
-      <c r="D307" s="12"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12"/>
-      <c r="B308" s="13"/>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="19"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12"/>
-      <c r="B309" s="13"/>
-      <c r="C309" s="12"/>
-      <c r="D309" s="12"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="19"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12"/>
-      <c r="B310" s="13"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="19"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12"/>
-      <c r="B311" s="13"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12"/>
-      <c r="B312" s="13"/>
-      <c r="C312" s="12"/>
-      <c r="D312" s="12"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="19"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12"/>
-      <c r="B313" s="13"/>
-      <c r="C313" s="12"/>
-      <c r="D313" s="12"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="19"/>
+      <c r="D313" s="19"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12"/>
-      <c r="B314" s="13"/>
-      <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12"/>
-      <c r="B315" s="13"/>
-      <c r="C315" s="12"/>
-      <c r="D315" s="12"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="19"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12"/>
-      <c r="B316" s="13"/>
-      <c r="C316" s="12"/>
-      <c r="D316" s="12"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="19"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12"/>
-      <c r="B317" s="13"/>
-      <c r="C317" s="12"/>
-      <c r="D317" s="12"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="19"/>
+      <c r="D317" s="19"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12"/>
-      <c r="B318" s="13"/>
-      <c r="C318" s="12"/>
-      <c r="D318" s="12"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12"/>
-      <c r="B319" s="13"/>
-      <c r="C319" s="12"/>
-      <c r="D319" s="12"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12"/>
-      <c r="B320" s="13"/>
-      <c r="C320" s="12"/>
-      <c r="D320" s="12"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="19"/>
+      <c r="D320" s="19"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12"/>
-      <c r="B321" s="13"/>
-      <c r="C321" s="12"/>
-      <c r="D321" s="12"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12"/>
-      <c r="B322" s="13"/>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="19"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12"/>
-      <c r="B323" s="13"/>
-      <c r="C323" s="12"/>
-      <c r="D323" s="12"/>
+      <c r="A323" s="19"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="19"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12"/>
-      <c r="B324" s="13"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
+      <c r="A324" s="19"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12"/>
-      <c r="B325" s="13"/>
-      <c r="C325" s="12"/>
-      <c r="D325" s="12"/>
+      <c r="A325" s="19"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12"/>
-      <c r="B326" s="13"/>
-      <c r="C326" s="12"/>
-      <c r="D326" s="12"/>
+      <c r="A326" s="19"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="19"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12"/>
-      <c r="B327" s="13"/>
-      <c r="C327" s="12"/>
-      <c r="D327" s="12"/>
+      <c r="A327" s="19"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12"/>
-      <c r="B328" s="13"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12"/>
-      <c r="B329" s="13"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="12"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="19"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12"/>
-      <c r="B330" s="13"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="12"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="19"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
-      <c r="B331" s="13"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="19"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12"/>
-      <c r="B332" s="13"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="19"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12"/>
-      <c r="B333" s="13"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
+      <c r="A333" s="19"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12"/>
-      <c r="B334" s="13"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12"/>
-      <c r="B335" s="13"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
+      <c r="A335" s="19"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="19"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12"/>
-      <c r="B336" s="13"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
+      <c r="A336" s="19"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12"/>
-      <c r="B337" s="13"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12"/>
-      <c r="B338" s="13"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="19"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12"/>
-      <c r="B339" s="13"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="19"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12"/>
-      <c r="B340" s="13"/>
-      <c r="C340" s="12"/>
-      <c r="D340" s="12"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="19"/>
+      <c r="D340" s="19"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12"/>
-      <c r="B341" s="13"/>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="19"/>
+      <c r="D341" s="19"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12"/>
-      <c r="B342" s="13"/>
-      <c r="C342" s="12"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="19"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12"/>
-      <c r="B343" s="13"/>
-      <c r="C343" s="12"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="19"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12"/>
-      <c r="B344" s="13"/>
-      <c r="C344" s="12"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="19"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12"/>
-      <c r="B345" s="13"/>
-      <c r="C345" s="12"/>
+      <c r="A345" s="19"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="19"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="12"/>
-      <c r="B346" s="13"/>
-      <c r="C346" s="12"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="19"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12"/>
-      <c r="B347" s="13"/>
-      <c r="C347" s="12"/>
+      <c r="A347" s="19"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="19"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="12"/>
-      <c r="B348" s="13"/>
-      <c r="C348" s="12"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="19"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12"/>
-      <c r="B349" s="13"/>
-      <c r="C349" s="12"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="19"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="12"/>
-      <c r="B350" s="13"/>
-      <c r="C350" s="12"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="19"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12"/>
-      <c r="B351" s="13"/>
-      <c r="C351" s="12"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="19"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="12"/>
-      <c r="B352" s="13"/>
-      <c r="C352" s="12"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="19"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12"/>
-      <c r="B353" s="13"/>
-      <c r="C353" s="12"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="19"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="12"/>
-      <c r="B354" s="13"/>
-      <c r="C354" s="12"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="19"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="12"/>
-      <c r="B355" s="13"/>
-      <c r="C355" s="12"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="19"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="12"/>
-      <c r="B356" s="13"/>
-      <c r="C356" s="12"/>
+      <c r="A356" s="19"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="12"/>
-      <c r="B357" s="13"/>
-      <c r="C357" s="12"/>
+      <c r="A357" s="19"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="19"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="12"/>
-      <c r="B358" s="13"/>
-      <c r="C358" s="12"/>
+      <c r="A358" s="19"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="19"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="12"/>
-      <c r="B359" s="13"/>
-      <c r="C359" s="12"/>
+      <c r="A359" s="19"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="19"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="12"/>
-      <c r="B360" s="13"/>
-      <c r="C360" s="12"/>
+      <c r="A360" s="19"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="19"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="12"/>
-      <c r="B361" s="13"/>
-      <c r="C361" s="12"/>
+      <c r="A361" s="19"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="19"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="12"/>
-      <c r="B362" s="13"/>
-      <c r="C362" s="12"/>
+      <c r="A362" s="19"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="19"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="12"/>
-      <c r="B363" s="13"/>
-      <c r="C363" s="12"/>
+      <c r="A363" s="19"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="19"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="12"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="12"/>
+      <c r="A364" s="19"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="19"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="12"/>
-      <c r="B365" s="13"/>
-      <c r="C365" s="12"/>
+      <c r="A365" s="19"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="19"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="12"/>
-      <c r="B366" s="13"/>
-      <c r="C366" s="12"/>
+      <c r="A366" s="19"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="19"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="12"/>
-      <c r="B367" s="13"/>
-      <c r="C367" s="12"/>
+      <c r="A367" s="19"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="19"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="12"/>
-      <c r="B368" s="13"/>
-      <c r="C368" s="12"/>
+      <c r="A368" s="19"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="19"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="12"/>
-      <c r="B369" s="13"/>
-      <c r="C369" s="12"/>
+      <c r="A369" s="19"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="19"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="12"/>
-      <c r="B370" s="13"/>
-      <c r="C370" s="12"/>
+      <c r="A370" s="19"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="19"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="12"/>
-      <c r="B371" s="13"/>
-      <c r="C371" s="12"/>
+      <c r="A371" s="19"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="19"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="12"/>
-      <c r="B372" s="13"/>
-      <c r="C372" s="12"/>
+      <c r="A372" s="19"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="19"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="12"/>
-      <c r="B373" s="13"/>
-      <c r="C373" s="12"/>
+      <c r="A373" s="19"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="12"/>
-      <c r="B374" s="13"/>
-      <c r="C374" s="12"/>
+      <c r="A374" s="19"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="19"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="12"/>
-      <c r="B375" s="13"/>
-      <c r="C375" s="12"/>
+      <c r="A375" s="19"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="19"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="12"/>
-      <c r="B376" s="13"/>
-      <c r="C376" s="12"/>
+      <c r="A376" s="19"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="19"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="12"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="12"/>
+      <c r="A377" s="19"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="19"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="12"/>
-      <c r="B378" s="13"/>
-      <c r="C378" s="12"/>
+      <c r="A378" s="19"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="19"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="12"/>
-      <c r="B379" s="13"/>
-      <c r="C379" s="12"/>
+      <c r="A379" s="19"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="19"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="12"/>
-      <c r="B380" s="13"/>
-      <c r="C380" s="12"/>
+      <c r="A380" s="19"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="19"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="12"/>
-      <c r="B381" s="13"/>
-      <c r="C381" s="12"/>
+      <c r="A381" s="19"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="19"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="12"/>
-      <c r="B382" s="13"/>
-      <c r="C382" s="12"/>
+      <c r="A382" s="19"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="19"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="12"/>
-      <c r="B383" s="13"/>
-      <c r="C383" s="12"/>
+      <c r="A383" s="19"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="19"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="12"/>
-      <c r="B384" s="13"/>
-      <c r="C384" s="12"/>
+      <c r="A384" s="19"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="19"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="12"/>
-      <c r="B385" s="13"/>
-      <c r="C385" s="12"/>
+      <c r="A385" s="19"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="19"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="12"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="12"/>
+      <c r="A386" s="19"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="19"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="12"/>
-      <c r="B387" s="13"/>
-      <c r="C387" s="12"/>
+      <c r="A387" s="19"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="19"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="12"/>
-      <c r="B388" s="13"/>
-      <c r="C388" s="12"/>
+      <c r="A388" s="19"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="19"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="12"/>
-      <c r="B389" s="13"/>
-      <c r="C389" s="12"/>
+      <c r="A389" s="19"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="12"/>
-      <c r="B390" s="13"/>
-      <c r="C390" s="12"/>
+      <c r="A390" s="19"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="19"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="12"/>
-      <c r="B391" s="13"/>
-      <c r="C391" s="12"/>
+      <c r="A391" s="19"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="19"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="12"/>
-      <c r="B392" s="13"/>
-      <c r="C392" s="12"/>
+      <c r="A392" s="19"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="19"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="12"/>
-      <c r="B393" s="13"/>
-      <c r="C393" s="12"/>
+      <c r="A393" s="19"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="19"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="12"/>
-      <c r="B394" s="13"/>
-      <c r="C394" s="12"/>
+      <c r="A394" s="19"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="19"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="12"/>
-      <c r="B395" s="13"/>
-      <c r="C395" s="12"/>
+      <c r="A395" s="19"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="19"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="12"/>
-      <c r="B396" s="13"/>
-      <c r="C396" s="12"/>
+      <c r="A396" s="19"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="19"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="12"/>
-      <c r="B397" s="13"/>
-      <c r="C397" s="12"/>
+      <c r="A397" s="19"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="19"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="12"/>
-      <c r="B398" s="13"/>
-      <c r="C398" s="12"/>
+      <c r="A398" s="19"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="19"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="12"/>
-      <c r="B399" s="13"/>
-      <c r="C399" s="12"/>
+      <c r="A399" s="19"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="19"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="12"/>
-      <c r="B400" s="13"/>
-      <c r="C400" s="12"/>
+      <c r="A400" s="19"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G152"/>
@@ -8312,721 +8396,721 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="A21:G21 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="16" t="n">
+      <c r="B1" s="23" t="n">
         <v>48182</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="16" t="n">
+      <c r="D1" s="23" t="n">
         <v>76536</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="16" t="n">
+      <c r="F1" s="23" t="n">
         <v>49932</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="16" t="n">
+      <c r="H1" s="23" t="n">
         <v>40447</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="J1" s="16" t="n">
+      <c r="J1" s="23" t="n">
         <v>22115</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="16" t="n">
+      <c r="L1" s="23" t="n">
         <v>11804</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="N1" s="16" t="n">
+      <c r="N1" s="23" t="n">
         <v>13039</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="16" t="n">
+      <c r="P1" s="23" t="n">
         <v>14836</v>
       </c>
-      <c r="Q1" s="17" t="n">
+      <c r="Q1" s="24" t="n">
         <f aca="false">B1+D1+F1+H1+J1+L1+N1+P1</f>
         <v>276891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="23" t="n">
         <v>3068</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="16" t="n">
+      <c r="C2" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="23" t="n">
         <v>3654</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" s="16" t="n">
+      <c r="E2" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="23" t="n">
         <v>8047</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="H2" s="16" t="n">
+      <c r="G2" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="23" t="n">
         <v>5080</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="J2" s="16" t="n">
+      <c r="I2" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="J2" s="23" t="n">
         <v>1653</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="O2" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="P2" s="19" t="n">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="O2" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="P2" s="26" t="n">
         <v>922</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="24" t="n">
         <f aca="false">B2+D2+F2+H2+J2+L2+N2+P2</f>
         <v>22424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="23" t="n">
         <v>4494</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="16" t="n">
+      <c r="C3" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="23" t="n">
         <v>9615</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="F3" s="16" t="n">
+      <c r="E3" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F3" s="23" t="n">
         <v>1670</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="H3" s="16" t="n">
+      <c r="G3" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3" s="23" t="n">
         <v>2677</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="L3" s="16" t="n">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="L3" s="23" t="n">
         <v>3471</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="17" t="n">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24" t="n">
         <f aca="false">B3+D3+F3+H3+J3+L3+N3+P3</f>
         <v>21927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="23" t="n">
         <v>4616</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="16" t="n">
+      <c r="C4" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="23" t="n">
         <v>7956</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="F4" s="16" t="n">
+      <c r="E4" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="23" t="n">
         <v>2414</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="23" t="n">
         <v>2641</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="L4" s="16" t="n">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="L4" s="23" t="n">
         <v>1606</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="n">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24" t="n">
         <f aca="false">B4+D4+F4+H4+J4+L4+N4+P4</f>
         <v>19233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="23" t="n">
         <v>5281</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="23" t="n">
         <v>2017</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="16" t="n">
+      <c r="E5" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="23" t="n">
         <v>3554</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H5" s="23" t="n">
         <v>2825</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="17" t="n">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24" t="n">
         <f aca="false">B5+D5+F5+H5+J5+L5+N5+P5</f>
         <v>13677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="23" t="n">
         <v>2715</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="23" t="n">
         <v>3419</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="19" t="n">
+      <c r="E6" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" s="26" t="n">
         <v>814</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="G6" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="23" t="n">
         <v>2592</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="L6" s="16" t="n">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" s="23" t="n">
         <v>2665</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="N6" s="19" t="n">
+      <c r="M6" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="N6" s="26" t="n">
         <v>622</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="17" t="n">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24" t="n">
         <f aca="false">B6+D6+F6+H6+J6+L6+N6+P6</f>
         <v>12827</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="23" t="n">
         <v>1536</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="16" t="n">
+      <c r="C7" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="23" t="n">
         <v>1416</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="16" t="n">
+      <c r="E7" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F7" s="23" t="n">
         <v>7029</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="G7" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" s="23" t="n">
         <v>4025</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="P7" s="16" t="n">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="P7" s="23" t="n">
         <v>1713</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="24" t="n">
         <f aca="false">B7+D7+F7+H7+J7+L7+N7+P7</f>
         <v>15719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="23" t="n">
         <v>4966</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="23" t="n">
         <v>2295</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="H8" s="16" t="n">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="H8" s="23" t="n">
         <v>2126</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="J8" s="16" t="n">
+      <c r="I8" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="J8" s="23" t="n">
         <v>1414</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="P8" s="19" t="n">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="P8" s="26" t="n">
         <v>682</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="24" t="n">
         <f aca="false">B8+D8+F8+H8+J8+L8+N8+P8</f>
         <v>11483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="23" t="n">
         <v>6068</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="16" t="n">
+      <c r="C9" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="23" t="n">
         <v>2439</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="16" t="n">
+      <c r="E9" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="23" t="n">
         <v>2122</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="H9" s="19" t="n">
+      <c r="G9" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="H9" s="26" t="n">
         <v>494</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="Q9" s="17" t="n">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="Q9" s="24" t="n">
         <f aca="false">B9+D9+F9+H9+J9+L9+N9+P9</f>
         <v>11123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="23" t="n">
         <v>1311</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="16" t="n">
+      <c r="C10" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="23" t="n">
         <v>3163</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F10" s="16" t="n">
+      <c r="E10" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="23" t="n">
         <v>4238</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="H10" s="16" t="n">
+      <c r="G10" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="23" t="n">
         <v>3583</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="Q10" s="17" t="n">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="Q10" s="24" t="n">
         <f aca="false">B10+D10+F10+H10+J10+L10+N10+P10</f>
         <v>12295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="23" t="n">
         <v>7591</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="Q11" s="17" t="n">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="Q11" s="24" t="n">
         <f aca="false">B11+D11+F11+H11+J11+L11+N11+P11</f>
         <v>7591</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="16" t="n">
+      <c r="C12" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="23" t="n">
         <v>1224</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="F12" s="16" t="n">
+      <c r="E12" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="23" t="n">
         <v>3905</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="H12" s="16" t="n">
+      <c r="G12" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="H12" s="23" t="n">
         <v>1686</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="N12" s="19" t="n">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="N12" s="26" t="n">
         <v>699</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="24" t="n">
         <f aca="false">B12+D12+F12+H12+J12+L12+N12+P12</f>
         <v>7514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="26" t="n">
         <v>674</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="F13" s="16" t="n">
+      <c r="E13" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="23" t="n">
         <v>1320</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="H13" s="16" t="n">
+      <c r="G13" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="H13" s="23" t="n">
         <v>3369</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="L13" s="16" t="n">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="L13" s="23" t="n">
         <v>1807</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="Q13" s="17" t="n">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="Q13" s="24" t="n">
         <f aca="false">B13+D13+F13+H13+J13+L13+N13+P13</f>
         <v>7170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="23" t="n">
         <v>2847</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D14" s="16" t="n">
+      <c r="C14" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="23" t="n">
         <v>2178</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="F14" s="16" t="n">
+      <c r="E14" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="23" t="n">
         <v>3749</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="H14" s="16" t="n">
+      <c r="G14" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H14" s="23" t="n">
         <v>2223</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="Q14" s="17" t="n">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="Q14" s="24" t="n">
         <f aca="false">B14+D14+F14+H14+J14+L14+N14+P14</f>
         <v>10997</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D15" s="19" t="n">
+      <c r="C15" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>594</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F15" s="16" t="n">
+      <c r="E15" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="23" t="n">
         <v>1001</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="H15" s="19" t="n">
+      <c r="G15" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="H15" s="26" t="n">
         <v>679</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J15" s="16" t="n">
+      <c r="I15" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="J15" s="23" t="n">
         <v>1836</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="N15" s="19" t="n">
+      <c r="M15" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="N15" s="26" t="n">
         <v>923</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="24" t="n">
         <f aca="false">B15+D15+F15+H15+J15+L15+N15+P15</f>
         <v>5033</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="24" t="n">
         <f aca="false">B14+D14+F16+H16+J16+L16+N16+P16</f>
         <v>5025</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="23" t="n">
         <v>1421</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="16" t="n">
+      <c r="C17" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="23" t="n">
         <v>2759</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F17" s="19" t="n">
+      <c r="E17" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="26" t="n">
         <v>794</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="24" t="n">
         <f aca="false">B17+D17+F17+H17+J17+L17+N17+P17</f>
         <v>4974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B18" s="19" t="n">
+      <c r="B18" s="26" t="n">
         <v>869</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="D18" s="16" t="n">
+      <c r="C18" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="23" t="n">
         <v>1006</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18" s="16" t="n">
+      <c r="E18" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="23" t="n">
         <v>3075</v>
       </c>
-      <c r="Q18" s="17" t="n">
+      <c r="Q18" s="24" t="n">
         <f aca="false">B18+D18+F18+H18+J18+L18+N18+P18</f>
         <v>4950</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="23" t="n">
         <v>1350</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D19" s="16" t="n">
+      <c r="C19" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="23" t="n">
         <v>1023</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="F19" s="16" t="n">
+      <c r="E19" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="23" t="n">
         <v>2213</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H19" s="16" t="n">
+      <c r="G19" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H19" s="23" t="n">
         <v>1085</v>
       </c>
-      <c r="Q19" s="17" t="n">
+      <c r="Q19" s="24" t="n">
         <f aca="false">B19+D19+F19+H19+J19+L19+N19+P19</f>
         <v>5671</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="17" t="n">
+      <c r="Q20" s="24" t="n">
         <f aca="false">B20+D10+F20+H9+J20+L20+N20+P20</f>
         <v>3657</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="15" t="s">
-        <v>451</v>
+      <c r="E21" s="22" t="s">
+        <v>456</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
       </c>
-      <c r="Q21" s="17" t="n">
+      <c r="Q21" s="24" t="n">
         <f aca="false">B7+D7+F21+H21+J21+L21+N21+P21</f>
         <v>5800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="17" t="n">
+      <c r="Q22" s="24" t="n">
         <f aca="false">B22+D22+F21+H22+J22+L22+N22+P22</f>
         <v>2848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="19" t="n">
+      <c r="B23" s="26" t="n">
         <v>629</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="D23" s="16" t="n">
+      <c r="C23" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="23" t="n">
         <v>1101</v>
       </c>
-      <c r="Q23" s="17" t="n">
+      <c r="Q23" s="24" t="n">
         <f aca="false">B23+D23+F23+H19+J23+L23+N23+P23</f>
         <v>2815</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="15" t="s">
-        <v>456</v>
+      <c r="E24" s="22" t="s">
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>2780</v>
       </c>
-      <c r="Q24" s="17" t="n">
+      <c r="Q24" s="24" t="n">
         <f aca="false">B24+D24+F24+H24+J24+L24+N24+P24</f>
         <v>2780</v>
       </c>
@@ -9038,19 +9122,19 @@
       <c r="B25" s="7" t="n">
         <v>2170</v>
       </c>
-      <c r="Q25" s="17" t="n">
+      <c r="Q25" s="24" t="n">
         <f aca="false">B25+D25+F25+H25+J25+L25+N25+P25</f>
         <v>2170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="15" t="s">
-        <v>453</v>
+      <c r="E26" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="n">
         <v>2065</v>
       </c>
-      <c r="Q26" s="17" t="n">
+      <c r="Q26" s="24" t="n">
         <f aca="false">B26+D26+F26+H26+J26+L26+N26+P26</f>
         <v>2065</v>
       </c>
@@ -9062,109 +9146,109 @@
       <c r="B27" s="7" t="n">
         <v>1991</v>
       </c>
-      <c r="Q27" s="17" t="n">
+      <c r="Q27" s="24" t="n">
         <f aca="false">B27+D27+F27+H27+J27+L27+N27+P27</f>
         <v>1991</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="6" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>1696</v>
       </c>
-      <c r="Q28" s="17" t="n">
+      <c r="Q28" s="24" t="n">
         <f aca="false">B28+D28+F28+H28+J28+L28+N28+P28</f>
         <v>1696</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>760</v>
       </c>
-      <c r="Q29" s="17" t="n">
+      <c r="Q29" s="24" t="n">
         <f aca="false">B29+D29+F29+H29+J29+L29+N29+P29</f>
         <v>1288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="15" t="s">
-        <v>458</v>
+      <c r="E30" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>921</v>
       </c>
-      <c r="Q30" s="17" t="n">
+      <c r="Q30" s="24" t="n">
         <f aca="false">B30+D30+F30+H30+J30+L30+N30+P30</f>
         <v>921</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>833</v>
       </c>
-      <c r="Q31" s="17" t="n">
+      <c r="Q31" s="24" t="n">
         <f aca="false">B31+D31+F31+H31+J31+L31+N31+P31</f>
         <v>833</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="6" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>725</v>
       </c>
-      <c r="Q32" s="17" t="n">
+      <c r="Q32" s="24" t="n">
         <f aca="false">B32+D32+F32+H32+J32+L32+N32+P32</f>
         <v>725</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="5" t="n">
+      <c r="C33" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="12" t="n">
         <v>665</v>
       </c>
-      <c r="Q33" s="17" t="n">
+      <c r="Q33" s="24" t="n">
         <f aca="false">B33+D33+F33+H33+J33+L33+N33+P33</f>
         <v>665</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="12" t="n">
         <v>633</v>
       </c>
-      <c r="Q34" s="17" t="n">
+      <c r="Q34" s="24" t="n">
         <f aca="false">B34+D34+F34+H34+J34+L34+N34+P34</f>
         <v>633</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H35" s="5" t="n">
+      <c r="G35" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="H35" s="12" t="n">
         <v>522</v>
       </c>
-      <c r="Q35" s="17" t="n">
+      <c r="Q35" s="24" t="n">
         <f aca="false">B35+D35+F35+H35+J35+L35+N35+P35</f>
         <v>522</v>
       </c>
@@ -9187,11 +9271,11 @@
   </sheetPr>
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="A21:G21 D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9496,7 +9580,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -9507,7 +9591,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -9530,7 +9614,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -9553,18 +9637,18 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -9575,8 +9659,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>535</v>
+      <c r="B30" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>83</v>
@@ -9586,8 +9670,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>537</v>
+      <c r="B31" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>290</v>
@@ -9597,7 +9681,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -9610,7 +9694,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>42</v>
@@ -9622,7 +9706,7 @@
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>287</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="683">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -2128,6 +2128,17 @@
   </si>
   <si>
     <t xml:space="preserve">П4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккордовый Backspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::: #
+:::: #
+:::: :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs ent</t>
   </si>
   <si>
     <t xml:space="preserve">В этой таблице приведены аккорды для ввода редко используемых знаков препинания и специальных символов. 
@@ -2484,7 +2495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2497,7 +2508,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2551,6 +2562,10 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5115,7 +5130,7 @@
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -8741,7 +8756,7 @@
       <c r="B1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="9" t="s">
         <v>543</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -9562,11 +9577,11 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9575,7 +9590,7 @@
       <c r="B1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="9" t="s">
         <v>543</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -9835,7 +9850,7 @@
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="9" t="s">
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -10139,8 +10154,19 @@
         <v>622</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
+    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>625</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10167,7 +10193,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10176,11 +10202,11 @@
       <c r="B1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="9" t="s">
         <v>543</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10191,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>549</v>
@@ -10209,7 +10235,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>551</v>
@@ -10227,7 +10253,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>559</v>
@@ -10245,7 +10271,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>561</v>
@@ -10263,7 +10289,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>564</v>
@@ -10280,7 +10306,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>567</v>
@@ -10297,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>569</v>
@@ -10311,7 +10337,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>571</v>
@@ -10325,7 +10351,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>573</v>
@@ -10339,7 +10365,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>576</v>
@@ -10353,7 +10379,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>578</v>
@@ -10367,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>580</v>
@@ -10381,7 +10407,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>584</v>
@@ -10395,7 +10421,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>586</v>
@@ -10409,7 +10435,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>587</v>
@@ -10423,7 +10449,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>589</v>
@@ -10437,7 +10463,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>593</v>
@@ -10588,7 +10614,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10597,11 +10623,11 @@
       <c r="B1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="9" t="s">
         <v>543</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10612,10 +10638,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -10630,10 +10656,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>60</v>
@@ -10648,10 +10674,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>90</v>
@@ -10666,10 +10692,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>117</v>
@@ -10684,10 +10710,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>138</v>
@@ -10701,10 +10727,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>159</v>
@@ -10718,10 +10744,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>174</v>
@@ -10732,10 +10758,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>186</v>
@@ -10746,10 +10772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>78</v>
@@ -10760,10 +10786,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>246</v>
@@ -10774,10 +10800,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>545</v>
@@ -10788,7 +10814,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>564</v>
@@ -10802,7 +10828,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>567</v>
@@ -10816,7 +10842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>569</v>
@@ -10830,7 +10856,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>571</v>
@@ -10844,7 +10870,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>586</v>
@@ -10858,7 +10884,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>587</v>
@@ -10870,7 +10896,7 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>589</v>
@@ -10882,7 +10908,7 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>593</v>
@@ -10894,7 +10920,7 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>600</v>
@@ -10906,7 +10932,7 @@
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>603</v>
@@ -10918,7 +10944,7 @@
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>606</v>
@@ -10930,7 +10956,7 @@
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>621</v>
@@ -11036,715 +11062,715 @@
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="18" t="n">
+      <c r="B1" s="19" t="n">
         <v>48182</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="18" t="n">
+      <c r="D1" s="19" t="n">
         <v>76536</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="F1" s="18" t="n">
+      <c r="F1" s="19" t="n">
         <v>49932</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="18" t="n">
+      <c r="H1" s="19" t="n">
         <v>40447</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="J1" s="18" t="n">
+      <c r="J1" s="19" t="n">
         <v>22115</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="L1" s="18" t="n">
+      <c r="L1" s="19" t="n">
         <v>11804</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="18" t="n">
+      <c r="N1" s="19" t="n">
         <v>13039</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="P1" s="18" t="n">
+      <c r="P1" s="19" t="n">
         <v>14836</v>
       </c>
-      <c r="Q1" s="19" t="n">
+      <c r="Q1" s="20" t="n">
         <f aca="false">B1+D1+F1+H1+J1+L1+N1+P1</f>
         <v>276891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="19" t="n">
         <v>3068</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="19" t="n">
         <v>3654</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="19" t="n">
         <v>8047</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="19" t="n">
         <v>5080</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="J2" s="18" t="n">
+      <c r="J2" s="19" t="n">
         <v>1653</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="O2" s="17" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="O2" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="P2" s="21" t="n">
+      <c r="P2" s="22" t="n">
         <v>922</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="20" t="n">
         <f aca="false">B2+D2+F2+H2+J2+L2+N2+P2</f>
         <v>22424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="19" t="n">
         <v>4494</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="19" t="n">
         <v>9615</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="19" t="n">
         <v>1670</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="19" t="n">
         <v>2677</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="L3" s="18" t="n">
+      <c r="L3" s="19" t="n">
         <v>3471</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="19" t="n">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="20" t="n">
         <f aca="false">B3+D3+F3+H3+J3+L3+N3+P3</f>
         <v>21927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <v>4616</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="19" t="n">
         <v>7956</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="19" t="n">
         <v>2414</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="19" t="n">
         <v>2641</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="19" t="n">
         <v>1606</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="19" t="n">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="20" t="n">
         <f aca="false">B4+D4+F4+H4+J4+L4+N4+P4</f>
         <v>19233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="19" t="n">
         <v>5281</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="19" t="n">
         <v>2017</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="19" t="n">
         <v>3554</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="19" t="n">
         <v>2825</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19" t="n">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20" t="n">
         <f aca="false">B5+D5+F5+H5+J5+L5+N5+P5</f>
         <v>13677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="19" t="n">
         <v>2715</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="19" t="n">
         <v>3419</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="22" t="n">
         <v>814</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="19" t="n">
         <v>2592</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="17" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="L6" s="18" t="n">
+      <c r="L6" s="19" t="n">
         <v>2665</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="N6" s="21" t="n">
+      <c r="N6" s="22" t="n">
         <v>622</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="19" t="n">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20" t="n">
         <f aca="false">B6+D6+F6+H6+J6+L6+N6+P6</f>
         <v>12827</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="19" t="n">
         <v>1536</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="19" t="n">
         <v>1416</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="19" t="n">
         <v>7029</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="19" t="n">
         <v>4025</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="17" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="19" t="n">
         <v>1713</v>
       </c>
-      <c r="Q7" s="19" t="n">
+      <c r="Q7" s="20" t="n">
         <f aca="false">B7+D7+F7+H7+J7+L7+N7+P7</f>
         <v>15719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>4966</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="19" t="n">
         <v>2295</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="19" t="n">
         <v>2126</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="19" t="n">
         <v>1414</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="17" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="P8" s="21" t="n">
+      <c r="P8" s="22" t="n">
         <v>682</v>
       </c>
-      <c r="Q8" s="19" t="n">
+      <c r="Q8" s="20" t="n">
         <f aca="false">B8+D8+F8+H8+J8+L8+N8+P8</f>
         <v>11483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>6068</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="19" t="n">
         <v>2439</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="19" t="n">
         <v>2122</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="H9" s="21" t="n">
+      <c r="G9" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="H9" s="22" t="n">
         <v>494</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="Q9" s="19" t="n">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="Q9" s="20" t="n">
         <f aca="false">B9+D9+F9+H9+J9+L9+N9+P9</f>
         <v>11123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>1311</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="19" t="n">
         <v>3163</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="19" t="n">
         <v>4238</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="19" t="n">
         <v>3583</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="Q10" s="19" t="n">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="Q10" s="20" t="n">
         <f aca="false">B10+D10+F10+H10+J10+L10+N10+P10</f>
         <v>12295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="19" t="n">
         <v>7591</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="Q11" s="19" t="n">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="Q11" s="20" t="n">
         <f aca="false">B11+D11+F11+H11+J11+L11+N11+P11</f>
         <v>7591</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="19" t="n">
         <v>1224</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="19" t="n">
         <v>3905</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="19" t="n">
         <v>1686</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="17" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="N12" s="21" t="n">
+      <c r="N12" s="22" t="n">
         <v>699</v>
       </c>
-      <c r="Q12" s="19" t="n">
+      <c r="Q12" s="20" t="n">
         <f aca="false">B12+D12+F12+H12+J12+L12+N12+P12</f>
         <v>7514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="22" t="n">
         <v>674</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="19" t="n">
         <v>1320</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="19" t="n">
         <v>3369</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="17" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="19" t="n">
         <v>1807</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="Q13" s="19" t="n">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="Q13" s="20" t="n">
         <f aca="false">B13+D13+F13+H13+J13+L13+N13+P13</f>
         <v>7170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="19" t="n">
         <v>2847</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>2178</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="19" t="n">
         <v>3749</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="19" t="n">
         <v>2223</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="Q14" s="19" t="n">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="Q14" s="20" t="n">
         <f aca="false">B14+D14+F14+H14+J14+L14+N14+P14</f>
         <v>10997</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="22" t="n">
         <v>594</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="19" t="n">
         <v>1001</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="H15" s="21" t="n">
+      <c r="H15" s="22" t="n">
         <v>679</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="19" t="n">
         <v>1836</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="N15" s="21" t="n">
+      <c r="N15" s="22" t="n">
         <v>923</v>
       </c>
-      <c r="Q15" s="19" t="n">
+      <c r="Q15" s="20" t="n">
         <f aca="false">B15+D15+F15+H15+J15+L15+N15+P15</f>
         <v>5033</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="20" t="n">
         <f aca="false">B14+D14+F16+H16+J16+L16+N16+P16</f>
         <v>5025</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="19" t="n">
         <v>1421</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>2759</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="22" t="n">
         <v>794</v>
       </c>
-      <c r="Q17" s="19" t="n">
+      <c r="Q17" s="20" t="n">
         <f aca="false">B17+D17+F17+H17+J17+L17+N17+P17</f>
         <v>4974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="22" t="n">
         <v>869</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>1006</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="19" t="n">
         <v>3075</v>
       </c>
-      <c r="Q18" s="19" t="n">
+      <c r="Q18" s="20" t="n">
         <f aca="false">B18+D18+F18+H18+J18+L18+N18+P18</f>
         <v>4950</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="19" t="n">
         <v>1350</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>1023</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="19" t="n">
         <v>2213</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="19" t="n">
         <v>1085</v>
       </c>
-      <c r="Q19" s="19" t="n">
+      <c r="Q19" s="20" t="n">
         <f aca="false">B19+D19+F19+H19+J19+L19+N19+P19</f>
         <v>5671</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="19" t="n">
+      <c r="Q20" s="20" t="n">
         <f aca="false">B20+D10+F20+H9+J20+L20+N20+P20</f>
         <v>3657</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>446</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
       </c>
-      <c r="Q21" s="19" t="n">
+      <c r="Q21" s="20" t="n">
         <f aca="false">B7+D7+F21+H21+J21+L21+N21+P21</f>
         <v>5800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="19" t="n">
+      <c r="Q22" s="20" t="n">
         <f aca="false">B22+D22+F21+H22+J22+L22+N22+P22</f>
         <v>2848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="22" t="n">
         <v>629</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="19" t="n">
         <v>1101</v>
       </c>
-      <c r="Q23" s="19" t="n">
+      <c r="Q23" s="20" t="n">
         <f aca="false">B23+D23+F23+H19+J23+L23+N23+P23</f>
         <v>2815</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>451</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
       </c>
-      <c r="Q24" s="19" t="n">
+      <c r="Q24" s="20" t="n">
         <f aca="false">B24+D24+F24+H24+J24+L24+N24+P24</f>
         <v>2780</v>
       </c>
@@ -11756,19 +11782,19 @@
       <c r="B25" s="6" t="n">
         <v>2170</v>
       </c>
-      <c r="Q25" s="19" t="n">
+      <c r="Q25" s="20" t="n">
         <f aca="false">B25+D25+F25+H25+J25+L25+N25+P25</f>
         <v>2170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>448</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
       </c>
-      <c r="Q26" s="19" t="n">
+      <c r="Q26" s="20" t="n">
         <f aca="false">B26+D26+F26+H26+J26+L26+N26+P26</f>
         <v>2065</v>
       </c>
@@ -11780,7 +11806,7 @@
       <c r="B27" s="6" t="n">
         <v>1991</v>
       </c>
-      <c r="Q27" s="19" t="n">
+      <c r="Q27" s="20" t="n">
         <f aca="false">B27+D27+F27+H27+J27+L27+N27+P27</f>
         <v>1991</v>
       </c>
@@ -11792,7 +11818,7 @@
       <c r="H28" s="6" t="n">
         <v>1696</v>
       </c>
-      <c r="Q28" s="19" t="n">
+      <c r="Q28" s="20" t="n">
         <f aca="false">B28+D28+F28+H28+J28+L28+N28+P28</f>
         <v>1696</v>
       </c>
@@ -11810,19 +11836,19 @@
       <c r="J29" s="4" t="n">
         <v>760</v>
       </c>
-      <c r="Q29" s="19" t="n">
+      <c r="Q29" s="20" t="n">
         <f aca="false">B29+D29+F29+H29+J29+L29+N29+P29</f>
         <v>1288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>453</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
       </c>
-      <c r="Q30" s="19" t="n">
+      <c r="Q30" s="20" t="n">
         <f aca="false">B30+D30+F30+H30+J30+L30+N30+P30</f>
         <v>921</v>
       </c>
@@ -11834,7 +11860,7 @@
       <c r="D31" s="4" t="n">
         <v>833</v>
       </c>
-      <c r="Q31" s="19" t="n">
+      <c r="Q31" s="20" t="n">
         <f aca="false">B31+D31+F31+H31+J31+L31+N31+P31</f>
         <v>833</v>
       </c>
@@ -11846,43 +11872,43 @@
       <c r="H32" s="4" t="n">
         <v>725</v>
       </c>
-      <c r="Q32" s="19" t="n">
+      <c r="Q32" s="20" t="n">
         <f aca="false">B32+D32+F32+H32+J32+L32+N32+P32</f>
         <v>725</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="D33" s="23" t="n">
+      <c r="C33" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="D33" s="24" t="n">
         <v>665</v>
       </c>
-      <c r="Q33" s="19" t="n">
+      <c r="Q33" s="20" t="n">
         <f aca="false">B33+D33+F33+H33+J33+L33+N33+P33</f>
         <v>665</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="B34" s="23" t="n">
+      <c r="A34" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B34" s="24" t="n">
         <v>633</v>
       </c>
-      <c r="Q34" s="19" t="n">
+      <c r="Q34" s="20" t="n">
         <f aca="false">B34+D34+F34+H34+J34+L34+N34+P34</f>
         <v>633</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="H35" s="23" t="n">
+      <c r="G35" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="H35" s="24" t="n">
         <v>522</v>
       </c>
-      <c r="Q35" s="19" t="n">
+      <c r="Q35" s="20" t="n">
         <f aca="false">B35+D35+F35+H35+J35+L35+N35+P35</f>
         <v>522</v>
       </c>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="682">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1163,11 +1163,11 @@
     <t xml:space="preserve">ед</t>
   </si>
   <si>
-    <t xml:space="preserve">##:#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОИЫ</t>
+    <t xml:space="preserve">####
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАИ</t>
   </si>
   <si>
     <t xml:space="preserve">ес</t>
@@ -1487,21 +1487,17 @@
     <t xml:space="preserve">ас</t>
   </si>
   <si>
-    <t xml:space="preserve">::##
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АИЫЯ</t>
+    <t xml:space="preserve">АУЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">аз</t>
   </si>
   <si>
-    <t xml:space="preserve">::##
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АИЫУЯ</t>
+    <t xml:space="preserve">::#:
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫУЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ает</t>
@@ -2687,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5130,8 +5126,8 @@
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6373,7 +6369,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>31</v>
       </c>
@@ -6388,18 +6384,18 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2213</v>
@@ -6409,10 +6405,10 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,7 +6416,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>2848</v>
@@ -6433,7 +6429,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,7 +6437,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>2065</v>
@@ -6451,10 +6447,10 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,7 +6458,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>2780</v>
@@ -6475,7 +6471,7 @@
         <v>107</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>921</v>
@@ -6496,18 +6492,18 @@
         <v>110</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,7 +6531,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>40695</v>
@@ -6551,7 +6547,7 @@
         <v>116</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5080</v>
@@ -6572,7 +6568,7 @@
         <v>263</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,7 +6576,7 @@
         <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2677</v>
@@ -6593,7 +6589,7 @@
         <v>302</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2641</v>
@@ -6614,7 +6610,7 @@
         <v>284</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,7 +6618,7 @@
         <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2825</v>
@@ -6635,7 +6631,7 @@
         <v>128</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6639,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2592</v>
@@ -6656,7 +6652,7 @@
         <v>266</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,7 +6660,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2126</v>
@@ -6674,10 +6670,10 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>4025</v>
@@ -6698,7 +6694,7 @@
         <v>299</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,7 +6702,7 @@
         <v>25</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>3583</v>
@@ -6716,10 +6712,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,7 +6723,7 @@
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>2223</v>
@@ -6736,10 +6732,10 @@
         <v>39876</v>
       </c>
       <c r="F87" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +6743,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>679</v>
@@ -6759,7 +6755,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +6763,7 @@
         <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1686</v>
@@ -6780,7 +6776,7 @@
         <v>131</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,7 +6784,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>3369</v>
@@ -6798,10 +6794,10 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,7 +6814,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1085</v>
@@ -6828,10 +6824,10 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,7 +6835,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>725</v>
@@ -6849,10 +6845,10 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,7 +6856,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1696</v>
@@ -6870,10 +6866,10 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,7 +6897,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>11804</v>
@@ -6917,7 +6913,7 @@
         <v>137</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,7 +6921,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3471</v>
@@ -6938,7 +6934,7 @@
         <v>290</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,7 +6942,7 @@
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1606</v>
@@ -6959,7 +6955,7 @@
         <v>152</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,7 +6963,7 @@
         <v>40</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2665</v>
@@ -6980,7 +6976,7 @@
         <v>149</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,7 +6984,7 @@
         <v>57</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>1807</v>
@@ -7001,7 +6997,7 @@
         <v>155</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,7 +7029,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7049,7 +7045,7 @@
         <v>158</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7053,7 @@
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7070,7 +7066,7 @@
         <v>188</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7078,7 +7074,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7091,7 +7087,7 @@
         <v>164</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,7 +7095,7 @@
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7109,10 +7105,10 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,7 +7116,7 @@
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7133,7 +7129,7 @@
         <v>191</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7165,7 +7161,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>14836</v>
@@ -7181,7 +7177,7 @@
         <v>173</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,7 +7185,7 @@
         <v>78</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>922</v>
@@ -7202,7 +7198,7 @@
         <v>176</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,7 +7206,7 @@
         <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>682</v>
@@ -7219,10 +7215,10 @@
         <v>18299</v>
       </c>
       <c r="F125" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7226,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>1713</v>
@@ -7242,7 +7238,7 @@
         <v>179</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7285,7 +7281,7 @@
         <v>185</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,7 +7289,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -7305,7 +7301,7 @@
         <v>251</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -7325,7 +7321,7 @@
         <v>260</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +7329,7 @@
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -7345,7 +7341,7 @@
         <v>182</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +7353,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -7373,7 +7369,7 @@
         <v>35</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7385,7 +7381,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -7401,7 +7397,7 @@
         <v>233</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,7 +7409,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>212</v>
@@ -7429,7 +7425,7 @@
         <v>71</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,7 +7438,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>51</v>
@@ -7454,7 +7450,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8754,13 +8750,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9118,7 +9114,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>182</v>
@@ -9130,7 +9126,7 @@
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9141,18 +9137,18 @@
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>362</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>140</v>
@@ -9163,7 +9159,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>77</v>
@@ -9174,7 +9170,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>290</v>
@@ -9185,7 +9181,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -9197,7 +9193,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -9209,7 +9205,7 @@
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>287</v>
@@ -9577,24 +9573,24 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9605,10 +9601,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -9623,13 +9619,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9641,13 +9637,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9659,10 +9655,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>114</v>
@@ -9677,10 +9673,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>111</v>
@@ -9694,16 +9690,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9711,13 +9707,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,10 +9721,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>210</v>
@@ -9739,10 +9735,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>207</v>
@@ -9753,10 +9749,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>129</v>
@@ -9767,13 +9763,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,10 +9777,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
@@ -9795,10 +9791,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>578</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>273</v>
@@ -9809,13 +9805,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9823,10 +9819,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>165</v>
@@ -9840,7 +9836,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>150</v>
@@ -9854,7 +9850,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>156</v>
@@ -9868,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>1</v>
@@ -9882,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>2</v>
@@ -9896,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>12</v>
@@ -9910,7 +9906,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>4</v>
@@ -9924,7 +9920,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>14</v>
@@ -9938,7 +9934,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>24</v>
@@ -9952,7 +9948,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D25" s="8" t="n">
         <v>124</v>
@@ -9966,7 +9962,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>8</v>
@@ -9980,7 +9976,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>18</v>
@@ -9994,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>28</v>
@@ -10005,10 +10001,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>48</v>
@@ -10019,10 +10015,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>248</v>
@@ -10036,7 +10032,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>1248</v>
@@ -10047,13 +10043,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,13 +10057,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10075,13 +10071,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,13 +10085,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,13 +10099,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,13 +10113,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>615</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,13 +10127,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10145,13 +10141,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10159,13 +10155,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -10193,20 +10189,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10217,10 +10213,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -10235,13 +10231,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10253,10 +10249,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>111</v>
@@ -10271,10 +10267,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>105</v>
@@ -10289,13 +10285,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>565</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -10306,16 +10302,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10323,10 +10319,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>207</v>
@@ -10337,10 +10333,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>129</v>
@@ -10351,13 +10347,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10365,10 +10361,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
@@ -10379,10 +10375,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>273</v>
@@ -10393,13 +10389,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10407,10 +10403,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>150</v>
@@ -10421,10 +10417,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>1</v>
@@ -10435,10 +10431,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>2</v>
@@ -10449,10 +10445,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
@@ -10463,10 +10459,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>8</v>
@@ -10614,20 +10610,20 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10638,10 +10634,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>646</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -10656,10 +10652,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>60</v>
@@ -10674,10 +10670,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>90</v>
@@ -10692,10 +10688,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>652</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>117</v>
@@ -10710,10 +10706,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>138</v>
@@ -10727,16 +10723,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10744,10 +10740,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>658</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>174</v>
@@ -10758,10 +10754,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>660</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>186</v>
@@ -10772,10 +10768,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>662</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>78</v>
@@ -10786,10 +10782,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>664</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>246</v>
@@ -10800,13 +10796,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>666</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10814,13 +10810,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10828,10 +10824,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>210</v>
@@ -10842,10 +10838,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>207</v>
@@ -10856,10 +10852,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>129</v>
@@ -10870,10 +10866,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -10884,10 +10880,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
@@ -10896,10 +10892,10 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
@@ -10908,10 +10904,10 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>8</v>
@@ -10920,46 +10916,46 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>4</v>
@@ -11081,31 +11077,31 @@
         <v>49932</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1" s="19" t="n">
         <v>40447</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J1" s="19" t="n">
         <v>22115</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L1" s="19" t="n">
         <v>11804</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N1" s="19" t="n">
         <v>13039</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P1" s="19" t="n">
         <v>14836</v>
@@ -11135,13 +11131,13 @@
         <v>8047</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H2" s="19" t="n">
         <v>5080</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J2" s="19" t="n">
         <v>1653</v>
@@ -11149,7 +11145,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="O2" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P2" s="22" t="n">
         <v>922</v>
@@ -11179,7 +11175,7 @@
         <v>1670</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H3" s="19" t="n">
         <v>2677</v>
@@ -11187,7 +11183,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L3" s="19" t="n">
         <v>3471</v>
@@ -11219,7 +11215,7 @@
         <v>2414</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H4" s="19" t="n">
         <v>2641</v>
@@ -11227,7 +11223,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L4" s="19" t="n">
         <v>1606</v>
@@ -11259,7 +11255,7 @@
         <v>3554</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H5" s="19" t="n">
         <v>2825</v>
@@ -11295,7 +11291,7 @@
         <v>814</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H6" s="19" t="n">
         <v>2592</v>
@@ -11303,13 +11299,13 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L6" s="19" t="n">
         <v>2665</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N6" s="22" t="n">
         <v>622</v>
@@ -11341,7 +11337,7 @@
         <v>7029</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" s="19" t="n">
         <v>4025</v>
@@ -11353,7 +11349,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P7" s="19" t="n">
         <v>1713</v>
@@ -11379,13 +11375,13 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H8" s="19" t="n">
         <v>2126</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J8" s="19" t="n">
         <v>1414</v>
@@ -11395,7 +11391,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P8" s="22" t="n">
         <v>682</v>
@@ -11425,7 +11421,7 @@
         <v>2122</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H9" s="22" t="n">
         <v>494</v>
@@ -11461,7 +11457,7 @@
         <v>4238</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H10" s="19" t="n">
         <v>3583</v>
@@ -11515,7 +11511,7 @@
         <v>3905</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H12" s="19" t="n">
         <v>1686</v>
@@ -11525,7 +11521,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N12" s="22" t="n">
         <v>699</v>
@@ -11549,7 +11545,7 @@
         <v>1320</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H13" s="19" t="n">
         <v>3369</v>
@@ -11557,7 +11553,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L13" s="19" t="n">
         <v>1807</v>
@@ -11589,7 +11585,7 @@
         <v>3749</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H14" s="19" t="n">
         <v>2223</v>
@@ -11615,19 +11611,19 @@
         <v>1001</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H15" s="22" t="n">
         <v>679</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J15" s="19" t="n">
         <v>1836</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N15" s="22" t="n">
         <v>923</v>
@@ -11705,13 +11701,13 @@
         <v>1023</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>2213</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H19" s="19" t="n">
         <v>1085</v>
@@ -11729,7 +11725,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
@@ -11765,7 +11761,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
@@ -11789,7 +11785,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
@@ -11813,7 +11809,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>1696</v>
@@ -11831,7 +11827,7 @@
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
@@ -11843,7 +11839,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
@@ -11867,7 +11863,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>725</v>
@@ -11879,7 +11875,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D33" s="24" t="n">
         <v>665</v>
@@ -11891,7 +11887,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B34" s="24" t="n">
         <v>633</v>
@@ -11903,7 +11899,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H35" s="24" t="n">
         <v>522</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="681">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -208,11 +208,11 @@
     <t xml:space="preserve">стр</t>
   </si>
   <si>
-    <t xml:space="preserve">#::#
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТБН</t>
+    <t xml:space="preserve">####
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТ</t>
   </si>
   <si>
     <t xml:space="preserve">сч</t>
@@ -1161,10 +1161,6 @@
   </si>
   <si>
     <t xml:space="preserve">ед</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####
-::::</t>
   </si>
   <si>
     <t xml:space="preserve">ЕОАИ</t>
@@ -2683,8 +2679,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3069,7 +3065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>38</v>
       </c>
@@ -5126,7 +5122,7 @@
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -5457,10 +5453,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>869</v>
@@ -5478,10 +5474,10 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,7 +5485,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1350</v>
@@ -5499,10 +5495,10 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5506,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>629</v>
@@ -5520,10 +5516,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5527,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1536</v>
@@ -5544,7 +5540,7 @@
         <v>134</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2170</v>
@@ -5562,10 +5558,10 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5569,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1991</v>
@@ -5586,19 +5582,19 @@
         <v>25</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>72026</v>
@@ -5646,7 +5642,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5650,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3783</v>
@@ -5664,10 +5660,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>9615</v>
@@ -5688,7 +5684,7 @@
         <v>122</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5692,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>7956</v>
@@ -5709,7 +5705,7 @@
         <v>221</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,7 +5726,7 @@
         <v>209</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5734,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>3419</v>
@@ -5751,7 +5747,7 @@
         <v>272</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5772,7 +5768,7 @@
         <v>224</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +5776,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2439</v>
@@ -5793,7 +5789,7 @@
         <v>98</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,7 +5797,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1224</v>
@@ -5814,7 +5810,7 @@
         <v>218</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5818,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>594</v>
@@ -5832,10 +5828,10 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,7 +5839,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2178</v>
@@ -5853,10 +5849,10 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5860,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2759</v>
@@ -5874,10 +5870,10 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +5881,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1006</v>
@@ -5898,7 +5894,7 @@
         <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,7 +5902,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1023</v>
@@ -5916,10 +5912,10 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,7 +5923,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>3163</v>
@@ -5940,7 +5936,7 @@
         <v>230</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,7 +5944,7 @@
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1101</v>
@@ -5958,10 +5954,10 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,7 +5965,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>1416</v>
@@ -5979,10 +5975,10 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5990,7 +5986,7 @@
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>528</v>
@@ -6003,7 +5999,7 @@
         <v>236</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,7 +6007,7 @@
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>833</v>
@@ -6024,12 +6020,12 @@
         <v>239</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>6633</v>
@@ -6042,18 +6038,18 @@
         <v>68</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>49932</v>
@@ -6093,7 +6089,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6097,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>8047</v>
@@ -6114,7 +6110,7 @@
         <v>245</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6122,7 +6118,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1670</v>
@@ -6135,7 +6131,7 @@
         <v>275</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,7 +6139,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2414</v>
@@ -6156,7 +6152,7 @@
         <v>293</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3554</v>
@@ -6177,7 +6173,7 @@
         <v>206</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,7 +6181,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>814</v>
@@ -6198,7 +6194,7 @@
         <v>125</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,7 +6202,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>7029</v>
@@ -6219,7 +6215,7 @@
         <v>194</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6223,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>2122</v>
@@ -6240,7 +6236,7 @@
         <v>113</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>4238</v>
@@ -6258,10 +6254,10 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6265,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>3905</v>
@@ -6279,10 +6275,10 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +6286,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>1320</v>
@@ -6303,7 +6299,7 @@
         <v>101</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,7 +6307,7 @@
         <v>23</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>3749</v>
@@ -6321,10 +6317,10 @@
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>1001</v>
@@ -6342,10 +6338,10 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,7 +6349,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>794</v>
@@ -6363,10 +6359,10 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,7 +6370,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3075</v>
@@ -6387,7 +6383,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,7 +6391,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2213</v>
@@ -6405,10 +6401,10 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>2848</v>
@@ -6429,7 +6425,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,7 +6433,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>2065</v>
@@ -6447,10 +6443,10 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6454,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>2780</v>
@@ -6471,7 +6467,7 @@
         <v>107</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,7 +6475,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>921</v>
@@ -6492,18 +6488,18 @@
         <v>110</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>40695</v>
@@ -6547,7 +6543,7 @@
         <v>116</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,7 +6551,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5080</v>
@@ -6568,7 +6564,7 @@
         <v>263</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,7 +6572,7 @@
         <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2677</v>
@@ -6589,7 +6585,7 @@
         <v>302</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,7 +6593,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2641</v>
@@ -6610,7 +6606,7 @@
         <v>284</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,7 +6614,7 @@
         <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2825</v>
@@ -6631,7 +6627,7 @@
         <v>128</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,7 +6635,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2592</v>
@@ -6652,7 +6648,7 @@
         <v>266</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,7 +6656,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2126</v>
@@ -6670,10 +6666,10 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,7 +6677,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>4025</v>
@@ -6694,7 +6690,7 @@
         <v>299</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6702,7 +6698,7 @@
         <v>25</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>3583</v>
@@ -6712,10 +6708,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,7 +6719,7 @@
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>2223</v>
@@ -6732,10 +6728,10 @@
         <v>39876</v>
       </c>
       <c r="F87" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +6739,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>679</v>
@@ -6755,7 +6751,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,7 +6759,7 @@
         <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1686</v>
@@ -6776,7 +6772,7 @@
         <v>131</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,7 +6780,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>3369</v>
@@ -6794,10 +6790,10 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,7 +6810,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1085</v>
@@ -6824,10 +6820,10 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,7 +6831,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>725</v>
@@ -6845,10 +6841,10 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,7 +6852,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1696</v>
@@ -6866,10 +6862,10 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,7 +6893,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>11804</v>
@@ -6913,7 +6909,7 @@
         <v>137</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +6917,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3471</v>
@@ -6934,7 +6930,7 @@
         <v>290</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6942,7 +6938,7 @@
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1606</v>
@@ -6955,7 +6951,7 @@
         <v>152</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2665</v>
@@ -6976,7 +6972,7 @@
         <v>149</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,7 +6980,7 @@
         <v>57</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>1807</v>
@@ -6997,7 +6993,7 @@
         <v>155</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7045,7 +7041,7 @@
         <v>158</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,7 +7049,7 @@
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7066,7 +7062,7 @@
         <v>188</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,7 +7070,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7087,7 +7083,7 @@
         <v>164</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7091,7 @@
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7105,10 +7101,10 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,7 +7112,7 @@
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7129,7 +7125,7 @@
         <v>191</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,7 +7157,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>14836</v>
@@ -7177,7 +7173,7 @@
         <v>173</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7185,7 +7181,7 @@
         <v>78</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>922</v>
@@ -7198,7 +7194,7 @@
         <v>176</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,7 +7202,7 @@
         <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>682</v>
@@ -7215,10 +7211,10 @@
         <v>18299</v>
       </c>
       <c r="F125" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,7 +7222,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>1713</v>
@@ -7238,7 +7234,7 @@
         <v>179</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7261,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7281,7 +7277,7 @@
         <v>185</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,7 +7285,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -7301,7 +7297,7 @@
         <v>251</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -7321,7 +7317,7 @@
         <v>260</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,7 +7325,7 @@
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -7341,7 +7337,7 @@
         <v>182</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,7 +7349,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -7369,7 +7365,7 @@
         <v>35</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +7377,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -7397,7 +7393,7 @@
         <v>233</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,7 +7405,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>212</v>
@@ -7425,7 +7421,7 @@
         <v>71</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,7 +7434,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>51</v>
@@ -7450,7 +7446,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,13 +8746,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9080,7 +9076,7 @@
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>44</v>
@@ -9103,7 +9099,7 @@
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>122</v>
@@ -9114,7 +9110,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>182</v>
@@ -9126,7 +9122,7 @@
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9137,18 +9133,18 @@
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>140</v>
@@ -9159,7 +9155,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>77</v>
@@ -9170,7 +9166,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>290</v>
@@ -9181,7 +9177,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -9193,7 +9189,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -9205,7 +9201,7 @@
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>287</v>
@@ -9584,13 +9580,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9601,10 +9597,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -9619,13 +9615,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9637,13 +9633,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9655,10 +9651,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>556</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>114</v>
@@ -9673,10 +9669,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>111</v>
@@ -9690,16 +9686,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,13 +9703,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9721,10 +9717,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>566</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>210</v>
@@ -9735,10 +9731,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>207</v>
@@ -9749,10 +9745,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>129</v>
@@ -9763,13 +9759,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,10 +9773,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
@@ -9791,10 +9787,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>273</v>
@@ -9805,13 +9801,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9819,10 +9815,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>165</v>
@@ -9836,7 +9832,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>150</v>
@@ -9850,7 +9846,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>156</v>
@@ -9864,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>1</v>
@@ -9878,7 +9874,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>2</v>
@@ -9892,7 +9888,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>12</v>
@@ -9906,7 +9902,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>4</v>
@@ -9920,7 +9916,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>14</v>
@@ -9934,7 +9930,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>24</v>
@@ -9948,7 +9944,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D25" s="8" t="n">
         <v>124</v>
@@ -9962,7 +9958,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>8</v>
@@ -9976,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>18</v>
@@ -9990,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>28</v>
@@ -10001,10 +9997,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>48</v>
@@ -10015,10 +10011,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>248</v>
@@ -10032,7 +10028,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>1248</v>
@@ -10043,13 +10039,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10057,13 +10053,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10071,13 +10067,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10085,13 +10081,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10099,13 +10095,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10113,13 +10109,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10127,13 +10123,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,13 +10137,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,13 +10151,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -10196,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10213,10 +10209,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -10231,13 +10227,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10249,10 +10245,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>111</v>
@@ -10267,10 +10263,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>105</v>
@@ -10285,13 +10281,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -10302,16 +10298,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10319,10 +10315,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>207</v>
@@ -10333,10 +10329,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>129</v>
@@ -10347,13 +10343,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,10 +10357,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
@@ -10375,10 +10371,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>273</v>
@@ -10389,13 +10385,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10403,10 +10399,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>150</v>
@@ -10417,10 +10413,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>1</v>
@@ -10431,10 +10427,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>2</v>
@@ -10445,10 +10441,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
@@ -10459,10 +10455,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>8</v>
@@ -10617,13 +10613,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10634,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>645</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -10652,10 +10648,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>647</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>60</v>
@@ -10670,10 +10666,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>649</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>90</v>
@@ -10688,10 +10684,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>117</v>
@@ -10706,10 +10702,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>653</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>138</v>
@@ -10723,16 +10719,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>655</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10740,10 +10736,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>657</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>174</v>
@@ -10754,10 +10750,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>659</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>186</v>
@@ -10768,10 +10764,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>661</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>78</v>
@@ -10782,10 +10778,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>246</v>
@@ -10796,13 +10792,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>665</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10810,13 +10806,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10824,10 +10820,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>210</v>
@@ -10838,10 +10834,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>207</v>
@@ -10852,10 +10848,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>129</v>
@@ -10866,10 +10862,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -10880,10 +10876,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
@@ -10892,10 +10888,10 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
@@ -10904,10 +10900,10 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>8</v>
@@ -10916,46 +10912,46 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>4</v>
@@ -11065,43 +11061,43 @@
         <v>48182</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="19" t="n">
         <v>76536</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="19" t="n">
         <v>49932</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1" s="19" t="n">
         <v>40447</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J1" s="19" t="n">
         <v>22115</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L1" s="19" t="n">
         <v>11804</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N1" s="19" t="n">
         <v>13039</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P1" s="19" t="n">
         <v>14836</v>
@@ -11119,25 +11115,25 @@
         <v>3068</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="19" t="n">
         <v>3654</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F2" s="19" t="n">
         <v>8047</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H2" s="19" t="n">
         <v>5080</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J2" s="19" t="n">
         <v>1653</v>
@@ -11145,7 +11141,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="O2" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P2" s="22" t="n">
         <v>922</v>
@@ -11163,19 +11159,19 @@
         <v>4494</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" s="19" t="n">
         <v>9615</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F3" s="19" t="n">
         <v>1670</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H3" s="19" t="n">
         <v>2677</v>
@@ -11183,7 +11179,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L3" s="19" t="n">
         <v>3471</v>
@@ -11203,19 +11199,19 @@
         <v>4616</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D4" s="19" t="n">
         <v>7956</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F4" s="19" t="n">
         <v>2414</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H4" s="19" t="n">
         <v>2641</v>
@@ -11223,7 +11219,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L4" s="19" t="n">
         <v>1606</v>
@@ -11249,13 +11245,13 @@
         <v>2017</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="19" t="n">
         <v>3554</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H5" s="19" t="n">
         <v>2825</v>
@@ -11279,19 +11275,19 @@
         <v>2715</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="19" t="n">
         <v>3419</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F6" s="22" t="n">
         <v>814</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H6" s="19" t="n">
         <v>2592</v>
@@ -11299,13 +11295,13 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L6" s="19" t="n">
         <v>2665</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N6" s="22" t="n">
         <v>622</v>
@@ -11319,25 +11315,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7" s="19" t="n">
         <v>1536</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="19" t="n">
         <v>1416</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>7029</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H7" s="19" t="n">
         <v>4025</v>
@@ -11349,7 +11345,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P7" s="19" t="n">
         <v>1713</v>
@@ -11375,13 +11371,13 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="19" t="n">
         <v>2126</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J8" s="19" t="n">
         <v>1414</v>
@@ -11391,7 +11387,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P8" s="22" t="n">
         <v>682</v>
@@ -11409,19 +11405,19 @@
         <v>6068</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D9" s="19" t="n">
         <v>2439</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>2122</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H9" s="22" t="n">
         <v>494</v>
@@ -11445,19 +11441,19 @@
         <v>1311</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="19" t="n">
         <v>3163</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>4238</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H10" s="19" t="n">
         <v>3583</v>
@@ -11499,19 +11495,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" s="19" t="n">
         <v>1224</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>3905</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H12" s="19" t="n">
         <v>1686</v>
@@ -11521,7 +11517,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N12" s="22" t="n">
         <v>699</v>
@@ -11539,13 +11535,13 @@
         <v>674</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1320</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H13" s="19" t="n">
         <v>3369</v>
@@ -11553,7 +11549,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L13" s="19" t="n">
         <v>1807</v>
@@ -11573,19 +11569,19 @@
         <v>2847</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="19" t="n">
         <v>2178</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>3749</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H14" s="19" t="n">
         <v>2223</v>
@@ -11599,31 +11595,31 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D15" s="22" t="n">
         <v>594</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>1001</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H15" s="22" t="n">
         <v>679</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J15" s="19" t="n">
         <v>1836</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N15" s="22" t="n">
         <v>923</v>
@@ -11647,13 +11643,13 @@
         <v>1421</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" s="19" t="n">
         <v>2759</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F17" s="22" t="n">
         <v>794</v>
@@ -11665,19 +11661,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" s="22" t="n">
         <v>869</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D18" s="19" t="n">
         <v>1006</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>3075</v>
@@ -11689,25 +11685,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="19" t="n">
         <v>1350</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D19" s="19" t="n">
         <v>1023</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>2213</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H19" s="19" t="n">
         <v>1085</v>
@@ -11725,7 +11721,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
@@ -11743,13 +11739,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="22" t="n">
         <v>629</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D23" s="19" t="n">
         <v>1101</v>
@@ -11761,7 +11757,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
@@ -11773,7 +11769,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>2170</v>
@@ -11785,7 +11781,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
@@ -11797,7 +11793,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>1991</v>
@@ -11809,7 +11805,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>1696</v>
@@ -11821,13 +11817,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
@@ -11839,7 +11835,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
@@ -11851,7 +11847,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>833</v>
@@ -11863,7 +11859,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>725</v>
@@ -11875,7 +11871,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D33" s="24" t="n">
         <v>665</v>
@@ -11887,7 +11883,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B34" s="24" t="n">
         <v>633</v>
@@ -11899,7 +11895,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H35" s="24" t="n">
         <v>522</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="684">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1215,7 +1215,7 @@
     <t xml:space="preserve">ения</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕУЯ</t>
+    <t xml:space="preserve">ЕЫЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ель</t>
@@ -1279,13 +1279,6 @@
     <t xml:space="preserve">ою</t>
   </si>
   <si>
-    <t xml:space="preserve">:###
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАИЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ому</t>
   </si>
   <si>
@@ -1349,9 +1342,6 @@
   </si>
   <si>
     <t xml:space="preserve">ог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫУЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ои</t>
@@ -1716,6 +1706,33 @@
     <t xml:space="preserve">ую</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#:::
+:##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уй</t>
+  </si>
+  <si>
     <t xml:space="preserve">УЬ</t>
   </si>
   <si>
@@ -1746,6 +1763,17 @@
   </si>
   <si>
     <t xml:space="preserve">ЯЬ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+::##
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯЬ21</t>
   </si>
   <si>
     <t xml:space="preserve">ь</t>
@@ -2679,8 +2707,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5122,8 +5150,8 @@
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5579,7 +5607,7 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>355</v>
@@ -5636,7 +5664,7 @@
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM(C27:C50)</f>
-        <v>126008</v>
+        <v>124886</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>59</v>
@@ -5813,33 +5841,25 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>594</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>16025</v>
-      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>377</v>
-      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2178</v>
@@ -5849,10 +5869,10 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,7 +5880,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2759</v>
@@ -5870,10 +5890,10 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,7 +5901,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1006</v>
@@ -5894,7 +5914,7 @@
         <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,7 +5922,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1023</v>
@@ -5912,10 +5932,10 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,7 +5943,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>3163</v>
@@ -5936,7 +5956,7 @@
         <v>230</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5964,7 @@
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1101</v>
@@ -5954,10 +5974,10 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +5985,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>1416</v>
@@ -5975,39 +5995,31 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>528</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>14186</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>398</v>
-      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>833</v>
@@ -6020,12 +6032,12 @@
         <v>239</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>6633</v>
@@ -6038,18 +6050,18 @@
         <v>68</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>49932</v>
@@ -6089,7 +6101,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,7 +6109,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>8047</v>
@@ -6110,7 +6122,7 @@
         <v>245</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,7 +6130,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1670</v>
@@ -6131,7 +6143,7 @@
         <v>275</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6151,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2414</v>
@@ -6152,7 +6164,7 @@
         <v>293</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3554</v>
@@ -6173,7 +6185,7 @@
         <v>206</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>814</v>
@@ -6194,7 +6206,7 @@
         <v>125</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,7 +6214,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>7029</v>
@@ -6215,7 +6227,7 @@
         <v>194</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,7 +6235,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>2122</v>
@@ -6236,7 +6248,7 @@
         <v>113</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,7 +6256,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>4238</v>
@@ -6254,10 +6266,10 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,7 +6277,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>3905</v>
@@ -6275,10 +6287,10 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,7 +6298,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>1320</v>
@@ -6299,7 +6311,7 @@
         <v>101</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6307,7 +6319,7 @@
         <v>23</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>3749</v>
@@ -6317,10 +6329,10 @@
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6340,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>1001</v>
@@ -6338,10 +6350,10 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,7 +6361,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>794</v>
@@ -6359,10 +6371,10 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3075</v>
@@ -6383,7 +6395,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,7 +6403,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2213</v>
@@ -6401,10 +6413,10 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,7 +6424,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>2848</v>
@@ -6425,7 +6437,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,7 +6445,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>2065</v>
@@ -6443,10 +6455,10 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,7 +6466,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>2780</v>
@@ -6467,7 +6479,7 @@
         <v>107</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>921</v>
@@ -6488,18 +6500,18 @@
         <v>110</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>40695</v>
@@ -6543,7 +6555,7 @@
         <v>116</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6551,7 +6563,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5080</v>
@@ -6564,7 +6576,7 @@
         <v>263</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,7 +6584,7 @@
         <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2677</v>
@@ -6585,7 +6597,7 @@
         <v>302</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,7 +6605,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2641</v>
@@ -6606,7 +6618,7 @@
         <v>284</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,7 +6626,7 @@
         <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2825</v>
@@ -6627,7 +6639,7 @@
         <v>128</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +6647,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2592</v>
@@ -6648,7 +6660,7 @@
         <v>266</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6668,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2126</v>
@@ -6666,10 +6678,10 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,7 +6689,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>4025</v>
@@ -6690,7 +6702,7 @@
         <v>299</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,7 +6710,7 @@
         <v>25</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>3583</v>
@@ -6708,10 +6720,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,7 +6731,7 @@
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>2223</v>
@@ -6728,10 +6740,10 @@
         <v>39876</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,7 +6751,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>679</v>
@@ -6751,7 +6763,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +6771,7 @@
         <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1686</v>
@@ -6772,7 +6784,7 @@
         <v>131</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,7 +6792,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>3369</v>
@@ -6790,10 +6802,10 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6810,7 +6822,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1085</v>
@@ -6820,10 +6832,10 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,7 +6843,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>725</v>
@@ -6841,10 +6853,10 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6864,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1696</v>
@@ -6862,10 +6874,10 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,7 +6905,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>11804</v>
@@ -6909,7 +6921,7 @@
         <v>137</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,7 +6929,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3471</v>
@@ -6930,7 +6942,7 @@
         <v>290</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +6950,7 @@
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1606</v>
@@ -6951,7 +6963,7 @@
         <v>152</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6959,7 +6971,7 @@
         <v>40</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2665</v>
@@ -6972,7 +6984,7 @@
         <v>149</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,7 +6992,7 @@
         <v>57</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>1807</v>
@@ -6993,7 +7005,7 @@
         <v>155</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,7 +7037,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7041,7 +7053,7 @@
         <v>158</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,7 +7061,7 @@
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7062,7 +7074,7 @@
         <v>188</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,7 +7082,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7083,7 +7095,7 @@
         <v>164</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,7 +7103,7 @@
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7101,18 +7113,18 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7122,15 +7134,25 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G117" s="11" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="11"/>
@@ -7237,9 +7259,16 @@
         <v>523</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="7"/>
@@ -7261,7 +7290,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7277,7 +7306,7 @@
         <v>185</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7314,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -7297,7 +7326,7 @@
         <v>251</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7305,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -7317,7 +7346,7 @@
         <v>260</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7354,7 @@
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -7337,7 +7366,7 @@
         <v>182</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +7378,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -7365,7 +7394,7 @@
         <v>35</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,7 +7406,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -7393,7 +7422,7 @@
         <v>233</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7434,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>212</v>
@@ -7421,7 +7450,7 @@
         <v>71</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +7463,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>51</v>
@@ -7446,7 +7475,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9099,7 +9128,7 @@
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>122</v>
@@ -9110,7 +9139,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>182</v>
@@ -9122,7 +9151,7 @@
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9139,12 +9168,12 @@
         <v>361</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>140</v>
@@ -9155,7 +9184,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>77</v>
@@ -9166,7 +9195,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>290</v>
@@ -9177,7 +9206,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -9189,7 +9218,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -9201,7 +9230,7 @@
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>287</v>
@@ -9580,13 +9609,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9597,10 +9626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -9615,13 +9644,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9633,13 +9662,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9651,10 +9680,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>114</v>
@@ -9669,10 +9698,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>111</v>
@@ -9686,16 +9715,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9703,13 +9732,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,10 +9746,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>210</v>
@@ -9731,10 +9760,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>207</v>
@@ -9745,10 +9774,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>129</v>
@@ -9759,13 +9788,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9773,10 +9802,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
@@ -9787,10 +9816,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>273</v>
@@ -9801,13 +9830,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9815,10 +9844,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>165</v>
@@ -9832,7 +9861,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>150</v>
@@ -9846,7 +9875,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>156</v>
@@ -9860,7 +9889,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>1</v>
@@ -9874,7 +9903,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>2</v>
@@ -9888,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>12</v>
@@ -9902,7 +9931,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>4</v>
@@ -9916,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>14</v>
@@ -9930,7 +9959,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>24</v>
@@ -9944,7 +9973,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D25" s="8" t="n">
         <v>124</v>
@@ -9958,7 +9987,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>8</v>
@@ -9972,7 +10001,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>18</v>
@@ -9986,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>28</v>
@@ -9997,10 +10026,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>48</v>
@@ -10011,10 +10040,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>248</v>
@@ -10028,7 +10057,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>1248</v>
@@ -10039,13 +10068,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10053,13 +10082,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,13 +10096,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,13 +10110,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10095,13 +10124,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10109,13 +10138,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,13 +10152,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,13 +10166,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10151,13 +10180,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -10192,13 +10221,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10209,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -10227,13 +10256,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10245,10 +10274,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>111</v>
@@ -10263,10 +10292,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>105</v>
@@ -10281,13 +10310,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -10298,16 +10327,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,10 +10344,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>207</v>
@@ -10329,10 +10358,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>129</v>
@@ -10343,13 +10372,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,10 +10386,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
@@ -10371,10 +10400,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>273</v>
@@ -10385,13 +10414,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,10 +10428,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>150</v>
@@ -10413,10 +10442,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>1</v>
@@ -10427,10 +10456,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>2</v>
@@ -10441,10 +10470,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
@@ -10455,10 +10484,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>8</v>
@@ -10613,13 +10642,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10630,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -10648,10 +10677,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>60</v>
@@ -10666,10 +10695,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>90</v>
@@ -10684,10 +10713,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>117</v>
@@ -10702,10 +10731,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>138</v>
@@ -10719,16 +10748,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10736,10 +10765,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>174</v>
@@ -10750,10 +10779,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>186</v>
@@ -10764,10 +10793,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>78</v>
@@ -10778,10 +10807,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>246</v>
@@ -10792,13 +10821,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10806,13 +10835,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10820,10 +10849,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>210</v>
@@ -10834,10 +10863,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>207</v>
@@ -10848,10 +10877,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>129</v>
@@ -10862,10 +10891,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -10876,10 +10905,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
@@ -10888,10 +10917,10 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
@@ -10900,10 +10929,10 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>8</v>
@@ -10912,46 +10941,46 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>4</v>
@@ -11067,31 +11096,31 @@
         <v>76536</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F1" s="19" t="n">
         <v>49932</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H1" s="19" t="n">
         <v>40447</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J1" s="19" t="n">
         <v>22115</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L1" s="19" t="n">
         <v>11804</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N1" s="19" t="n">
         <v>13039</v>
@@ -11121,19 +11150,19 @@
         <v>3654</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F2" s="19" t="n">
         <v>8047</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H2" s="19" t="n">
         <v>5080</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J2" s="19" t="n">
         <v>1653</v>
@@ -11165,13 +11194,13 @@
         <v>9615</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F3" s="19" t="n">
         <v>1670</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H3" s="19" t="n">
         <v>2677</v>
@@ -11179,7 +11208,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L3" s="19" t="n">
         <v>3471</v>
@@ -11205,13 +11234,13 @@
         <v>7956</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F4" s="19" t="n">
         <v>2414</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H4" s="19" t="n">
         <v>2641</v>
@@ -11219,7 +11248,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L4" s="19" t="n">
         <v>1606</v>
@@ -11245,13 +11274,13 @@
         <v>2017</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F5" s="19" t="n">
         <v>3554</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H5" s="19" t="n">
         <v>2825</v>
@@ -11281,13 +11310,13 @@
         <v>3419</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F6" s="22" t="n">
         <v>814</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H6" s="19" t="n">
         <v>2592</v>
@@ -11295,13 +11324,13 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L6" s="19" t="n">
         <v>2665</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N6" s="22" t="n">
         <v>622</v>
@@ -11321,19 +11350,19 @@
         <v>1536</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D7" s="19" t="n">
         <v>1416</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>7029</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H7" s="19" t="n">
         <v>4025</v>
@@ -11371,13 +11400,13 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H8" s="19" t="n">
         <v>2126</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J8" s="19" t="n">
         <v>1414</v>
@@ -11411,13 +11440,13 @@
         <v>2439</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>2122</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H9" s="22" t="n">
         <v>494</v>
@@ -11441,19 +11470,19 @@
         <v>1311</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D10" s="19" t="n">
         <v>3163</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>4238</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H10" s="19" t="n">
         <v>3583</v>
@@ -11501,13 +11530,13 @@
         <v>1224</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>3905</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H12" s="19" t="n">
         <v>1686</v>
@@ -11517,7 +11546,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="18" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="N12" s="22" t="n">
         <v>699</v>
@@ -11535,13 +11564,13 @@
         <v>674</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1320</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H13" s="19" t="n">
         <v>3369</v>
@@ -11549,7 +11578,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L13" s="19" t="n">
         <v>1807</v>
@@ -11569,19 +11598,19 @@
         <v>2847</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D14" s="19" t="n">
         <v>2178</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>3749</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H14" s="19" t="n">
         <v>2223</v>
@@ -11601,25 +11630,25 @@
         <v>594</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>1001</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H15" s="22" t="n">
         <v>679</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J15" s="19" t="n">
         <v>1836</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N15" s="22" t="n">
         <v>923</v>
@@ -11643,13 +11672,13 @@
         <v>1421</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D17" s="19" t="n">
         <v>2759</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F17" s="22" t="n">
         <v>794</v>
@@ -11667,13 +11696,13 @@
         <v>869</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D18" s="19" t="n">
         <v>1006</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>3075</v>
@@ -11691,19 +11720,19 @@
         <v>1350</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D19" s="19" t="n">
         <v>1023</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>2213</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H19" s="19" t="n">
         <v>1085</v>
@@ -11721,7 +11750,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
@@ -11745,7 +11774,7 @@
         <v>629</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D23" s="19" t="n">
         <v>1101</v>
@@ -11757,7 +11786,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
@@ -11781,7 +11810,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
@@ -11805,7 +11834,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>1696</v>
@@ -11817,13 +11846,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
@@ -11835,7 +11864,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="18" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
@@ -11847,7 +11876,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>833</v>
@@ -11859,7 +11888,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>725</v>
@@ -11871,7 +11900,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="23" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D33" s="24" t="n">
         <v>665</v>
@@ -11883,7 +11912,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B34" s="24" t="n">
         <v>633</v>
@@ -11895,7 +11924,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="23" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H35" s="24" t="n">
         <v>522</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="685">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -1193,9 +1193,6 @@
 :#::</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕОАИУ</t>
-  </si>
-  <si>
     <t xml:space="preserve">есть</t>
   </si>
   <si>
@@ -1672,6 +1669,12 @@
   </si>
   <si>
     <t xml:space="preserve">ЫУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУ</t>
   </si>
   <si>
     <t xml:space="preserve">у</t>
@@ -2368,7 +2371,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -2427,6 +2430,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -2449,6 +2474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -2457,12 +2488,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -2515,7 +2540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2568,19 +2593,39 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2588,11 +2633,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2600,19 +2645,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2708,7 +2753,7 @@
   <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
+      <selection pane="topLeft" activeCell="F50" activeCellId="1" sqref="B17:F17 F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5150,8 +5195,8 @@
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5533,29 +5578,27 @@
       <c r="A17" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="14" t="n">
         <v>629</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="15" t="n">
         <v>16940</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>348</v>
-      </c>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1536</v>
@@ -5568,7 +5611,7 @@
         <v>134</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5619,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2170</v>
@@ -5586,10 +5629,10 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,7 +5640,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1991</v>
@@ -5610,19 +5653,19 @@
         <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="18" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>72026</v>
@@ -5670,7 +5713,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,7 +5721,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3783</v>
@@ -5688,10 +5731,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>9615</v>
@@ -5712,7 +5755,7 @@
         <v>122</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5763,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>7956</v>
@@ -5733,7 +5776,7 @@
         <v>221</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,7 +5797,7 @@
         <v>209</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5762,7 +5805,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>3419</v>
@@ -5775,7 +5818,7 @@
         <v>272</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5839,7 @@
         <v>224</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +5847,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2439</v>
@@ -5817,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5868,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1224</v>
@@ -5838,7 +5881,7 @@
         <v>218</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5889,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -5859,7 +5902,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2178</v>
@@ -5869,10 +5912,10 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,7 +5923,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2759</v>
@@ -5890,10 +5933,10 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,7 +5944,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1006</v>
@@ -5914,7 +5957,7 @@
         <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,7 +5965,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1023</v>
@@ -5932,10 +5975,10 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,7 +5986,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>3163</v>
@@ -5956,7 +5999,7 @@
         <v>230</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,7 +6007,7 @@
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1101</v>
@@ -5974,10 +6017,10 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,7 +6028,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>1416</v>
@@ -5995,10 +6038,10 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,7 +6049,7 @@
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -6019,7 +6062,7 @@
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>833</v>
@@ -6032,12 +6075,12 @@
         <v>239</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>6633</v>
@@ -6050,18 +6093,18 @@
         <v>68</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="18" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>49932</v>
@@ -6101,7 +6144,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,7 +6152,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>8047</v>
@@ -6122,7 +6165,7 @@
         <v>245</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,7 +6173,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1670</v>
@@ -6143,7 +6186,7 @@
         <v>275</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6151,7 +6194,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2414</v>
@@ -6164,7 +6207,7 @@
         <v>293</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6215,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3554</v>
@@ -6185,7 +6228,7 @@
         <v>206</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,7 +6236,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>814</v>
@@ -6206,7 +6249,7 @@
         <v>125</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6257,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>7029</v>
@@ -6227,7 +6270,7 @@
         <v>194</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,7 +6278,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>2122</v>
@@ -6248,7 +6291,7 @@
         <v>113</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,7 +6299,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>4238</v>
@@ -6266,10 +6309,10 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>420</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +6320,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>3905</v>
@@ -6287,10 +6330,10 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>423</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,7 +6341,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>1320</v>
@@ -6311,7 +6354,7 @@
         <v>101</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,7 +6362,7 @@
         <v>23</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>3749</v>
@@ -6329,10 +6372,10 @@
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,7 +6383,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>1001</v>
@@ -6350,10 +6393,10 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6361,7 +6404,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>794</v>
@@ -6371,10 +6414,10 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6382,7 +6425,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3075</v>
@@ -6395,7 +6438,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +6446,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2213</v>
@@ -6413,10 +6456,10 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,7 +6467,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>2848</v>
@@ -6437,7 +6480,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +6488,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>2065</v>
@@ -6455,10 +6498,10 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,7 +6509,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>2780</v>
@@ -6479,7 +6522,7 @@
         <v>107</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6487,7 +6530,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>921</v>
@@ -6500,18 +6543,18 @@
         <v>110</v>
       </c>
       <c r="G71" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="18" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="13" t="s">
-        <v>450</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6539,7 +6582,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>40695</v>
@@ -6555,7 +6598,7 @@
         <v>116</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5080</v>
@@ -6576,7 +6619,7 @@
         <v>263</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6627,7 @@
         <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2677</v>
@@ -6597,7 +6640,7 @@
         <v>302</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,7 +6648,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2641</v>
@@ -6618,7 +6661,7 @@
         <v>284</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,7 +6669,7 @@
         <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2825</v>
@@ -6639,7 +6682,7 @@
         <v>128</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,7 +6690,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2592</v>
@@ -6660,7 +6703,7 @@
         <v>266</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,7 +6711,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2126</v>
@@ -6678,10 +6721,10 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,7 +6732,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>4025</v>
@@ -6702,7 +6745,7 @@
         <v>299</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,7 +6753,7 @@
         <v>25</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>3583</v>
@@ -6720,10 +6763,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,7 +6774,7 @@
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>2223</v>
@@ -6740,10 +6783,10 @@
         <v>39876</v>
       </c>
       <c r="F87" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +6794,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>679</v>
@@ -6763,7 +6806,7 @@
         <v>296</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,7 +6814,7 @@
         <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1686</v>
@@ -6784,7 +6827,7 @@
         <v>131</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,7 +6835,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>3369</v>
@@ -6802,10 +6845,10 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,7 +6865,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1085</v>
@@ -6832,10 +6875,10 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,7 +6886,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>725</v>
@@ -6853,10 +6896,10 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6864,7 +6907,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1696</v>
@@ -6874,10 +6917,10 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,7 +6948,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>11804</v>
@@ -6921,7 +6964,7 @@
         <v>137</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6972,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3471</v>
@@ -6942,7 +6985,7 @@
         <v>290</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +6993,7 @@
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1606</v>
@@ -6963,7 +7006,7 @@
         <v>152</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,7 +7014,7 @@
         <v>40</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2665</v>
@@ -6984,7 +7027,7 @@
         <v>149</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +7035,7 @@
         <v>57</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>1807</v>
@@ -7005,12 +7048,23 @@
         <v>155</v>
       </c>
       <c r="G105" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="11"/>
@@ -7037,7 +7091,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7053,7 +7107,7 @@
         <v>158</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,7 +7115,7 @@
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7074,7 +7128,7 @@
         <v>188</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,7 +7136,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7095,7 +7149,7 @@
         <v>164</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +7157,7 @@
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7113,10 +7167,10 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,7 +7178,7 @@
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7134,15 +7188,15 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -7151,7 +7205,7 @@
         <v>191</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,7 +7233,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>14836</v>
@@ -7195,7 +7249,7 @@
         <v>173</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,7 +7257,7 @@
         <v>78</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>922</v>
@@ -7216,7 +7270,7 @@
         <v>176</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,7 +7278,7 @@
         <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>682</v>
@@ -7233,10 +7287,10 @@
         <v>18299</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +7298,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>1713</v>
@@ -7256,18 +7310,18 @@
         <v>179</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>524</v>
+      <c r="B127" s="9" t="s">
+        <v>525</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7306,7 +7360,7 @@
         <v>185</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,7 +7368,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -7326,7 +7380,7 @@
         <v>251</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,7 +7388,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -7346,7 +7400,7 @@
         <v>260</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7354,7 +7408,7 @@
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -7366,7 +7420,7 @@
         <v>182</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,7 +7432,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -7394,7 +7448,7 @@
         <v>35</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,7 +7460,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -7422,7 +7476,7 @@
         <v>233</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +7488,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>212</v>
@@ -7450,7 +7504,7 @@
         <v>71</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,7 +7517,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>51</v>
@@ -7475,7 +7529,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,1241 +7559,1241 @@
       <c r="G149" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="16"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="21"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="16"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="21"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="16"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="21"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="16"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="21"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="16"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="21"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="16"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="16"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="21"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="16"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="21"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="16"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="21"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="16"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="21"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="16"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="21"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="16"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="21"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="16"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="21"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="16"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="21"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="16"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="21"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="16"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="21"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="16"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="21"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="16"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="21"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="16"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="21"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="16"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="21"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="16"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="21"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="16"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="21"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="16"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="21"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="14"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="14"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="16"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="21"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="14"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="14"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="16"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="21"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="14"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="14"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="14"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="16"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="21"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="14"/>
-      <c r="B224" s="15"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="14"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
+      <c r="A227" s="19"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="14"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
+      <c r="A228" s="19"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="14"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
+      <c r="A230" s="19"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
+      <c r="A235" s="19"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14"/>
-      <c r="B236" s="15"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
+      <c r="A237" s="19"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
+      <c r="A239" s="19"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="19"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
+      <c r="A241" s="19"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="19"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="19"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="14"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
+      <c r="A243" s="19"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="16"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="21"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14"/>
-      <c r="B245" s="15"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="14"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="19"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
+      <c r="A257" s="19"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="14"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
+      <c r="A258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
+      <c r="A259" s="19"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="19"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
+      <c r="A261" s="19"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="14"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
+      <c r="A263" s="19"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
+      <c r="A264" s="19"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="14"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="14"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="19"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="14"/>
-      <c r="B271" s="15"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="14"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="14"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="14"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="14"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="19"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="14"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="19"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="14"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
+      <c r="A278" s="19"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="19"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="14"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
+      <c r="A279" s="19"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="14"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
+      <c r="A280" s="19"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="14"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
+      <c r="A281" s="19"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="14"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="19"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="14"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="19"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="14"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="14"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="14"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="14"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="19"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="14"/>
-      <c r="B288" s="15"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="19"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="14"/>
-      <c r="B289" s="15"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="19"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="14"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="19"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="14"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="14"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="14"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
+      <c r="A293" s="19"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="19"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="14"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
+      <c r="A294" s="19"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="19"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="14"/>
-      <c r="B295" s="15"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
+      <c r="A295" s="19"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="14"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="19"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="14"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="19"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="14"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="19"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="14"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="14"/>
-      <c r="D299" s="14"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="19"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="14"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
+      <c r="A300" s="19"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="19"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="14"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="14"/>
-      <c r="D301" s="14"/>
+      <c r="A301" s="19"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="19"/>
+      <c r="D301" s="19"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="14"/>
-      <c r="B302" s="15"/>
-      <c r="C302" s="14"/>
-      <c r="D302" s="14"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="19"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="14"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="14"/>
-      <c r="D303" s="14"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="19"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="14"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="14"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="14"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="14"/>
-      <c r="D305" s="14"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="14"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="14"/>
-      <c r="D306" s="14"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="14"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="14"/>
-      <c r="D307" s="14"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="14"/>
-      <c r="B308" s="15"/>
-      <c r="C308" s="14"/>
-      <c r="D308" s="14"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="19"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="14"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="14"/>
-      <c r="D309" s="14"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="19"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="14"/>
-      <c r="B310" s="15"/>
-      <c r="C310" s="14"/>
-      <c r="D310" s="14"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="19"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="14"/>
-      <c r="B311" s="15"/>
-      <c r="C311" s="14"/>
-      <c r="D311" s="14"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="14"/>
-      <c r="B312" s="15"/>
-      <c r="C312" s="14"/>
-      <c r="D312" s="14"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="19"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="14"/>
-      <c r="B313" s="15"/>
-      <c r="C313" s="14"/>
-      <c r="D313" s="14"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="19"/>
+      <c r="D313" s="19"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="14"/>
-      <c r="B314" s="15"/>
-      <c r="C314" s="14"/>
-      <c r="D314" s="14"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="14"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="14"/>
-      <c r="D315" s="14"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="19"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="14"/>
-      <c r="B316" s="15"/>
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="19"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="14"/>
-      <c r="B317" s="15"/>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="19"/>
+      <c r="D317" s="19"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="14"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="14"/>
-      <c r="D318" s="14"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="14"/>
-      <c r="B319" s="15"/>
-      <c r="C319" s="14"/>
-      <c r="D319" s="14"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="14"/>
-      <c r="B320" s="15"/>
-      <c r="C320" s="14"/>
-      <c r="D320" s="14"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="19"/>
+      <c r="D320" s="19"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="14"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="14"/>
-      <c r="D321" s="14"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="14"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="14"/>
-      <c r="D322" s="14"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="19"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="14"/>
-      <c r="B323" s="15"/>
-      <c r="C323" s="14"/>
-      <c r="D323" s="14"/>
+      <c r="A323" s="19"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="19"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="14"/>
-      <c r="B324" s="15"/>
-      <c r="C324" s="14"/>
-      <c r="D324" s="14"/>
+      <c r="A324" s="19"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="14"/>
-      <c r="B325" s="15"/>
-      <c r="C325" s="14"/>
-      <c r="D325" s="14"/>
+      <c r="A325" s="19"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="14"/>
-      <c r="B326" s="15"/>
-      <c r="C326" s="14"/>
-      <c r="D326" s="14"/>
+      <c r="A326" s="19"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="19"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="14"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="14"/>
-      <c r="D327" s="14"/>
+      <c r="A327" s="19"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="14"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="14"/>
-      <c r="D328" s="14"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="14"/>
-      <c r="B329" s="15"/>
-      <c r="C329" s="14"/>
-      <c r="D329" s="14"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="19"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="14"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="14"/>
-      <c r="D330" s="14"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="19"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="14"/>
-      <c r="B331" s="15"/>
-      <c r="C331" s="14"/>
-      <c r="D331" s="14"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="19"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="14"/>
-      <c r="B332" s="15"/>
-      <c r="C332" s="14"/>
-      <c r="D332" s="14"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="19"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="14"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="14"/>
-      <c r="D333" s="14"/>
+      <c r="A333" s="19"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="14"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="14"/>
-      <c r="D334" s="14"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="14"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="14"/>
-      <c r="D335" s="14"/>
+      <c r="A335" s="19"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="19"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="14"/>
-      <c r="B336" s="15"/>
-      <c r="C336" s="14"/>
-      <c r="D336" s="14"/>
+      <c r="A336" s="19"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="14"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="14"/>
-      <c r="D337" s="14"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="14"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="14"/>
-      <c r="D338" s="14"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="19"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="14"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="14"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="19"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="14"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="14"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="19"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="14"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="19"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="14"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="14"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="19"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="14"/>
-      <c r="B343" s="15"/>
-      <c r="C343" s="14"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="19"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="14"/>
-      <c r="B344" s="15"/>
-      <c r="C344" s="14"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="19"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="14"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="14"/>
+      <c r="A345" s="19"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="19"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="14"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="14"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="19"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="14"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="14"/>
+      <c r="A347" s="19"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="19"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="14"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="14"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="19"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="14"/>
-      <c r="B349" s="15"/>
-      <c r="C349" s="14"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="19"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="14"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="14"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="19"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="14"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="14"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="19"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="14"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="14"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="19"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="14"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="14"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="19"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="14"/>
-      <c r="B354" s="15"/>
-      <c r="C354" s="14"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="19"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="14"/>
-      <c r="B355" s="15"/>
-      <c r="C355" s="14"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="19"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="14"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="14"/>
+      <c r="A356" s="19"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="14"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="14"/>
+      <c r="A357" s="19"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="19"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="14"/>
-      <c r="B358" s="15"/>
-      <c r="C358" s="14"/>
+      <c r="A358" s="19"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="19"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="14"/>
-      <c r="B359" s="15"/>
-      <c r="C359" s="14"/>
+      <c r="A359" s="19"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="19"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="14"/>
-      <c r="B360" s="15"/>
-      <c r="C360" s="14"/>
+      <c r="A360" s="19"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="19"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="14"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="14"/>
+      <c r="A361" s="19"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="19"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="14"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="14"/>
+      <c r="A362" s="19"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="19"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="14"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="14"/>
+      <c r="A363" s="19"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="19"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="14"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="14"/>
+      <c r="A364" s="19"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="19"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="14"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="14"/>
+      <c r="A365" s="19"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="19"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="14"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="14"/>
+      <c r="A366" s="19"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="19"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="14"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="14"/>
+      <c r="A367" s="19"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="19"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="14"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="14"/>
+      <c r="A368" s="19"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="19"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="14"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="14"/>
+      <c r="A369" s="19"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="19"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="14"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="14"/>
+      <c r="A370" s="19"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="19"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="14"/>
-      <c r="B371" s="15"/>
-      <c r="C371" s="14"/>
+      <c r="A371" s="19"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="19"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="14"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="14"/>
+      <c r="A372" s="19"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="19"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="14"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="14"/>
+      <c r="A373" s="19"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="14"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="14"/>
+      <c r="A374" s="19"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="19"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="14"/>
-      <c r="B375" s="15"/>
-      <c r="C375" s="14"/>
+      <c r="A375" s="19"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="19"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="14"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="14"/>
+      <c r="A376" s="19"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="19"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="14"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="14"/>
+      <c r="A377" s="19"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="19"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="14"/>
-      <c r="B378" s="15"/>
-      <c r="C378" s="14"/>
+      <c r="A378" s="19"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="19"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="14"/>
-      <c r="B379" s="15"/>
-      <c r="C379" s="14"/>
+      <c r="A379" s="19"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="19"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="14"/>
-      <c r="B380" s="15"/>
-      <c r="C380" s="14"/>
+      <c r="A380" s="19"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="19"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="14"/>
-      <c r="B381" s="15"/>
-      <c r="C381" s="14"/>
+      <c r="A381" s="19"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="19"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="14"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="14"/>
+      <c r="A382" s="19"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="19"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="14"/>
-      <c r="B383" s="15"/>
-      <c r="C383" s="14"/>
+      <c r="A383" s="19"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="19"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="14"/>
-      <c r="B384" s="15"/>
-      <c r="C384" s="14"/>
+      <c r="A384" s="19"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="19"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="14"/>
-      <c r="B385" s="15"/>
-      <c r="C385" s="14"/>
+      <c r="A385" s="19"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="19"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="14"/>
-      <c r="B386" s="15"/>
-      <c r="C386" s="14"/>
+      <c r="A386" s="19"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="19"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="14"/>
-      <c r="B387" s="15"/>
-      <c r="C387" s="14"/>
+      <c r="A387" s="19"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="19"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="14"/>
-      <c r="B388" s="15"/>
-      <c r="C388" s="14"/>
+      <c r="A388" s="19"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="19"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14"/>
-      <c r="B389" s="15"/>
-      <c r="C389" s="14"/>
+      <c r="A389" s="19"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="14"/>
-      <c r="B390" s="15"/>
-      <c r="C390" s="14"/>
+      <c r="A390" s="19"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="19"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="14"/>
-      <c r="B391" s="15"/>
-      <c r="C391" s="14"/>
+      <c r="A391" s="19"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="19"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="14"/>
-      <c r="B392" s="15"/>
-      <c r="C392" s="14"/>
+      <c r="A392" s="19"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="19"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="14"/>
-      <c r="B393" s="15"/>
-      <c r="C393" s="14"/>
+      <c r="A393" s="19"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="19"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="14"/>
-      <c r="B394" s="15"/>
-      <c r="C394" s="14"/>
+      <c r="A394" s="19"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="19"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="14"/>
-      <c r="B395" s="15"/>
-      <c r="C395" s="14"/>
+      <c r="A395" s="19"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="19"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="14"/>
-      <c r="B396" s="15"/>
-      <c r="C396" s="14"/>
+      <c r="A396" s="19"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="19"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="14"/>
-      <c r="B397" s="15"/>
-      <c r="C397" s="14"/>
+      <c r="A397" s="19"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G149"/>
@@ -8765,7 +8819,7 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="B17:F17 F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8775,13 +8829,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9105,7 +9159,7 @@
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>44</v>
@@ -9128,7 +9182,7 @@
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>122</v>
@@ -9139,7 +9193,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>182</v>
@@ -9151,7 +9205,7 @@
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9162,18 +9216,18 @@
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>140</v>
@@ -9184,7 +9238,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>77</v>
@@ -9195,7 +9249,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>290</v>
@@ -9206,7 +9260,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -9218,7 +9272,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -9230,7 +9284,7 @@
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>287</v>
@@ -9599,7 +9653,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="1" sqref="B17:F17 D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9609,13 +9663,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9626,10 +9680,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -9644,13 +9698,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9662,13 +9716,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9680,10 +9734,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>114</v>
@@ -9698,10 +9752,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>111</v>
@@ -9715,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,13 +9786,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,10 +9800,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>210</v>
@@ -9760,10 +9814,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>207</v>
@@ -9774,10 +9828,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>129</v>
@@ -9788,13 +9842,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9802,10 +9856,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
@@ -9816,10 +9870,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>273</v>
@@ -9830,13 +9884,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9844,10 +9898,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>165</v>
@@ -9861,7 +9915,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>150</v>
@@ -9875,7 +9929,7 @@
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>156</v>
@@ -9889,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>1</v>
@@ -9903,7 +9957,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>2</v>
@@ -9917,7 +9971,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>12</v>
@@ -9931,7 +9985,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>4</v>
@@ -9945,7 +9999,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>14</v>
@@ -9959,7 +10013,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>24</v>
@@ -9973,7 +10027,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D25" s="8" t="n">
         <v>124</v>
@@ -9987,7 +10041,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>8</v>
@@ -10001,7 +10055,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>18</v>
@@ -10015,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>28</v>
@@ -10026,10 +10080,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>48</v>
@@ -10040,10 +10094,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>248</v>
@@ -10057,7 +10111,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>1248</v>
@@ -10068,13 +10122,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,13 +10136,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10096,13 +10150,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10110,13 +10164,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10124,13 +10178,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10138,13 +10192,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,13 +10206,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10166,27 +10220,27 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>624</v>
+      <c r="B40" s="22" t="s">
+        <v>625</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -10211,7 +10265,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:F17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10221,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10238,10 +10292,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>249</v>
@@ -10256,13 +10310,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10274,10 +10328,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>111</v>
@@ -10292,10 +10346,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>105</v>
@@ -10310,13 +10364,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -10327,16 +10381,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10344,10 +10398,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>207</v>
@@ -10358,10 +10412,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>129</v>
@@ -10372,13 +10426,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,10 +10440,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
@@ -10400,10 +10454,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>273</v>
@@ -10414,13 +10468,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10428,10 +10482,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>150</v>
@@ -10442,10 +10496,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>1</v>
@@ -10456,10 +10510,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>2</v>
@@ -10470,10 +10524,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
@@ -10484,10 +10538,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>8</v>
@@ -10632,7 +10686,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="B17:F17 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10642,13 +10696,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10659,10 +10713,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -10677,10 +10731,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>60</v>
@@ -10695,10 +10749,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>90</v>
@@ -10713,10 +10767,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>117</v>
@@ -10731,10 +10785,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>138</v>
@@ -10748,16 +10802,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,10 +10819,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>174</v>
@@ -10779,10 +10833,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>186</v>
@@ -10793,10 +10847,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>78</v>
@@ -10807,10 +10861,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>246</v>
@@ -10821,13 +10875,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10835,13 +10889,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10849,10 +10903,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>210</v>
@@ -10863,10 +10917,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>207</v>
@@ -10877,10 +10931,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>129</v>
@@ -10891,10 +10945,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -10905,10 +10959,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
@@ -10917,10 +10971,10 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
@@ -10929,10 +10983,10 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>8</v>
@@ -10941,46 +10995,46 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>4</v>
@@ -11077,859 +11131,859 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="B17:F17 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="19" t="n">
+      <c r="B1" s="24" t="n">
         <v>48182</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="19" t="n">
+      <c r="C1" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="24" t="n">
         <v>76536</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1" s="19" t="n">
+      <c r="E1" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="24" t="n">
         <v>49932</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="19" t="n">
+      <c r="G1" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="24" t="n">
         <v>40447</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="J1" s="19" t="n">
+      <c r="I1" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="24" t="n">
         <v>22115</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="L1" s="19" t="n">
+      <c r="K1" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="L1" s="24" t="n">
         <v>11804</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="N1" s="19" t="n">
+      <c r="M1" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="24" t="n">
         <v>13039</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="P1" s="19" t="n">
+      <c r="O1" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="P1" s="24" t="n">
         <v>14836</v>
       </c>
-      <c r="Q1" s="20" t="n">
+      <c r="Q1" s="25" t="n">
         <f aca="false">B1+D1+F1+H1+J1+L1+N1+P1</f>
         <v>276891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="24" t="n">
         <v>3068</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="19" t="n">
+      <c r="C2" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <v>3654</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="19" t="n">
+      <c r="E2" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="24" t="n">
         <v>8047</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="H2" s="19" t="n">
+      <c r="G2" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" s="24" t="n">
         <v>5080</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="J2" s="19" t="n">
+      <c r="I2" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" s="24" t="n">
         <v>1653</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="O2" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="P2" s="22" t="n">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="O2" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="P2" s="27" t="n">
         <v>922</v>
       </c>
-      <c r="Q2" s="20" t="n">
+      <c r="Q2" s="25" t="n">
         <f aca="false">B2+D2+F2+H2+J2+L2+N2+P2</f>
         <v>22424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="24" t="n">
         <v>4494</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="19" t="n">
+      <c r="C3" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="24" t="n">
         <v>9615</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F3" s="19" t="n">
+      <c r="E3" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="24" t="n">
         <v>1670</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="H3" s="19" t="n">
+      <c r="G3" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="24" t="n">
         <v>2677</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="L3" s="19" t="n">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="L3" s="24" t="n">
         <v>3471</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="20" t="n">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="25" t="n">
         <f aca="false">B3+D3+F3+H3+J3+L3+N3+P3</f>
         <v>21927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="24" t="n">
         <v>4616</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="19" t="n">
+      <c r="C4" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="24" t="n">
         <v>7956</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F4" s="19" t="n">
+      <c r="E4" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="24" t="n">
         <v>2414</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="19" t="n">
+      <c r="G4" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" s="24" t="n">
         <v>2641</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="L4" s="19" t="n">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="L4" s="24" t="n">
         <v>1606</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="20" t="n">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="25" t="n">
         <f aca="false">B4+D4+F4+H4+J4+L4+N4+P4</f>
         <v>19233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="24" t="n">
         <v>5281</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="24" t="n">
         <v>2017</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="F5" s="19" t="n">
+      <c r="E5" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="24" t="n">
         <v>3554</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="H5" s="19" t="n">
+      <c r="G5" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="24" t="n">
         <v>2825</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="20" t="n">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25" t="n">
         <f aca="false">B5+D5+F5+H5+J5+L5+N5+P5</f>
         <v>13677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="24" t="n">
         <v>2715</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="19" t="n">
+      <c r="C6" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="24" t="n">
         <v>3419</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="22" t="n">
+      <c r="E6" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="27" t="n">
         <v>814</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="H6" s="19" t="n">
+      <c r="G6" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H6" s="24" t="n">
         <v>2592</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="L6" s="19" t="n">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="L6" s="24" t="n">
         <v>2665</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="N6" s="22" t="n">
+      <c r="M6" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="N6" s="27" t="n">
         <v>622</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="20" t="n">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25" t="n">
         <f aca="false">B6+D6+F6+H6+J6+L6+N6+P6</f>
         <v>12827</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="19" t="n">
+      <c r="A7" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="24" t="n">
         <v>1536</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="19" t="n">
+      <c r="C7" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="24" t="n">
         <v>1416</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="F7" s="19" t="n">
+      <c r="E7" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="24" t="n">
         <v>7029</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="19" t="n">
+      <c r="G7" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" s="24" t="n">
         <v>4025</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="P7" s="19" t="n">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="P7" s="24" t="n">
         <v>1713</v>
       </c>
-      <c r="Q7" s="20" t="n">
+      <c r="Q7" s="25" t="n">
         <f aca="false">B7+D7+F7+H7+J7+L7+N7+P7</f>
         <v>15719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="24" t="n">
         <v>4966</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="24" t="n">
         <v>2295</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="H8" s="19" t="n">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H8" s="24" t="n">
         <v>2126</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="J8" s="19" t="n">
+      <c r="I8" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="J8" s="24" t="n">
         <v>1414</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="P8" s="22" t="n">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="P8" s="27" t="n">
         <v>682</v>
       </c>
-      <c r="Q8" s="20" t="n">
+      <c r="Q8" s="25" t="n">
         <f aca="false">B8+D8+F8+H8+J8+L8+N8+P8</f>
         <v>11483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="24" t="n">
         <v>6068</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="19" t="n">
+      <c r="C9" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="24" t="n">
         <v>2439</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F9" s="19" t="n">
+      <c r="E9" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="24" t="n">
         <v>2122</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="H9" s="22" t="n">
+      <c r="G9" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="H9" s="27" t="n">
         <v>494</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="Q9" s="20" t="n">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="Q9" s="25" t="n">
         <f aca="false">B9+D9+F9+H9+J9+L9+N9+P9</f>
         <v>11123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="24" t="n">
         <v>1311</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="19" t="n">
+      <c r="C10" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="24" t="n">
         <v>3163</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="F10" s="19" t="n">
+      <c r="E10" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="24" t="n">
         <v>4238</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="H10" s="19" t="n">
+      <c r="G10" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="24" t="n">
         <v>3583</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="Q10" s="20" t="n">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="Q10" s="25" t="n">
         <f aca="false">B10+D10+F10+H10+J10+L10+N10+P10</f>
         <v>12295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="24" t="n">
         <v>7591</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="Q11" s="20" t="n">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="Q11" s="25" t="n">
         <f aca="false">B11+D11+F11+H11+J11+L11+N11+P11</f>
         <v>7591</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="19" t="n">
+      <c r="C12" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="24" t="n">
         <v>1224</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" s="19" t="n">
+      <c r="E12" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="24" t="n">
         <v>3905</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="19" t="n">
+      <c r="G12" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="H12" s="24" t="n">
         <v>1686</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="N12" s="22" t="n">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="N12" s="27" t="n">
         <v>699</v>
       </c>
-      <c r="Q12" s="20" t="n">
+      <c r="Q12" s="25" t="n">
         <f aca="false">B12+D12+F12+H12+J12+L12+N12+P12</f>
         <v>7514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="27" t="n">
         <v>674</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="F13" s="19" t="n">
+      <c r="E13" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="24" t="n">
         <v>1320</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="H13" s="19" t="n">
+      <c r="G13" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="H13" s="24" t="n">
         <v>3369</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="L13" s="19" t="n">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="L13" s="24" t="n">
         <v>1807</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="Q13" s="20" t="n">
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="Q13" s="25" t="n">
         <f aca="false">B13+D13+F13+H13+J13+L13+N13+P13</f>
         <v>7170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="24" t="n">
         <v>2847</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="19" t="n">
+      <c r="C14" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="24" t="n">
         <v>2178</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="F14" s="19" t="n">
+      <c r="E14" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="24" t="n">
         <v>3749</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="H14" s="19" t="n">
+      <c r="G14" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" s="24" t="n">
         <v>2223</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="Q14" s="20" t="n">
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="Q14" s="25" t="n">
         <f aca="false">B14+D14+F14+H14+J14+L14+N14+P14</f>
         <v>10997</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="22" t="n">
+      <c r="C15" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="27" t="n">
         <v>594</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="F15" s="19" t="n">
+      <c r="E15" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="F15" s="24" t="n">
         <v>1001</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="H15" s="22" t="n">
+      <c r="G15" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="H15" s="27" t="n">
         <v>679</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="J15" s="19" t="n">
+      <c r="I15" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J15" s="24" t="n">
         <v>1836</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="N15" s="22" t="n">
+      <c r="M15" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="N15" s="27" t="n">
         <v>923</v>
       </c>
-      <c r="Q15" s="20" t="n">
+      <c r="Q15" s="25" t="n">
         <f aca="false">B15+D15+F15+H15+J15+L15+N15+P15</f>
         <v>5033</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="20" t="n">
+      <c r="Q16" s="25" t="n">
         <f aca="false">B14+D14+F16+H16+J16+L16+N16+P16</f>
         <v>5025</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="24" t="n">
         <v>1421</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="19" t="n">
+      <c r="C17" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <v>2759</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="F17" s="22" t="n">
+      <c r="E17" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17" s="27" t="n">
         <v>794</v>
       </c>
-      <c r="Q17" s="20" t="n">
+      <c r="Q17" s="25" t="n">
         <f aca="false">B17+D17+F17+H17+J17+L17+N17+P17</f>
         <v>4974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="27" t="n">
         <v>869</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" s="19" t="n">
+      <c r="C18" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="24" t="n">
         <v>1006</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="F18" s="19" t="n">
+      <c r="E18" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" s="24" t="n">
         <v>3075</v>
       </c>
-      <c r="Q18" s="20" t="n">
+      <c r="Q18" s="25" t="n">
         <f aca="false">B18+D18+F18+H18+J18+L18+N18+P18</f>
         <v>4950</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="24" t="n">
         <v>1350</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D19" s="19" t="n">
+      <c r="C19" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="24" t="n">
         <v>1023</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="F19" s="19" t="n">
+      <c r="E19" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" s="24" t="n">
         <v>2213</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="H19" s="19" t="n">
+      <c r="G19" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H19" s="24" t="n">
         <v>1085</v>
       </c>
-      <c r="Q19" s="20" t="n">
+      <c r="Q19" s="25" t="n">
         <f aca="false">B19+D19+F19+H19+J19+L19+N19+P19</f>
         <v>5671</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="20" t="n">
+      <c r="Q20" s="25" t="n">
         <f aca="false">B20+D10+F20+H9+J20+L20+N20+P20</f>
         <v>3657</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="18" t="s">
-        <v>441</v>
+      <c r="E21" s="23" t="s">
+        <v>440</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
       </c>
-      <c r="Q21" s="20" t="n">
+      <c r="Q21" s="25" t="n">
         <f aca="false">B7+D7+F21+H21+J21+L21+N21+P21</f>
         <v>5800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="20" t="n">
+      <c r="Q22" s="25" t="n">
         <f aca="false">B22+D22+F21+H22+J22+L22+N22+P22</f>
         <v>2848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="27" t="n">
         <v>629</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D23" s="19" t="n">
+      <c r="C23" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="24" t="n">
         <v>1101</v>
       </c>
-      <c r="Q23" s="20" t="n">
+      <c r="Q23" s="25" t="n">
         <f aca="false">B23+D23+F23+H19+J23+L23+N23+P23</f>
         <v>2815</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="18" t="s">
-        <v>446</v>
+      <c r="E24" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
       </c>
-      <c r="Q24" s="20" t="n">
+      <c r="Q24" s="25" t="n">
         <f aca="false">B24+D24+F24+H24+J24+L24+N24+P24</f>
         <v>2780</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>2170</v>
       </c>
-      <c r="Q25" s="20" t="n">
+      <c r="Q25" s="25" t="n">
         <f aca="false">B25+D25+F25+H25+J25+L25+N25+P25</f>
         <v>2170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="18" t="s">
-        <v>443</v>
+      <c r="E26" s="23" t="s">
+        <v>442</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
       </c>
-      <c r="Q26" s="20" t="n">
+      <c r="Q26" s="25" t="n">
         <f aca="false">B26+D26+F26+H26+J26+L26+N26+P26</f>
         <v>2065</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>1991</v>
       </c>
-      <c r="Q27" s="20" t="n">
+      <c r="Q27" s="25" t="n">
         <f aca="false">B27+D27+F27+H27+J27+L27+N27+P27</f>
         <v>1991</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>1696</v>
       </c>
-      <c r="Q28" s="20" t="n">
+      <c r="Q28" s="25" t="n">
         <f aca="false">B28+D28+F28+H28+J28+L28+N28+P28</f>
         <v>1696</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
       </c>
-      <c r="Q29" s="20" t="n">
+      <c r="Q29" s="25" t="n">
         <f aca="false">B29+D29+F29+H29+J29+L29+N29+P29</f>
         <v>1288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="18" t="s">
-        <v>448</v>
+      <c r="E30" s="23" t="s">
+        <v>447</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
       </c>
-      <c r="Q30" s="20" t="n">
+      <c r="Q30" s="25" t="n">
         <f aca="false">B30+D30+F30+H30+J30+L30+N30+P30</f>
         <v>921</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>833</v>
       </c>
-      <c r="Q31" s="20" t="n">
+      <c r="Q31" s="25" t="n">
         <f aca="false">B31+D31+F31+H31+J31+L31+N31+P31</f>
         <v>833</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>725</v>
       </c>
-      <c r="Q32" s="20" t="n">
+      <c r="Q32" s="25" t="n">
         <f aca="false">B32+D32+F32+H32+J32+L32+N32+P32</f>
         <v>725</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="D33" s="24" t="n">
+      <c r="C33" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="D33" s="29" t="n">
         <v>665</v>
       </c>
-      <c r="Q33" s="20" t="n">
+      <c r="Q33" s="25" t="n">
         <f aca="false">B33+D33+F33+H33+J33+L33+N33+P33</f>
         <v>665</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="B34" s="24" t="n">
+      <c r="A34" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="B34" s="29" t="n">
         <v>633</v>
       </c>
-      <c r="Q34" s="20" t="n">
+      <c r="Q34" s="25" t="n">
         <f aca="false">B34+D34+F34+H34+J34+L34+N34+P34</f>
         <v>633</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="23" t="s">
-        <v>683</v>
-      </c>
-      <c r="H35" s="24" t="n">
+      <c r="G35" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="H35" s="29" t="n">
         <v>522</v>
       </c>
-      <c r="Q35" s="20" t="n">
+      <c r="Q35" s="25" t="n">
         <f aca="false">B35+D35+F35+H35+J35+L35+N35+P35</f>
         <v>522</v>
       </c>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,9 +17,11 @@
     <sheet name="Лист3" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$G$157</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$H$154</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$G$149</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$H$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$G$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$G$149</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="685">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -769,9 +771,6 @@
 :#::</t>
   </si>
   <si>
-    <t xml:space="preserve">ВТБ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ч</t>
   </si>
   <si>
@@ -1063,6 +1062,12 @@
   </si>
   <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБ</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -1218,7 +1223,7 @@
     <t xml:space="preserve">ель</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕОЬ</t>
+    <t xml:space="preserve">ЕЬ</t>
   </si>
   <si>
     <t xml:space="preserve">о</t>
@@ -1356,11 +1361,7 @@
     <t xml:space="preserve">оль</t>
   </si>
   <si>
-    <t xml:space="preserve">:##:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЬ</t>
+    <t xml:space="preserve">ОЬ</t>
   </si>
   <si>
     <t xml:space="preserve">а</t>
@@ -1544,7 +1545,7 @@
     <t xml:space="preserve">ин</t>
   </si>
   <si>
-    <t xml:space="preserve">ИЬ</t>
+    <t xml:space="preserve">ИЫЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ие</t>
@@ -1566,7 +1567,7 @@
     <t xml:space="preserve">ить</t>
   </si>
   <si>
-    <t xml:space="preserve">ИЫЯЬ</t>
+    <t xml:space="preserve">ИЬ</t>
   </si>
   <si>
     <t xml:space="preserve">или</t>
@@ -1675,6 +1676,12 @@
   </si>
   <si>
     <t xml:space="preserve">ЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">у</t>
@@ -1765,7 +1772,7 @@
     <t xml:space="preserve">ять</t>
   </si>
   <si>
-    <t xml:space="preserve">ЯЬ2</t>
+    <t xml:space="preserve">ЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">яй</t>
@@ -1788,7 +1795,7 @@
     <t xml:space="preserve">ье</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕЬ</t>
+    <t xml:space="preserve">ЕОЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ью</t>
@@ -1800,7 +1807,7 @@
     <t xml:space="preserve">ья</t>
   </si>
   <si>
-    <t xml:space="preserve">ЯЬ</t>
+    <t xml:space="preserve">ЯЬ2</t>
   </si>
   <si>
     <t xml:space="preserve">ю</t>
@@ -1813,12 +1820,6 @@
   </si>
   <si>
     <t xml:space="preserve">ОЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ъ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ё</t>
@@ -2371,7 +2372,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -2449,6 +2450,13 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2459,7 +2467,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2474,8 +2482,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2540,7 +2554,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2589,19 +2603,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2609,23 +2639,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2633,11 +2675,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2645,19 +2687,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2711,7 +2753,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
@@ -2752,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F50" activeCellId="1" sqref="B17:F17 F50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2802,7 +2844,9 @@
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2829,13 +2873,15 @@
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>39</v>
       </c>
@@ -2855,13 +2901,15 @@
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>28</v>
       </c>
@@ -2881,13 +2929,15 @@
       <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>99</v>
       </c>
@@ -2907,12 +2957,14 @@
       <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>34</v>
       </c>
@@ -2932,14 +2984,16 @@
       <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>25</v>
       </c>
@@ -2959,14 +3013,16 @@
       <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>66</v>
       </c>
@@ -2986,12 +3042,14 @@
       <c r="G9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>46</v>
       </c>
@@ -3011,8 +3069,11 @@
       <c r="G10" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>56</v>
       </c>
@@ -3032,8 +3093,11 @@
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>79</v>
       </c>
@@ -3053,8 +3117,11 @@
       <c r="G12" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>91</v>
       </c>
@@ -3074,6 +3141,9 @@
       <c r="G13" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H13" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
@@ -3095,8 +3165,11 @@
       <c r="G14" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>35</v>
       </c>
@@ -3116,8 +3189,11 @@
       <c r="G15" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>81</v>
       </c>
@@ -3137,8 +3213,11 @@
       <c r="G16" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>38</v>
       </c>
@@ -3158,8 +3237,11 @@
       <c r="G17" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>98</v>
       </c>
@@ -3179,6 +3261,9 @@
       <c r="G18" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H18" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -3203,8 +3288,11 @@
       <c r="G20" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>96</v>
       </c>
@@ -3224,8 +3312,11 @@
       <c r="G21" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>63</v>
       </c>
@@ -3245,8 +3336,11 @@
       <c r="G22" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>71</v>
       </c>
@@ -3266,8 +3360,11 @@
       <c r="G23" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>44</v>
       </c>
@@ -3287,8 +3384,11 @@
       <c r="G24" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>64</v>
       </c>
@@ -3308,8 +3408,11 @@
       <c r="G25" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>24</v>
       </c>
@@ -3329,8 +3432,11 @@
       <c r="G26" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>85</v>
       </c>
@@ -3350,8 +3456,11 @@
       <c r="G27" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>93</v>
       </c>
@@ -3371,8 +3480,11 @@
       <c r="G28" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>95</v>
       </c>
@@ -3392,6 +3504,9 @@
       <c r="G29" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="H29" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="8"/>
@@ -3420,8 +3535,11 @@
       <c r="G31" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>100</v>
       </c>
@@ -3441,8 +3559,11 @@
       <c r="G32" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>59</v>
       </c>
@@ -3462,8 +3583,11 @@
       <c r="G33" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>17</v>
       </c>
@@ -3483,8 +3607,11 @@
       <c r="G34" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>78</v>
       </c>
@@ -3504,8 +3631,11 @@
       <c r="G35" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>83</v>
       </c>
@@ -3525,8 +3655,11 @@
       <c r="G36" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>30</v>
       </c>
@@ -3546,8 +3679,11 @@
       <c r="G37" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>32</v>
       </c>
@@ -3567,8 +3703,11 @@
       <c r="G38" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>67</v>
       </c>
@@ -3588,6 +3727,9 @@
       <c r="G39" s="8" t="s">
         <v>114</v>
       </c>
+      <c r="H39" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="8"/>
@@ -3616,8 +3758,11 @@
       <c r="G41" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>29</v>
       </c>
@@ -3637,8 +3782,11 @@
       <c r="G42" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>86</v>
       </c>
@@ -3658,8 +3806,11 @@
       <c r="G43" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>89</v>
       </c>
@@ -3679,8 +3830,11 @@
       <c r="G44" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>72</v>
       </c>
@@ -3700,8 +3854,11 @@
       <c r="G45" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>31</v>
       </c>
@@ -3721,8 +3878,11 @@
       <c r="G46" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
         <v>97</v>
       </c>
@@ -3742,6 +3902,9 @@
       <c r="G47" s="8" t="s">
         <v>135</v>
       </c>
+      <c r="H47" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="8"/>
@@ -3770,8 +3933,11 @@
       <c r="G49" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
         <v>58</v>
       </c>
@@ -3791,6 +3957,9 @@
       <c r="G50" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="H50" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
@@ -3812,6 +3981,9 @@
       <c r="G51" s="8" t="s">
         <v>144</v>
       </c>
+      <c r="H51" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
@@ -3833,8 +4005,11 @@
       <c r="G52" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>75</v>
       </c>
@@ -3854,8 +4029,11 @@
       <c r="G53" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
         <v>33</v>
       </c>
@@ -3875,8 +4053,11 @@
       <c r="G54" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>50</v>
       </c>
@@ -3896,6 +4077,9 @@
       <c r="G55" s="8" t="s">
         <v>156</v>
       </c>
+      <c r="H55" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="8"/>
@@ -3924,8 +4108,11 @@
       <c r="G57" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>74</v>
       </c>
@@ -3945,8 +4132,11 @@
       <c r="G58" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>49</v>
       </c>
@@ -3966,6 +4156,9 @@
       <c r="G59" s="8" t="s">
         <v>165</v>
       </c>
+      <c r="H59" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
@@ -3987,6 +4180,9 @@
       <c r="G60" s="8" t="s">
         <v>168</v>
       </c>
+      <c r="H60" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
@@ -4008,6 +4204,9 @@
       <c r="G61" s="8" t="s">
         <v>171</v>
       </c>
+      <c r="H61" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
@@ -4032,8 +4231,11 @@
       <c r="G63" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
         <v>51</v>
       </c>
@@ -4053,8 +4255,11 @@
       <c r="G64" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>60</v>
       </c>
@@ -4074,8 +4279,11 @@
       <c r="G65" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>12</v>
       </c>
@@ -4095,6 +4303,9 @@
       <c r="G66" s="8" t="s">
         <v>183</v>
       </c>
+      <c r="H66" s="9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="8"/>
@@ -4123,6 +4334,9 @@
       <c r="G68" s="8" t="s">
         <v>186</v>
       </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="8"/>
@@ -4151,6 +4365,9 @@
       <c r="G70" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="8"/>
@@ -4179,6 +4396,9 @@
       <c r="G72" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
@@ -4203,8 +4423,11 @@
       <c r="G74" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
         <v>43</v>
       </c>
@@ -4224,8 +4447,11 @@
       <c r="G75" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
         <v>41</v>
       </c>
@@ -4245,8 +4471,11 @@
       <c r="G76" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
         <v>36</v>
       </c>
@@ -4266,8 +4495,11 @@
       <c r="G77" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>52</v>
       </c>
@@ -4287,12 +4519,15 @@
       <c r="G78" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="H78" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
         <v>65</v>
       </c>
@@ -4315,8 +4550,11 @@
       <c r="G80" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>90</v>
       </c>
@@ -4336,8 +4574,11 @@
       <c r="G81" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>18</v>
       </c>
@@ -4357,27 +4598,28 @@
       <c r="G82" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="6" t="n">
+      <c r="C83" s="13" t="n">
         <v>5105</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" s="13" t="n">
         <v>137326</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="14"/>
+      <c r="F83" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="8"/>
@@ -4388,7 +4630,7 @@
         <v>15</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>9642</v>
@@ -4401,18 +4643,21 @@
         <v>20004</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G85" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>1010</v>
@@ -4422,18 +4667,21 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>62</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>1904</v>
@@ -4443,18 +4691,21 @@
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>7448</v>
@@ -4464,10 +4715,13 @@
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>231</v>
+      <c r="H88" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>8415</v>
@@ -4488,18 +4742,21 @@
         <v>14217</v>
       </c>
       <c r="F90" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
         <v>82</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>1061</v>
@@ -4509,18 +4766,21 @@
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
         <v>80</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1221</v>
@@ -4530,18 +4790,21 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>3520</v>
@@ -4551,10 +4814,13 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>243</v>
+      <c r="H93" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>16251</v>
@@ -4575,18 +4841,21 @@
         <v>18322</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
         <v>54</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>2071</v>
@@ -4596,10 +4865,13 @@
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>249</v>
+      <c r="H96" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>6105</v>
@@ -4624,18 +4896,21 @@
         <v>9513</v>
       </c>
       <c r="F98" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
         <v>76</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>1331</v>
@@ -4645,18 +4920,21 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
         <v>77</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>1325</v>
@@ -4666,10 +4944,13 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>258</v>
+      <c r="H100" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,7 +4958,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>752</v>
@@ -4687,10 +4968,13 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>261</v>
+      <c r="H101" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>7302</v>
@@ -4715,18 +4999,21 @@
         <v>7302</v>
       </c>
       <c r="F103" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G103" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>61</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>1924</v>
@@ -4736,18 +5023,21 @@
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>53</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>2131</v>
@@ -4757,22 +5047,25 @@
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G105" s="8" t="s">
-        <v>270</v>
+      <c r="H105" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
         <v>23</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>5518</v>
@@ -4785,22 +5078,25 @@
         <v>5518</v>
       </c>
       <c r="F107" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>273</v>
+      <c r="H107" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>5219</v>
@@ -4813,21 +5109,24 @@
         <v>5219</v>
       </c>
       <c r="F109" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G109" s="8" t="s">
-        <v>276</v>
+      <c r="H109" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>3398</v>
@@ -4840,18 +5139,21 @@
         <v>4272</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G111" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
         <v>87</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>874</v>
@@ -4861,22 +5163,25 @@
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G112" s="8" t="s">
-        <v>282</v>
+      <c r="H112" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
         <v>42</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>3322</v>
@@ -4889,21 +5194,24 @@
         <v>3322</v>
       </c>
       <c r="F114" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G114" s="8" t="s">
-        <v>285</v>
+      <c r="H114" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1631</v>
@@ -4916,18 +5224,21 @@
         <v>3638</v>
       </c>
       <c r="F116" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G116" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" s="10" t="n">
         <v>2007</v>
@@ -4937,22 +5248,25 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G117" s="8" t="s">
-        <v>291</v>
+      <c r="H117" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="n">
         <v>57</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>1992</v>
@@ -4965,22 +5279,25 @@
         <v>1992</v>
       </c>
       <c r="F119" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G119" s="8" t="s">
-        <v>294</v>
+      <c r="H119" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="n">
         <v>68</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>1668</v>
@@ -4993,22 +5310,25 @@
         <v>1668</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G121" s="8" t="s">
-        <v>297</v>
+      <c r="H121" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="n">
         <v>69</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>1661</v>
@@ -5021,22 +5341,25 @@
         <v>1661</v>
       </c>
       <c r="F123" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G123" s="8" t="s">
-        <v>300</v>
+      <c r="H123" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" customFormat="false" ht="21.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="n">
         <v>73</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>1456</v>
@@ -5049,10 +5372,13 @@
         <v>1456</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G125" s="8" t="s">
-        <v>303</v>
+      <c r="H125" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5390,7 @@
         <v>101</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>274</v>
@@ -5077,10 +5403,13 @@
         <v>274</v>
       </c>
       <c r="F127" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G127" s="8" t="s">
-        <v>306</v>
+      <c r="H127" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5420,7 @@
         <v>88</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>826</v>
@@ -5101,6 +5430,20 @@
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="8"/>
@@ -5145,9 +5488,9 @@
         <v>102</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C154" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="C154" s="16"/>
       <c r="D154" s="6" t="n">
         <v>1774649</v>
       </c>
@@ -5173,7 +5516,7 @@
       <c r="E159" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G157"/>
+  <autoFilter ref="A1:H154"/>
   <mergeCells count="1">
     <mergeCell ref="I1:L5"/>
   </mergeCells>
@@ -5190,13 +5533,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17:F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5215,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -5226,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>48182</v>
@@ -5242,20 +5585,22 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>3068</v>
@@ -5267,9 +5612,11 @@
         <v>77</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>314</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5280,7 +5627,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>4494</v>
@@ -5292,20 +5639,22 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>316</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>4616</v>
@@ -5317,20 +5666,22 @@
         <v>44</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>318</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>5281</v>
@@ -5339,22 +5690,24 @@
         <v>142022</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>321</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2715</v>
@@ -5363,24 +5716,26 @@
         <v>73037</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>324</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>4966</v>
@@ -5393,21 +5748,23 @@
         <v>47</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>326</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>6068</v>
@@ -5420,19 +5777,21 @@
         <v>56</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>329</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1311</v>
@@ -5445,15 +5804,18 @@
         <v>29</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>674</v>
@@ -5463,18 +5825,21 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>7591</v>
@@ -5484,18 +5849,21 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2847</v>
@@ -5508,15 +5876,18 @@
         <v>18</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1421</v>
@@ -5529,15 +5900,18 @@
         <v>53</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>869</v>
@@ -5547,18 +5921,21 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1350</v>
@@ -5568,37 +5945,43 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="B17" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="18" t="n">
         <v>629</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="19" t="n">
         <v>16940</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
-        <v>347</v>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="G17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1536</v>
@@ -5611,15 +5994,18 @@
         <v>134</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2170</v>
@@ -5629,18 +6015,21 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1991</v>
@@ -5653,19 +6042,25 @@
         <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="18" t="s">
         <v>355</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,12 +6087,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>72026</v>
@@ -5713,15 +6108,18 @@
         <v>59</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3783</v>
@@ -5731,10 +6129,13 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +6143,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>9615</v>
@@ -5755,15 +6156,18 @@
         <v>122</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>364</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>7956</v>
@@ -5773,13 +6177,16 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>54</v>
       </c>
@@ -5797,15 +6204,18 @@
         <v>209</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>3419</v>
@@ -5815,13 +6225,16 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>46</v>
       </c>
@@ -5836,18 +6249,21 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>370</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2439</v>
@@ -5860,15 +6276,18 @@
         <v>98</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1224</v>
@@ -5881,28 +6300,34 @@
         <v>218</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2178</v>
@@ -5912,18 +6337,21 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2759</v>
@@ -5933,18 +6361,21 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1006</v>
@@ -5957,15 +6388,18 @@
         <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1023</v>
@@ -5975,18 +6409,21 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>386</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>3163</v>
@@ -5996,18 +6433,21 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1101</v>
@@ -6017,18 +6457,21 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>1416</v>
@@ -6038,31 +6481,37 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>833</v>
@@ -6072,15 +6521,18 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>6633</v>
@@ -6093,18 +6545,24 @@
         <v>68</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="18" t="s">
         <v>399</v>
       </c>
+      <c r="H46" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="22" t="s">
+        <v>400</v>
+      </c>
       <c r="F47" s="11" t="s">
-        <v>400</v>
+        <v>71</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>401</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6146,8 +6604,11 @@
       <c r="G52" s="11" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>10</v>
       </c>
@@ -6162,10 +6623,13 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>405</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,13 +6647,16 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>44</v>
       </c>
@@ -6204,13 +6671,16 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>26</v>
       </c>
@@ -6230,8 +6700,11 @@
       <c r="G56" s="11" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>82</v>
       </c>
@@ -6251,8 +6724,11 @@
       <c r="G57" s="11" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>13</v>
       </c>
@@ -6272,8 +6748,11 @@
       <c r="G58" s="11" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>52</v>
       </c>
@@ -6293,8 +6772,11 @@
       <c r="G59" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
         <v>20</v>
       </c>
@@ -6314,8 +6796,11 @@
       <c r="G60" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
         <v>22</v>
       </c>
@@ -6335,8 +6820,11 @@
       <c r="G61" s="11" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
         <v>69</v>
       </c>
@@ -6356,8 +6844,11 @@
       <c r="G62" s="11" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>23</v>
       </c>
@@ -6377,8 +6868,11 @@
       <c r="G63" s="11" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
         <v>76</v>
       </c>
@@ -6398,8 +6892,11 @@
       <c r="G64" s="11" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>83</v>
       </c>
@@ -6419,8 +6916,11 @@
       <c r="G65" s="11" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>31</v>
       </c>
@@ -6440,8 +6940,11 @@
       <c r="G66" s="11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>48</v>
       </c>
@@ -6461,8 +6964,11 @@
       <c r="G67" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
         <v>33</v>
       </c>
@@ -6482,8 +6988,11 @@
       <c r="G68" s="11" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
         <v>53</v>
       </c>
@@ -6503,8 +7012,11 @@
       <c r="G69" s="11" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
         <v>36</v>
       </c>
@@ -6524,8 +7036,11 @@
       <c r="G70" s="11" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
         <v>79</v>
       </c>
@@ -6545,16 +7060,22 @@
       <c r="G71" s="11" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="18" t="s">
+      <c r="H71" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="22" t="s">
         <v>449</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>450</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +7098,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>4</v>
       </c>
@@ -6600,8 +7121,11 @@
       <c r="G78" s="11" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>16</v>
       </c>
@@ -6616,10 +7140,13 @@
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>454</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,13 +7164,16 @@
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>41</v>
       </c>
@@ -6658,13 +7188,16 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>35</v>
       </c>
@@ -6679,13 +7212,16 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="11" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>42</v>
       </c>
@@ -6700,13 +7236,16 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
         <v>51</v>
       </c>
@@ -6726,6 +7265,9 @@
       <c r="G84" s="11" t="s">
         <v>465</v>
       </c>
+      <c r="H84" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
@@ -6742,13 +7284,16 @@
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="11" t="s">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
         <v>25</v>
       </c>
@@ -6768,8 +7313,11 @@
       <c r="G86" s="11" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>47</v>
       </c>
@@ -6788,8 +7336,11 @@
       <c r="G87" s="11" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
         <v>88</v>
       </c>
@@ -6803,13 +7354,16 @@
         <v>18247</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>60</v>
       </c>
@@ -6829,8 +7383,11 @@
       <c r="G89" s="11" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
         <v>29</v>
       </c>
@@ -6850,8 +7407,11 @@
       <c r="G90" s="11" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -6859,8 +7419,11 @@
       <c r="E91" s="7"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-    </row>
-    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
         <v>73</v>
       </c>
@@ -6880,8 +7443,11 @@
       <c r="G92" s="11" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
         <v>85</v>
       </c>
@@ -6901,8 +7467,11 @@
       <c r="G93" s="11" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
         <v>59</v>
       </c>
@@ -6922,6 +7491,9 @@
       <c r="G94" s="11" t="s">
         <v>489</v>
       </c>
+      <c r="H94" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="11"/>
@@ -6966,6 +7538,9 @@
       <c r="G101" s="11" t="s">
         <v>491</v>
       </c>
+      <c r="H101" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
@@ -6982,13 +7557,16 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>63</v>
       </c>
@@ -7008,8 +7586,11 @@
       <c r="G103" s="11" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>40</v>
       </c>
@@ -7029,8 +7610,11 @@
       <c r="G104" s="11" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>57</v>
       </c>
@@ -7050,8 +7634,11 @@
       <c r="G105" s="11" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
         <v>500</v>
@@ -7065,10 +7652,27 @@
       <c r="G106" s="11" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="H106" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="11"/>
@@ -7091,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7107,15 +7711,18 @@
         <v>158</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+      <c r="H112" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7128,15 +7735,18 @@
         <v>188</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7149,15 +7759,18 @@
         <v>164</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>509</v>
+      </c>
+      <c r="H114" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7167,18 +7780,21 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>512</v>
+      </c>
+      <c r="H115" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7188,15 +7804,18 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+      <c r="H116" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -7205,7 +7824,10 @@
         <v>191</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="H117" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,7 +7855,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>14836</v>
@@ -7249,15 +7871,18 @@
         <v>173</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+      <c r="H123" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="n">
         <v>78</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>922</v>
@@ -7270,15 +7895,18 @@
         <v>176</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>521</v>
+      </c>
+      <c r="H124" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="n">
         <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>682</v>
@@ -7287,18 +7915,21 @@
         <v>18299</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+      <c r="H125" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="n">
         <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>1713</v>
@@ -7307,21 +7938,27 @@
         <v>30722</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+      <c r="H126" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>527</v>
+        <v>529</v>
+      </c>
+      <c r="H127" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,7 +7981,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7360,15 +7997,18 @@
         <v>185</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>531</v>
+      </c>
+      <c r="H131" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="n">
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -7377,18 +8017,21 @@
         <v>16762</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+      <c r="H132" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="n">
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -7397,18 +8040,21 @@
         <v>24836</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>535</v>
+      </c>
+      <c r="H133" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="n">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -7417,11 +8063,18 @@
         <v>18827</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>535</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="H134" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F138" s="11"/>
@@ -7432,7 +8085,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -7448,19 +8101,23 @@
         <v>35</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="H139" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="n">
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -7473,46 +8130,50 @@
         <v>335</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>539</v>
+        <v>541</v>
+      </c>
+      <c r="H141" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-    </row>
-    <row r="143" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="9"/>
+    </row>
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C143" s="4" t="n">
+      <c r="B143" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" s="24" t="n">
         <v>212</v>
       </c>
-      <c r="D143" s="6" t="n">
+      <c r="D143" s="25" t="n">
         <v>11387</v>
       </c>
-      <c r="E143" s="7" t="n">
+      <c r="E143" s="20" t="n">
         <f aca="false">SUM(C143)</f>
         <v>212</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G143" s="11" t="s">
-        <v>541</v>
-      </c>
+      <c r="G143" s="21"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="7"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-    </row>
-    <row r="145" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="n">
         <v>100</v>
       </c>
@@ -7526,10 +8187,13 @@
         <v>2745</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>543</v>
+      </c>
+      <c r="H145" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,1254 +8213,1262 @@
         <v>101</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C149" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="C149" s="16"/>
       <c r="D149" s="6" t="n">
         <v>1290794</v>
       </c>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="21"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="28"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="21"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="28"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="21"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="28"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="21"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="28"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="21"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="28"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="21"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="28"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="21"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="28"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="21"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="28"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="21"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="28"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="21"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="28"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="21"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="28"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="21"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="28"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="21"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="28"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="21"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="28"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="21"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="28"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="21"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="28"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="19"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="21"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="28"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="21"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="28"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="21"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="28"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="19"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="21"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="28"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="19"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="21"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="28"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="19"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="19"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="21"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="28"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="19"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="21"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="28"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="19"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="19"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="19"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="19"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="21"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="28"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="19"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="19"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="21"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="28"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="19"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="19"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="19"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="21"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="28"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="19"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="19"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="19"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="19"/>
-      <c r="B227" s="20"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="19"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="19"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="19"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="19"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="19"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="19"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="19"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="19"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="19"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="19"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="19"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="19"/>
-      <c r="B239" s="20"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="19"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="19"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="19"/>
-      <c r="B242" s="20"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="19"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="19"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="21"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="28"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="19"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="19"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="27"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="19"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="19"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="19"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="19"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="19"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="19"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="27"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="19"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="27"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="19"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="19"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="19"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="19"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="19"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="19"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="19"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="19"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="19"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="19"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="19"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="19"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="27"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="19"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="19"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="19"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="19"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="19"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="19"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="19"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="19"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="19"/>
-      <c r="B269" s="20"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="19"/>
-      <c r="B270" s="20"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="19"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="26"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="19"/>
-      <c r="B271" s="20"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="26"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="19"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="19"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="19"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="19"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="27"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="19"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="27"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="26"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="19"/>
-      <c r="B275" s="20"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="19"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="27"/>
+      <c r="C275" s="26"/>
+      <c r="D275" s="26"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="19"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="27"/>
+      <c r="C276" s="26"/>
+      <c r="D276" s="26"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="19"/>
-      <c r="B277" s="20"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="26"/>
+      <c r="D277" s="26"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="19"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="19"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="27"/>
+      <c r="C278" s="26"/>
+      <c r="D278" s="26"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="19"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="19"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="26"/>
+      <c r="D279" s="26"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="19"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="19"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="26"/>
+      <c r="D280" s="26"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="19"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="26"/>
+      <c r="D281" s="26"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="19"/>
-      <c r="B282" s="20"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="19"/>
+      <c r="A282" s="26"/>
+      <c r="B282" s="27"/>
+      <c r="C282" s="26"/>
+      <c r="D282" s="26"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="19"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
+      <c r="A283" s="26"/>
+      <c r="B283" s="27"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="26"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="19"/>
-      <c r="B284" s="20"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="19"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="27"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="26"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="19"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="26"/>
+      <c r="D285" s="26"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="19"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="19"/>
-      <c r="D286" s="19"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="27"/>
+      <c r="C286" s="26"/>
+      <c r="D286" s="26"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="19"/>
-      <c r="B287" s="20"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="19"/>
+      <c r="A287" s="26"/>
+      <c r="B287" s="27"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="26"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="19"/>
-      <c r="B288" s="20"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="19"/>
+      <c r="A288" s="26"/>
+      <c r="B288" s="27"/>
+      <c r="C288" s="26"/>
+      <c r="D288" s="26"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="19"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="19"/>
+      <c r="A289" s="26"/>
+      <c r="B289" s="27"/>
+      <c r="C289" s="26"/>
+      <c r="D289" s="26"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="19"/>
-      <c r="B290" s="20"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="19"/>
+      <c r="A290" s="26"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="26"/>
+      <c r="D290" s="26"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="19"/>
-      <c r="B291" s="20"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="27"/>
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="19"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="27"/>
+      <c r="C292" s="26"/>
+      <c r="D292" s="26"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="19"/>
-      <c r="B293" s="20"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="19"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="26"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="19"/>
-      <c r="B294" s="20"/>
-      <c r="C294" s="19"/>
-      <c r="D294" s="19"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="27"/>
+      <c r="C294" s="26"/>
+      <c r="D294" s="26"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="19"/>
-      <c r="B295" s="20"/>
-      <c r="C295" s="19"/>
-      <c r="D295" s="19"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="26"/>
+      <c r="D295" s="26"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="19"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="19"/>
-      <c r="D296" s="19"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="26"/>
+      <c r="D296" s="26"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="19"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="19"/>
+      <c r="A297" s="26"/>
+      <c r="B297" s="27"/>
+      <c r="C297" s="26"/>
+      <c r="D297" s="26"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="19"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="19"/>
+      <c r="A298" s="26"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="26"/>
+      <c r="D298" s="26"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="19"/>
-      <c r="B299" s="20"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="27"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="26"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="19"/>
-      <c r="B300" s="20"/>
-      <c r="C300" s="19"/>
-      <c r="D300" s="19"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="27"/>
+      <c r="C300" s="26"/>
+      <c r="D300" s="26"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="19"/>
-      <c r="B301" s="20"/>
-      <c r="C301" s="19"/>
-      <c r="D301" s="19"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="26"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="19"/>
-      <c r="B302" s="20"/>
-      <c r="C302" s="19"/>
-      <c r="D302" s="19"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="26"/>
+      <c r="D302" s="26"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="19"/>
-      <c r="B303" s="20"/>
-      <c r="C303" s="19"/>
-      <c r="D303" s="19"/>
+      <c r="A303" s="26"/>
+      <c r="B303" s="27"/>
+      <c r="C303" s="26"/>
+      <c r="D303" s="26"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="19"/>
-      <c r="B304" s="20"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="26"/>
+      <c r="D304" s="26"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="19"/>
-      <c r="B305" s="20"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="26"/>
+      <c r="D305" s="26"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="19"/>
-      <c r="B306" s="20"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
+      <c r="A306" s="26"/>
+      <c r="B306" s="27"/>
+      <c r="C306" s="26"/>
+      <c r="D306" s="26"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="19"/>
-      <c r="B307" s="20"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="27"/>
+      <c r="C307" s="26"/>
+      <c r="D307" s="26"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="19"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="19"/>
+      <c r="A308" s="26"/>
+      <c r="B308" s="27"/>
+      <c r="C308" s="26"/>
+      <c r="D308" s="26"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="19"/>
-      <c r="B309" s="20"/>
-      <c r="C309" s="19"/>
-      <c r="D309" s="19"/>
+      <c r="A309" s="26"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="26"/>
+      <c r="D309" s="26"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="19"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="19"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="27"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="26"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="19"/>
-      <c r="B311" s="20"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
+      <c r="A311" s="26"/>
+      <c r="B311" s="27"/>
+      <c r="C311" s="26"/>
+      <c r="D311" s="26"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="19"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="27"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="26"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="19"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="19"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="26"/>
+      <c r="D313" s="26"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="19"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="19"/>
+      <c r="A314" s="26"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="26"/>
+      <c r="D314" s="26"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="19"/>
-      <c r="B315" s="20"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="19"/>
+      <c r="A315" s="26"/>
+      <c r="B315" s="27"/>
+      <c r="C315" s="26"/>
+      <c r="D315" s="26"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="19"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="19"/>
+      <c r="A316" s="26"/>
+      <c r="B316" s="27"/>
+      <c r="C316" s="26"/>
+      <c r="D316" s="26"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="19"/>
-      <c r="B317" s="20"/>
-      <c r="C317" s="19"/>
-      <c r="D317" s="19"/>
+      <c r="A317" s="26"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="26"/>
+      <c r="D317" s="26"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="19"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="19"/>
+      <c r="A318" s="26"/>
+      <c r="B318" s="27"/>
+      <c r="C318" s="26"/>
+      <c r="D318" s="26"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="19"/>
-      <c r="B319" s="20"/>
-      <c r="C319" s="19"/>
-      <c r="D319" s="19"/>
+      <c r="A319" s="26"/>
+      <c r="B319" s="27"/>
+      <c r="C319" s="26"/>
+      <c r="D319" s="26"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="19"/>
-      <c r="B320" s="20"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="19"/>
+      <c r="A320" s="26"/>
+      <c r="B320" s="27"/>
+      <c r="C320" s="26"/>
+      <c r="D320" s="26"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="19"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="19"/>
+      <c r="A321" s="26"/>
+      <c r="B321" s="27"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="26"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="19"/>
-      <c r="B322" s="20"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="19"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="27"/>
+      <c r="C322" s="26"/>
+      <c r="D322" s="26"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="19"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="19"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="26"/>
+      <c r="D323" s="26"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="19"/>
-      <c r="B324" s="20"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="19"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="27"/>
+      <c r="C324" s="26"/>
+      <c r="D324" s="26"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="19"/>
-      <c r="B325" s="20"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="19"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="26"/>
+      <c r="D325" s="26"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="19"/>
-      <c r="B326" s="20"/>
-      <c r="C326" s="19"/>
-      <c r="D326" s="19"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="26"/>
+      <c r="D326" s="26"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="19"/>
-      <c r="B327" s="20"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="26"/>
+      <c r="D327" s="26"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="19"/>
-      <c r="B328" s="20"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
+      <c r="A328" s="26"/>
+      <c r="B328" s="27"/>
+      <c r="C328" s="26"/>
+      <c r="D328" s="26"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="19"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="19"/>
+      <c r="A329" s="26"/>
+      <c r="B329" s="27"/>
+      <c r="C329" s="26"/>
+      <c r="D329" s="26"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="19"/>
-      <c r="B330" s="20"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="19"/>
+      <c r="A330" s="26"/>
+      <c r="B330" s="27"/>
+      <c r="C330" s="26"/>
+      <c r="D330" s="26"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="19"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="19"/>
+      <c r="A331" s="26"/>
+      <c r="B331" s="27"/>
+      <c r="C331" s="26"/>
+      <c r="D331" s="26"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="19"/>
-      <c r="B332" s="20"/>
-      <c r="C332" s="19"/>
-      <c r="D332" s="19"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="27"/>
+      <c r="C332" s="26"/>
+      <c r="D332" s="26"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="19"/>
-      <c r="B333" s="20"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
+      <c r="A333" s="26"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="26"/>
+      <c r="D333" s="26"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="19"/>
-      <c r="B334" s="20"/>
-      <c r="C334" s="19"/>
-      <c r="D334" s="19"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="27"/>
+      <c r="C334" s="26"/>
+      <c r="D334" s="26"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="19"/>
-      <c r="B335" s="20"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="19"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="27"/>
+      <c r="C335" s="26"/>
+      <c r="D335" s="26"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="19"/>
-      <c r="B336" s="20"/>
-      <c r="C336" s="19"/>
-      <c r="D336" s="19"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="26"/>
+      <c r="D336" s="26"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="19"/>
-      <c r="B337" s="20"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="19"/>
+      <c r="A337" s="26"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="26"/>
+      <c r="D337" s="26"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="19"/>
-      <c r="B338" s="20"/>
-      <c r="C338" s="19"/>
-      <c r="D338" s="19"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="27"/>
+      <c r="C338" s="26"/>
+      <c r="D338" s="26"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="19"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="19"/>
+      <c r="A339" s="26"/>
+      <c r="B339" s="27"/>
+      <c r="C339" s="26"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="19"/>
-      <c r="B340" s="20"/>
-      <c r="C340" s="19"/>
+      <c r="A340" s="26"/>
+      <c r="B340" s="27"/>
+      <c r="C340" s="26"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="19"/>
-      <c r="B341" s="20"/>
-      <c r="C341" s="19"/>
+      <c r="A341" s="26"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="26"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="19"/>
-      <c r="B342" s="20"/>
-      <c r="C342" s="19"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="26"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="19"/>
-      <c r="B343" s="20"/>
-      <c r="C343" s="19"/>
+      <c r="A343" s="26"/>
+      <c r="B343" s="27"/>
+      <c r="C343" s="26"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="19"/>
-      <c r="B344" s="20"/>
-      <c r="C344" s="19"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="27"/>
+      <c r="C344" s="26"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="19"/>
-      <c r="B345" s="20"/>
-      <c r="C345" s="19"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="26"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="19"/>
-      <c r="B346" s="20"/>
-      <c r="C346" s="19"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="26"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="19"/>
-      <c r="B347" s="20"/>
-      <c r="C347" s="19"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="26"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="19"/>
-      <c r="B348" s="20"/>
-      <c r="C348" s="19"/>
+      <c r="A348" s="26"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="26"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="19"/>
-      <c r="B349" s="20"/>
-      <c r="C349" s="19"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="26"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="19"/>
-      <c r="B350" s="20"/>
-      <c r="C350" s="19"/>
+      <c r="A350" s="26"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="26"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="19"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="19"/>
+      <c r="A351" s="26"/>
+      <c r="B351" s="27"/>
+      <c r="C351" s="26"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="19"/>
-      <c r="B352" s="20"/>
-      <c r="C352" s="19"/>
+      <c r="A352" s="26"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="26"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="19"/>
-      <c r="B353" s="20"/>
-      <c r="C353" s="19"/>
+      <c r="A353" s="26"/>
+      <c r="B353" s="27"/>
+      <c r="C353" s="26"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="19"/>
-      <c r="B354" s="20"/>
-      <c r="C354" s="19"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="27"/>
+      <c r="C354" s="26"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="19"/>
-      <c r="B355" s="20"/>
-      <c r="C355" s="19"/>
+      <c r="A355" s="26"/>
+      <c r="B355" s="27"/>
+      <c r="C355" s="26"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="19"/>
-      <c r="B356" s="20"/>
-      <c r="C356" s="19"/>
+      <c r="A356" s="26"/>
+      <c r="B356" s="27"/>
+      <c r="C356" s="26"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="19"/>
-      <c r="B357" s="20"/>
-      <c r="C357" s="19"/>
+      <c r="A357" s="26"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="26"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="19"/>
-      <c r="B358" s="20"/>
-      <c r="C358" s="19"/>
+      <c r="A358" s="26"/>
+      <c r="B358" s="27"/>
+      <c r="C358" s="26"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="19"/>
-      <c r="B359" s="20"/>
-      <c r="C359" s="19"/>
+      <c r="A359" s="26"/>
+      <c r="B359" s="27"/>
+      <c r="C359" s="26"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="19"/>
-      <c r="B360" s="20"/>
-      <c r="C360" s="19"/>
+      <c r="A360" s="26"/>
+      <c r="B360" s="27"/>
+      <c r="C360" s="26"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="19"/>
-      <c r="B361" s="20"/>
-      <c r="C361" s="19"/>
+      <c r="A361" s="26"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="26"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="19"/>
-      <c r="B362" s="20"/>
-      <c r="C362" s="19"/>
+      <c r="A362" s="26"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="26"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="19"/>
-      <c r="B363" s="20"/>
-      <c r="C363" s="19"/>
+      <c r="A363" s="26"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="26"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="19"/>
-      <c r="B364" s="20"/>
-      <c r="C364" s="19"/>
+      <c r="A364" s="26"/>
+      <c r="B364" s="27"/>
+      <c r="C364" s="26"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="19"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="19"/>
+      <c r="A365" s="26"/>
+      <c r="B365" s="27"/>
+      <c r="C365" s="26"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="19"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="19"/>
+      <c r="A366" s="26"/>
+      <c r="B366" s="27"/>
+      <c r="C366" s="26"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="19"/>
-      <c r="B367" s="20"/>
-      <c r="C367" s="19"/>
+      <c r="A367" s="26"/>
+      <c r="B367" s="27"/>
+      <c r="C367" s="26"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="19"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="19"/>
+      <c r="A368" s="26"/>
+      <c r="B368" s="27"/>
+      <c r="C368" s="26"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="19"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="19"/>
+      <c r="A369" s="26"/>
+      <c r="B369" s="27"/>
+      <c r="C369" s="26"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="19"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="19"/>
+      <c r="A370" s="26"/>
+      <c r="B370" s="27"/>
+      <c r="C370" s="26"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="19"/>
-      <c r="B371" s="20"/>
-      <c r="C371" s="19"/>
+      <c r="A371" s="26"/>
+      <c r="B371" s="27"/>
+      <c r="C371" s="26"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="19"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="19"/>
+      <c r="A372" s="26"/>
+      <c r="B372" s="27"/>
+      <c r="C372" s="26"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="19"/>
-      <c r="B373" s="20"/>
-      <c r="C373" s="19"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="27"/>
+      <c r="C373" s="26"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="19"/>
-      <c r="B374" s="20"/>
-      <c r="C374" s="19"/>
+      <c r="A374" s="26"/>
+      <c r="B374" s="27"/>
+      <c r="C374" s="26"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="19"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="19"/>
+      <c r="A375" s="26"/>
+      <c r="B375" s="27"/>
+      <c r="C375" s="26"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="19"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="19"/>
+      <c r="A376" s="26"/>
+      <c r="B376" s="27"/>
+      <c r="C376" s="26"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="19"/>
-      <c r="B377" s="20"/>
-      <c r="C377" s="19"/>
+      <c r="A377" s="26"/>
+      <c r="B377" s="27"/>
+      <c r="C377" s="26"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="19"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="19"/>
+      <c r="A378" s="26"/>
+      <c r="B378" s="27"/>
+      <c r="C378" s="26"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="19"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="19"/>
+      <c r="A379" s="26"/>
+      <c r="B379" s="27"/>
+      <c r="C379" s="26"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="19"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="19"/>
+      <c r="A380" s="26"/>
+      <c r="B380" s="27"/>
+      <c r="C380" s="26"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="19"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="19"/>
+      <c r="A381" s="26"/>
+      <c r="B381" s="27"/>
+      <c r="C381" s="26"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="19"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="19"/>
+      <c r="A382" s="26"/>
+      <c r="B382" s="27"/>
+      <c r="C382" s="26"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="19"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="19"/>
+      <c r="A383" s="26"/>
+      <c r="B383" s="27"/>
+      <c r="C383" s="26"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="19"/>
-      <c r="B384" s="20"/>
-      <c r="C384" s="19"/>
+      <c r="A384" s="26"/>
+      <c r="B384" s="27"/>
+      <c r="C384" s="26"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="19"/>
-      <c r="B385" s="20"/>
-      <c r="C385" s="19"/>
+      <c r="A385" s="26"/>
+      <c r="B385" s="27"/>
+      <c r="C385" s="26"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="19"/>
-      <c r="B386" s="20"/>
-      <c r="C386" s="19"/>
+      <c r="A386" s="26"/>
+      <c r="B386" s="27"/>
+      <c r="C386" s="26"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="19"/>
-      <c r="B387" s="20"/>
-      <c r="C387" s="19"/>
+      <c r="A387" s="26"/>
+      <c r="B387" s="27"/>
+      <c r="C387" s="26"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="19"/>
-      <c r="B388" s="20"/>
-      <c r="C388" s="19"/>
+      <c r="A388" s="26"/>
+      <c r="B388" s="27"/>
+      <c r="C388" s="26"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="19"/>
-      <c r="B389" s="20"/>
-      <c r="C389" s="19"/>
+      <c r="A389" s="26"/>
+      <c r="B389" s="27"/>
+      <c r="C389" s="26"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="19"/>
-      <c r="B390" s="20"/>
-      <c r="C390" s="19"/>
+      <c r="A390" s="26"/>
+      <c r="B390" s="27"/>
+      <c r="C390" s="26"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="19"/>
-      <c r="B391" s="20"/>
-      <c r="C391" s="19"/>
+      <c r="A391" s="26"/>
+      <c r="B391" s="27"/>
+      <c r="C391" s="26"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="19"/>
-      <c r="B392" s="20"/>
-      <c r="C392" s="19"/>
+      <c r="A392" s="26"/>
+      <c r="B392" s="27"/>
+      <c r="C392" s="26"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="19"/>
-      <c r="B393" s="20"/>
-      <c r="C393" s="19"/>
+      <c r="A393" s="26"/>
+      <c r="B393" s="27"/>
+      <c r="C393" s="26"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="19"/>
-      <c r="B394" s="20"/>
-      <c r="C394" s="19"/>
+      <c r="A394" s="26"/>
+      <c r="B394" s="27"/>
+      <c r="C394" s="26"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="19"/>
-      <c r="B395" s="20"/>
-      <c r="C395" s="19"/>
+      <c r="A395" s="26"/>
+      <c r="B395" s="27"/>
+      <c r="C395" s="26"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="19"/>
-      <c r="B396" s="20"/>
-      <c r="C396" s="19"/>
+      <c r="A396" s="26"/>
+      <c r="B396" s="27"/>
+      <c r="C396" s="26"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="19"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="19"/>
+      <c r="A397" s="26"/>
+      <c r="B397" s="27"/>
+      <c r="C397" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G149"/>
+  <autoFilter ref="A1:H149">
+    <filterColumn colId="7">
+      <filters>
+        <filter val=""/>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I1:L5"/>
   </mergeCells>
@@ -8819,7 +9491,7 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="B17:F17 F7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9022,13 +9694,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,13 +9708,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,13 +9722,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,13 +9736,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9078,13 +9750,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9092,13 +9764,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9106,13 +9778,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9120,13 +9792,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9134,13 +9806,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9148,18 +9820,18 @@
         <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>44</v>
@@ -9170,7 +9842,7 @@
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>152</v>
@@ -9205,7 +9877,7 @@
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9216,10 +9888,10 @@
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>547</v>
@@ -9238,7 +9910,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>77</v>
@@ -9249,18 +9921,18 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>71</v>
@@ -9272,7 +9944,7 @@
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>540</v>
+        <v>307</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>35</v>
@@ -9287,10 +9959,10 @@
         <v>542</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +10325,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="1" sqref="B17:F17 D40"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9686,7 +10358,7 @@
         <v>551</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9876,7 +10548,7 @@
         <v>580</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,7 +10584,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>586</v>
@@ -9926,7 +10598,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>587</v>
@@ -10108,7 +10780,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>600</v>
@@ -10233,7 +10905,7 @@
       <c r="A40" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -10265,7 +10937,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:F17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10298,7 +10970,7 @@
         <v>551</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -10460,7 +11132,7 @@
         <v>580</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10686,7 +11358,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="B17:F17 C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10867,7 +11539,7 @@
         <v>666</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11131,757 +11803,757 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="B17:F17 C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="24" t="n">
+      <c r="A1" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="31" t="n">
         <v>48182</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="24" t="n">
+      <c r="C1" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="31" t="n">
         <v>76536</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="24" t="n">
+      <c r="F1" s="31" t="n">
         <v>49932</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="24" t="n">
+      <c r="H1" s="31" t="n">
         <v>40447</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="J1" s="24" t="n">
+      <c r="I1" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" s="31" t="n">
         <v>22115</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="L1" s="24" t="n">
+      <c r="L1" s="31" t="n">
         <v>11804</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="N1" s="24" t="n">
+      <c r="M1" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="N1" s="31" t="n">
         <v>13039</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="P1" s="24" t="n">
+      <c r="O1" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="P1" s="31" t="n">
         <v>14836</v>
       </c>
-      <c r="Q1" s="25" t="n">
+      <c r="Q1" s="32" t="n">
         <f aca="false">B1+D1+F1+H1+J1+L1+N1+P1</f>
         <v>276891</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="31" t="n">
         <v>3068</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="24" t="n">
+      <c r="C2" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="31" t="n">
         <v>3654</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="31" t="n">
         <v>8047</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="H2" s="24" t="n">
+      <c r="H2" s="31" t="n">
         <v>5080</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="J2" s="24" t="n">
+      <c r="I2" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="J2" s="31" t="n">
         <v>1653</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="O2" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="P2" s="27" t="n">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="O2" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="P2" s="34" t="n">
         <v>922</v>
       </c>
-      <c r="Q2" s="25" t="n">
+      <c r="Q2" s="32" t="n">
         <f aca="false">B2+D2+F2+H2+J2+L2+N2+P2</f>
         <v>22424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="31" t="n">
         <v>4494</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="D3" s="24" t="n">
+      <c r="C3" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="31" t="n">
         <v>9615</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="31" t="n">
         <v>1670</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="31" t="n">
         <v>2677</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="L3" s="24" t="n">
+      <c r="L3" s="31" t="n">
         <v>3471</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25" t="n">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="32" t="n">
         <f aca="false">B3+D3+F3+H3+J3+L3+N3+P3</f>
         <v>21927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="31" t="n">
         <v>4616</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" s="24" t="n">
+      <c r="C4" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="31" t="n">
         <v>7956</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="31" t="n">
         <v>2414</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="31" t="n">
         <v>2641</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="23" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="L4" s="24" t="n">
+      <c r="L4" s="31" t="n">
         <v>1606</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25" t="n">
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="32" t="n">
         <f aca="false">B4+D4+F4+H4+J4+L4+N4+P4</f>
         <v>19233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="31" t="n">
         <v>5281</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="31" t="n">
         <v>2017</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="31" t="n">
         <v>3554</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="31" t="n">
         <v>2825</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25" t="n">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32" t="n">
         <f aca="false">B5+D5+F5+H5+J5+L5+N5+P5</f>
         <v>13677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="31" t="n">
         <v>2715</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="24" t="n">
+      <c r="C6" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="31" t="n">
         <v>3419</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="F6" s="27" t="n">
+      <c r="F6" s="34" t="n">
         <v>814</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="31" t="n">
         <v>2592</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="L6" s="24" t="n">
+      <c r="L6" s="31" t="n">
         <v>2665</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="N6" s="27" t="n">
+      <c r="M6" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="N6" s="34" t="n">
         <v>622</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="n">
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="32" t="n">
         <f aca="false">B6+D6+F6+H6+J6+L6+N6+P6</f>
         <v>12827</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="31" t="n">
         <v>1536</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="24" t="n">
+      <c r="C7" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="31" t="n">
         <v>1416</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="31" t="n">
         <v>7029</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="31" t="n">
         <v>4025</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="P7" s="24" t="n">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="P7" s="31" t="n">
         <v>1713</v>
       </c>
-      <c r="Q7" s="25" t="n">
+      <c r="Q7" s="32" t="n">
         <f aca="false">B7+D7+F7+H7+J7+L7+N7+P7</f>
         <v>15719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="31" t="n">
         <v>4966</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="31" t="n">
         <v>2295</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="31" t="n">
         <v>2126</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="J8" s="24" t="n">
+      <c r="I8" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="J8" s="31" t="n">
         <v>1414</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="P8" s="27" t="n">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="P8" s="34" t="n">
         <v>682</v>
       </c>
-      <c r="Q8" s="25" t="n">
+      <c r="Q8" s="32" t="n">
         <f aca="false">B8+D8+F8+H8+J8+L8+N8+P8</f>
         <v>11483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="31" t="n">
         <v>6068</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="24" t="n">
+      <c r="C9" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="31" t="n">
         <v>2439</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="31" t="n">
         <v>2122</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="34" t="n">
         <v>494</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="Q9" s="25" t="n">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="Q9" s="32" t="n">
         <f aca="false">B9+D9+F9+H9+J9+L9+N9+P9</f>
         <v>11123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="31" t="n">
         <v>1311</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="24" t="n">
+      <c r="C10" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="31" t="n">
         <v>3163</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="31" t="n">
         <v>4238</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="31" t="n">
         <v>3583</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="Q10" s="25" t="n">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="Q10" s="32" t="n">
         <f aca="false">B10+D10+F10+H10+J10+L10+N10+P10</f>
         <v>12295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="31" t="n">
         <v>7591</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="Q11" s="25" t="n">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="Q11" s="32" t="n">
         <f aca="false">B11+D11+F11+H11+J11+L11+N11+P11</f>
         <v>7591</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="24" t="n">
+      <c r="C12" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="31" t="n">
         <v>1224</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="31" t="n">
         <v>3905</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="31" t="n">
         <v>1686</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="N12" s="27" t="n">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="N12" s="34" t="n">
         <v>699</v>
       </c>
-      <c r="Q12" s="25" t="n">
+      <c r="Q12" s="32" t="n">
         <f aca="false">B12+D12+F12+H12+J12+L12+N12+P12</f>
         <v>7514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="27" t="n">
+      <c r="A13" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="34" t="n">
         <v>674</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="31" t="n">
         <v>1320</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="H13" s="24" t="n">
+      <c r="H13" s="31" t="n">
         <v>3369</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="23" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="L13" s="24" t="n">
+      <c r="L13" s="31" t="n">
         <v>1807</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="Q13" s="25" t="n">
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="Q13" s="32" t="n">
         <f aca="false">B13+D13+F13+H13+J13+L13+N13+P13</f>
         <v>7170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="31" t="n">
         <v>2847</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="31" t="n">
         <v>2178</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="31" t="n">
         <v>3749</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="31" t="n">
         <v>2223</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="Q14" s="25" t="n">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="Q14" s="32" t="n">
         <f aca="false">B14+D14+F14+H14+J14+L14+N14+P14</f>
         <v>10997</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="D15" s="27" t="n">
+      <c r="C15" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="34" t="n">
         <v>594</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="31" t="n">
         <v>1001</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="34" t="n">
         <v>679</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="J15" s="24" t="n">
+      <c r="I15" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="J15" s="31" t="n">
         <v>1836</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="N15" s="27" t="n">
+      <c r="M15" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="N15" s="34" t="n">
         <v>923</v>
       </c>
-      <c r="Q15" s="25" t="n">
+      <c r="Q15" s="32" t="n">
         <f aca="false">B15+D15+F15+H15+J15+L15+N15+P15</f>
         <v>5033</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q16" s="25" t="n">
+      <c r="Q16" s="32" t="n">
         <f aca="false">B14+D14+F16+H16+J16+L16+N16+P16</f>
         <v>5025</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="31" t="n">
         <v>1421</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="31" t="n">
         <v>2759</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="F17" s="27" t="n">
+      <c r="F17" s="34" t="n">
         <v>794</v>
       </c>
-      <c r="Q17" s="25" t="n">
+      <c r="Q17" s="32" t="n">
         <f aca="false">B17+D17+F17+H17+J17+L17+N17+P17</f>
         <v>4974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="27" t="n">
+      <c r="A18" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="34" t="n">
         <v>869</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" s="24" t="n">
+      <c r="C18" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="31" t="n">
         <v>1006</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="F18" s="24" t="n">
+      <c r="F18" s="31" t="n">
         <v>3075</v>
       </c>
-      <c r="Q18" s="25" t="n">
+      <c r="Q18" s="32" t="n">
         <f aca="false">B18+D18+F18+H18+J18+L18+N18+P18</f>
         <v>4950</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="24" t="n">
+      <c r="A19" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="31" t="n">
         <v>1350</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="31" t="n">
         <v>1023</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="31" t="n">
         <v>2213</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="H19" s="24" t="n">
+      <c r="H19" s="31" t="n">
         <v>1085</v>
       </c>
-      <c r="Q19" s="25" t="n">
+      <c r="Q19" s="32" t="n">
         <f aca="false">B19+D19+F19+H19+J19+L19+N19+P19</f>
         <v>5671</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="25" t="n">
+      <c r="Q20" s="32" t="n">
         <f aca="false">B20+D10+F20+H9+J20+L20+N20+P20</f>
         <v>3657</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="30" t="s">
         <v>440</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
       </c>
-      <c r="Q21" s="25" t="n">
+      <c r="Q21" s="32" t="n">
         <f aca="false">B7+D7+F21+H21+J21+L21+N21+P21</f>
         <v>5800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="25" t="n">
+      <c r="Q22" s="32" t="n">
         <f aca="false">B22+D22+F21+H22+J22+L22+N22+P22</f>
         <v>2848</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="27" t="n">
+      <c r="A23" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="34" t="n">
         <v>629</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="24" t="n">
+      <c r="C23" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="31" t="n">
         <v>1101</v>
       </c>
-      <c r="Q23" s="25" t="n">
+      <c r="Q23" s="32" t="n">
         <f aca="false">B23+D23+F23+H19+J23+L23+N23+P23</f>
         <v>2815</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="30" t="s">
         <v>445</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
       </c>
-      <c r="Q24" s="25" t="n">
+      <c r="Q24" s="32" t="n">
         <f aca="false">B24+D24+F24+H24+J24+L24+N24+P24</f>
         <v>2780</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>2170</v>
       </c>
-      <c r="Q25" s="25" t="n">
+      <c r="Q25" s="32" t="n">
         <f aca="false">B25+D25+F25+H25+J25+L25+N25+P25</f>
         <v>2170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="30" t="s">
         <v>442</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
       </c>
-      <c r="Q26" s="25" t="n">
+      <c r="Q26" s="32" t="n">
         <f aca="false">B26+D26+F26+H26+J26+L26+N26+P26</f>
         <v>2065</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>1991</v>
       </c>
-      <c r="Q27" s="25" t="n">
+      <c r="Q27" s="32" t="n">
         <f aca="false">B27+D27+F27+H27+J27+L27+N27+P27</f>
         <v>1991</v>
       </c>
@@ -11893,49 +12565,49 @@
       <c r="H28" s="6" t="n">
         <v>1696</v>
       </c>
-      <c r="Q28" s="25" t="n">
+      <c r="Q28" s="32" t="n">
         <f aca="false">B28+D28+F28+H28+J28+L28+N28+P28</f>
         <v>1696</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
       </c>
-      <c r="Q29" s="25" t="n">
+      <c r="Q29" s="32" t="n">
         <f aca="false">B29+D29+F29+H29+J29+L29+N29+P29</f>
         <v>1288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="30" t="s">
         <v>447</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
       </c>
-      <c r="Q30" s="25" t="n">
+      <c r="Q30" s="32" t="n">
         <f aca="false">B30+D30+F30+H30+J30+L30+N30+P30</f>
         <v>921</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>833</v>
       </c>
-      <c r="Q31" s="25" t="n">
+      <c r="Q31" s="32" t="n">
         <f aca="false">B31+D31+F31+H31+J31+L31+N31+P31</f>
         <v>833</v>
       </c>
@@ -11947,43 +12619,43 @@
       <c r="H32" s="4" t="n">
         <v>725</v>
       </c>
-      <c r="Q32" s="25" t="n">
+      <c r="Q32" s="32" t="n">
         <f aca="false">B32+D32+F32+H32+J32+L32+N32+P32</f>
         <v>725</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="36" t="n">
         <v>665</v>
       </c>
-      <c r="Q33" s="25" t="n">
+      <c r="Q33" s="32" t="n">
         <f aca="false">B33+D33+F33+H33+J33+L33+N33+P33</f>
         <v>665</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="B34" s="29" t="n">
+      <c r="B34" s="36" t="n">
         <v>633</v>
       </c>
-      <c r="Q34" s="25" t="n">
+      <c r="Q34" s="32" t="n">
         <f aca="false">B34+D34+F34+H34+J34+L34+N34+P34</f>
         <v>633</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="H35" s="29" t="n">
+      <c r="H35" s="36" t="n">
         <v>522</v>
       </c>
-      <c r="Q35" s="25" t="n">
+      <c r="Q35" s="32" t="n">
         <f aca="false">B35+D35+F35+H35+J35+L35+N35+P35</f>
         <v>522</v>
       </c>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -17,11 +17,11 @@
     <sheet name="Лист3" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$H$154</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$G$157</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$H$149</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$G$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$G$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$H$154</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право!$A$1:$G$149</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="684">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -148,13 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">сп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП</t>
   </si>
   <si>
     <t xml:space="preserve">спр</t>
@@ -1067,7 +1060,11 @@
     <t xml:space="preserve">ъ</t>
   </si>
   <si>
-    <t xml:space="preserve">ВТБ</t>
+    <t xml:space="preserve">#:::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СП</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -1778,12 +1775,7 @@
     <t xml:space="preserve">яй</t>
   </si>
   <si>
-    <t xml:space="preserve">::::
-::##
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯЬ21</t>
+    <t xml:space="preserve">ОЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ь</t>
@@ -1825,7 +1817,11 @@
     <t xml:space="preserve">ё</t>
   </si>
   <si>
-    <t xml:space="preserve">ОЯЬ</t>
+    <t xml:space="preserve">#::#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИУ</t>
   </si>
   <si>
     <t xml:space="preserve">Буква</t>
@@ -2794,8 +2790,8 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,7 +3069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>56</v>
       </c>
@@ -3087,12 +3083,8 @@
         <v>53563</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9" t="n">
         <v>9</v>
       </c>
@@ -3102,7 +3094,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>1240</v>
@@ -3112,10 +3104,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>9</v>
@@ -3126,7 +3118,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>765</v>
@@ -3136,10 +3128,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>9</v>
@@ -3150,7 +3142,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>16224</v>
@@ -3160,10 +3152,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -3174,7 +3166,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>3680</v>
@@ -3184,10 +3176,10 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>9</v>
@@ -3198,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>1064</v>
@@ -3208,10 +3200,10 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>9</v>
@@ -3222,7 +3214,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>3423</v>
@@ -3232,10 +3224,10 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>9</v>
@@ -3246,7 +3238,7 @@
         <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>588</v>
@@ -3256,10 +3248,10 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>9</v>
@@ -3270,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>30330</v>
@@ -3283,10 +3275,10 @@
         <v>46695</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -3297,7 +3289,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>593</v>
@@ -3307,10 +3299,10 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>9</v>
@@ -3321,7 +3313,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>1854</v>
@@ -3331,10 +3323,10 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>9</v>
@@ -3345,7 +3337,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>1507</v>
@@ -3355,10 +3347,10 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="9" t="n">
         <v>9</v>
@@ -3369,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2844</v>
@@ -3379,10 +3371,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>9</v>
@@ -3393,7 +3385,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>1847</v>
@@ -3403,10 +3395,10 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" s="9" t="n">
         <v>9</v>
@@ -3417,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>5466</v>
@@ -3427,10 +3419,10 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H26" s="9" t="n">
         <v>9</v>
@@ -3441,7 +3433,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>954</v>
@@ -3451,10 +3443,10 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" s="9" t="n">
         <v>9</v>
@@ -3465,7 +3457,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>697</v>
@@ -3475,10 +3467,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H28" s="9" t="n">
         <v>9</v>
@@ -3489,7 +3481,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>603</v>
@@ -3499,10 +3491,10 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H29" s="9" t="n">
         <v>9</v>
@@ -3517,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>16796</v>
@@ -3530,10 +3522,10 @@
         <v>39118</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -3544,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>354</v>
@@ -3554,10 +3546,10 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H32" s="9" t="n">
         <v>9</v>
@@ -3568,7 +3560,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>1954</v>
@@ -3578,10 +3570,10 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="9" t="n">
         <v>9</v>
@@ -3592,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>7663</v>
@@ -3602,10 +3594,10 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H34" s="9" t="n">
         <v>1</v>
@@ -3616,7 +3608,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1276</v>
@@ -3626,10 +3618,10 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H35" s="9" t="n">
         <v>9</v>
@@ -3640,7 +3632,7 @@
         <v>83</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>1057</v>
@@ -3650,10 +3642,10 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" s="9" t="n">
         <v>9</v>
@@ -3664,7 +3656,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>4200</v>
@@ -3674,10 +3666,10 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H37" s="9" t="n">
         <v>9</v>
@@ -3688,7 +3680,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>4135</v>
@@ -3698,10 +3690,10 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H38" s="9" t="n">
         <v>9</v>
@@ -3712,7 +3704,7 @@
         <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1683</v>
@@ -3722,10 +3714,10 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H39" s="9" t="n">
         <v>9</v>
@@ -3740,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>21906</v>
@@ -3753,10 +3745,10 @@
         <v>34719</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -3767,7 +3759,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>4921</v>
@@ -3777,10 +3769,10 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H42" s="9" t="n">
         <v>9</v>
@@ -3791,7 +3783,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>887</v>
@@ -3801,10 +3793,10 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H43" s="9" t="n">
         <v>9</v>
@@ -3815,7 +3807,7 @@
         <v>89</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>818</v>
@@ -3825,10 +3817,10 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H44" s="9" t="n">
         <v>9</v>
@@ -3839,7 +3831,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>1463</v>
@@ -3849,10 +3841,10 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H45" s="9" t="n">
         <v>9</v>
@@ -3863,7 +3855,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>4135</v>
@@ -3873,10 +3865,10 @@
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>9</v>
@@ -3887,7 +3879,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>589</v>
@@ -3897,10 +3889,10 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>9</v>
@@ -3915,7 +3907,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>18674</v>
@@ -3928,10 +3920,10 @@
         <v>31695</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -3942,7 +3934,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>1958</v>
@@ -3952,10 +3944,10 @@
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H50" s="9" t="n">
         <v>9</v>
@@ -3966,7 +3958,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="10" t="n">
         <v>2838</v>
@@ -3976,10 +3968,10 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H51" s="9" t="n">
         <v>9</v>
@@ -3990,7 +3982,7 @@
         <v>94</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>629</v>
@@ -4000,10 +3992,10 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H52" s="9" t="n">
         <v>9</v>
@@ -4014,7 +4006,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>1362</v>
@@ -4024,10 +4016,10 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H53" s="9" t="n">
         <v>9</v>
@@ -4038,7 +4030,7 @@
         <v>33</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>3931</v>
@@ -4048,10 +4040,10 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H54" s="9" t="n">
         <v>9</v>
@@ -4062,7 +4054,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2303</v>
@@ -4072,10 +4064,10 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H55" s="9" t="n">
         <v>9</v>
@@ -4090,7 +4082,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>10968</v>
@@ -4103,10 +4095,10 @@
         <v>23402</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -4117,7 +4109,7 @@
         <v>74</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>1378</v>
@@ -4127,10 +4119,10 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H58" s="9" t="n">
         <v>9</v>
@@ -4141,7 +4133,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>2409</v>
@@ -4151,10 +4143,10 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H59" s="9" t="n">
         <v>9</v>
@@ -4165,7 +4157,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>2521</v>
@@ -4175,10 +4167,10 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H60" s="9" t="n">
         <v>9</v>
@@ -4189,7 +4181,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="10" t="n">
         <v>6126</v>
@@ -4199,10 +4191,10 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H61" s="9" t="n">
         <v>9</v>
@@ -4213,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>17640</v>
@@ -4226,10 +4218,10 @@
         <v>34376</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
@@ -4240,7 +4232,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>2154</v>
@@ -4250,10 +4242,10 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H64" s="9" t="n">
         <v>9</v>
@@ -4264,7 +4256,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>1927</v>
@@ -4274,10 +4266,10 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H65" s="9" t="n">
         <v>9</v>
@@ -4288,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>12655</v>
@@ -4298,10 +4290,10 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H66" s="9" t="n">
         <v>1</v>
@@ -4316,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>41540</v>
@@ -4329,10 +4321,10 @@
         <v>41540</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
@@ -4347,7 +4339,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>19697</v>
@@ -4360,10 +4352,10 @@
         <v>19697</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
@@ -4378,7 +4370,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>17464</v>
@@ -4391,10 +4383,10 @@
         <v>17464</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
@@ -4405,7 +4397,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>7507</v>
@@ -4418,10 +4410,10 @@
         <v>19766</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -4432,7 +4424,7 @@
         <v>43</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>3110</v>
@@ -4442,10 +4434,10 @@
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H75" s="9" t="n">
         <v>9</v>
@@ -4456,7 +4448,7 @@
         <v>41</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>3378</v>
@@ -4466,10 +4458,10 @@
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H76" s="9" t="n">
         <v>9</v>
@@ -4480,7 +4472,7 @@
         <v>36</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>3628</v>
@@ -4490,10 +4482,10 @@
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H77" s="9" t="n">
         <v>9</v>
@@ -4504,7 +4496,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>2143</v>
@@ -4514,10 +4506,10 @@
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H78" s="9" t="n">
         <v>9</v>
@@ -4532,7 +4524,7 @@
         <v>65</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>1845</v>
@@ -4545,10 +4537,10 @@
         <v>15365</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H80" s="9" t="n">
         <v>9</v>
@@ -4559,7 +4551,7 @@
         <v>90</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>777</v>
@@ -4569,10 +4561,10 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H81" s="9" t="n">
         <v>9</v>
@@ -4583,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>7638</v>
@@ -4593,10 +4585,10 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H82" s="9" t="n">
         <v>9</v>
@@ -4607,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C83" s="13" t="n">
         <v>5105</v>
@@ -4617,7 +4609,7 @@
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G83" s="8"/>
     </row>
@@ -4630,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>9642</v>
@@ -4643,10 +4635,10 @@
         <v>20004</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>0</v>
@@ -4657,7 +4649,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>1010</v>
@@ -4667,10 +4659,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H86" s="9" t="n">
         <v>9</v>
@@ -4681,7 +4673,7 @@
         <v>62</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>1904</v>
@@ -4691,10 +4683,10 @@
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H87" s="9" t="n">
         <v>9</v>
@@ -4705,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>7448</v>
@@ -4715,10 +4707,10 @@
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H88" s="9" t="n">
         <v>9</v>
@@ -4729,7 +4721,7 @@
         <v>16</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>8415</v>
@@ -4742,10 +4734,10 @@
         <v>14217</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>0</v>
@@ -4756,7 +4748,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>1061</v>
@@ -4766,10 +4758,10 @@
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H91" s="9" t="n">
         <v>9</v>
@@ -4780,7 +4772,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1221</v>
@@ -4790,10 +4782,10 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H92" s="9" t="n">
         <v>9</v>
@@ -4804,7 +4796,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>3520</v>
@@ -4814,10 +4806,10 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H93" s="9" t="n">
         <v>9</v>
@@ -4828,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>16251</v>
@@ -4841,10 +4833,10 @@
         <v>18322</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
@@ -4855,7 +4847,7 @@
         <v>54</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>2071</v>
@@ -4865,10 +4857,10 @@
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H96" s="9" t="n">
         <v>9</v>
@@ -4883,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>6105</v>
@@ -4896,10 +4888,10 @@
         <v>9513</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>0</v>
@@ -4910,7 +4902,7 @@
         <v>76</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>1331</v>
@@ -4920,10 +4912,10 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H99" s="9" t="n">
         <v>9</v>
@@ -4934,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>1325</v>
@@ -4944,10 +4936,10 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H100" s="9" t="n">
         <v>9</v>
@@ -4958,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>752</v>
@@ -4968,10 +4960,10 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H101" s="9" t="n">
         <v>9</v>
@@ -4986,7 +4978,7 @@
         <v>20</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>7302</v>
@@ -4999,10 +4991,10 @@
         <v>7302</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -5013,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>1924</v>
@@ -5023,10 +5015,10 @@
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H104" s="9" t="n">
         <v>9</v>
@@ -5037,7 +5029,7 @@
         <v>53</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>2131</v>
@@ -5047,10 +5039,10 @@
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H105" s="9" t="n">
         <v>9</v>
@@ -5065,7 +5057,7 @@
         <v>23</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>5518</v>
@@ -5078,10 +5070,10 @@
         <v>5518</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H107" s="9" t="n">
         <v>9</v>
@@ -5096,7 +5088,7 @@
         <v>26</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>5219</v>
@@ -5109,10 +5101,10 @@
         <v>5219</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H109" s="9" t="n">
         <v>0</v>
@@ -5126,7 +5118,7 @@
         <v>40</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>3398</v>
@@ -5139,10 +5131,10 @@
         <v>4272</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H111" s="9" t="n">
         <v>9</v>
@@ -5153,7 +5145,7 @@
         <v>87</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>874</v>
@@ -5163,10 +5155,10 @@
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H112" s="9" t="n">
         <v>9</v>
@@ -5181,7 +5173,7 @@
         <v>42</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>3322</v>
@@ -5194,10 +5186,10 @@
         <v>3322</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H114" s="9" t="n">
         <v>0</v>
@@ -5211,7 +5203,7 @@
         <v>70</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1631</v>
@@ -5224,10 +5216,10 @@
         <v>3638</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H116" s="9" t="n">
         <v>9</v>
@@ -5238,7 +5230,7 @@
         <v>55</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C117" s="10" t="n">
         <v>2007</v>
@@ -5248,10 +5240,10 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H117" s="9" t="n">
         <v>9</v>
@@ -5266,7 +5258,7 @@
         <v>57</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>1992</v>
@@ -5279,10 +5271,10 @@
         <v>1992</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H119" s="9" t="n">
         <v>0</v>
@@ -5297,7 +5289,7 @@
         <v>68</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>1668</v>
@@ -5310,10 +5302,10 @@
         <v>1668</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H121" s="9" t="n">
         <v>9</v>
@@ -5328,7 +5320,7 @@
         <v>69</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>1661</v>
@@ -5341,10 +5333,10 @@
         <v>1661</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H123" s="9" t="n">
         <v>9</v>
@@ -5359,7 +5351,7 @@
         <v>73</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>1456</v>
@@ -5372,10 +5364,10 @@
         <v>1456</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H125" s="9" t="n">
         <v>0</v>
@@ -5390,7 +5382,7 @@
         <v>101</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>274</v>
@@ -5403,10 +5395,10 @@
         <v>274</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>0</v>
@@ -5420,7 +5412,7 @@
         <v>88</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>826</v>
@@ -5431,15 +5423,15 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="131" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>0</v>
@@ -5488,7 +5480,7 @@
         <v>102</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="6" t="n">
@@ -5516,7 +5508,7 @@
       <c r="E159" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H154"/>
+  <autoFilter ref="A1:G157"/>
   <mergeCells count="1">
     <mergeCell ref="I1:L5"/>
   </mergeCells>
@@ -5533,13 +5525,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5558,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -5569,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>48182</v>
@@ -5585,7 +5577,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>0</v>
@@ -5595,12 +5587,12 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>3068</v>
@@ -5609,10 +5601,10 @@
         <v>82514</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H3" s="9" t="n">
         <v>9</v>
@@ -5627,7 +5619,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>4494</v>
@@ -5639,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>0</v>
@@ -5649,12 +5641,12 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>4616</v>
@@ -5663,10 +5655,10 @@
         <v>124158</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="9" t="n">
         <v>9</v>
@@ -5676,12 +5668,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>5281</v>
@@ -5690,10 +5682,10 @@
         <v>142022</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>9</v>
@@ -5702,12 +5694,12 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2715</v>
@@ -5716,10 +5708,10 @@
         <v>73037</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="H7" s="9" t="n">
         <v>9</v>
@@ -5730,12 +5722,12 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>4966</v>
@@ -5745,26 +5737,26 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>6068</v>
@@ -5774,10 +5766,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H9" s="9" t="n">
         <v>9</v>
@@ -5786,12 +5778,12 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1311</v>
@@ -5804,18 +5796,18 @@
         <v>29</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>674</v>
@@ -5825,21 +5817,21 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="H11" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>7591</v>
@@ -5849,21 +5841,21 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2847</v>
@@ -5876,18 +5868,18 @@
         <v>18</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1421</v>
@@ -5897,21 +5889,21 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H14" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>80</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>869</v>
@@ -5921,21 +5913,21 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>343</v>
-      </c>
       <c r="H15" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1350</v>
@@ -5945,21 +5937,21 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>346</v>
-      </c>
       <c r="H16" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C17" s="18" t="n">
         <v>629</v>
@@ -5969,19 +5961,19 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1536</v>
@@ -5991,21 +5983,21 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2170</v>
@@ -6015,21 +6007,21 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="H19" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1991</v>
@@ -6042,7 +6034,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>9</v>
@@ -6050,14 +6042,14 @@
     </row>
     <row r="21" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>0</v>
@@ -6092,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>72026</v>
@@ -6105,21 +6097,21 @@
         <v>124886</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3783</v>
@@ -6129,10 +6121,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="H28" s="9" t="n">
         <v>9</v>
@@ -6143,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>9615</v>
@@ -6153,21 +6145,21 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>7956</v>
@@ -6177,21 +6169,21 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H30" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>2017</v>
@@ -6201,21 +6193,21 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H31" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>3419</v>
@@ -6225,21 +6217,21 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H32" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>2295</v>
@@ -6249,21 +6241,21 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H33" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2439</v>
@@ -6273,21 +6265,21 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H34" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1224</v>
@@ -6297,21 +6289,21 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H35" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -6322,12 +6314,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2178</v>
@@ -6337,21 +6329,21 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>378</v>
-      </c>
       <c r="H37" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2759</v>
@@ -6361,21 +6353,21 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>381</v>
-      </c>
       <c r="H38" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1006</v>
@@ -6385,21 +6377,21 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H39" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1023</v>
@@ -6409,21 +6401,21 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>386</v>
-      </c>
       <c r="H40" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>3163</v>
@@ -6433,21 +6425,21 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H41" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1101</v>
@@ -6457,21 +6449,21 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>391</v>
-      </c>
       <c r="H42" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>1416</v>
@@ -6481,21 +6473,21 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>394</v>
-      </c>
       <c r="H43" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -6506,12 +6498,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>833</v>
@@ -6521,18 +6513,18 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G45" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>6633</v>
@@ -6542,10 +6534,10 @@
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H46" s="9" t="n">
         <v>9</v>
@@ -6553,13 +6545,13 @@
     </row>
     <row r="47" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>0</v>
@@ -6586,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>49932</v>
@@ -6599,21 +6591,21 @@
         <v>104491</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>8047</v>
@@ -6623,10 +6615,10 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H53" s="9" t="n">
         <v>9</v>
@@ -6637,7 +6629,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1670</v>
@@ -6647,21 +6639,21 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>44</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2414</v>
@@ -6671,21 +6663,21 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H55" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3554</v>
@@ -6695,21 +6687,21 @@
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H56" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>814</v>
@@ -6719,10 +6711,10 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>9</v>
@@ -6733,7 +6725,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>7029</v>
@@ -6743,21 +6735,21 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>52</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>2122</v>
@@ -6767,21 +6759,21 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H59" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
         <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>4238</v>
@@ -6791,21 +6783,21 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>420</v>
-      </c>
       <c r="H60" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>3905</v>
@@ -6815,21 +6807,21 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>423</v>
-      </c>
       <c r="H61" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
         <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>1320</v>
@@ -6839,21 +6831,21 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H62" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>23</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>3749</v>
@@ -6863,21 +6855,21 @@
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="H63" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
         <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>1001</v>
@@ -6887,21 +6879,21 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="H64" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>794</v>
@@ -6911,21 +6903,21 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>434</v>
-      </c>
       <c r="H65" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3075</v>
@@ -6935,21 +6927,21 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H66" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2213</v>
@@ -6959,21 +6951,21 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>439</v>
-      </c>
       <c r="H67" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>2848</v>
@@ -6983,21 +6975,21 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H68" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
         <v>53</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>2065</v>
@@ -7007,21 +6999,21 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>444</v>
-      </c>
       <c r="H69" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
         <v>36</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>2780</v>
@@ -7031,21 +7023,21 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H70" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
         <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>921</v>
@@ -7055,24 +7047,24 @@
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G71" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="H71" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="22" t="s">
+      <c r="F72" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>450</v>
       </c>
       <c r="H72" s="9" t="n">
         <v>9</v>
@@ -7103,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>40695</v>
@@ -7116,21 +7108,21 @@
         <v>77707</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H78" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>16</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5080</v>
@@ -7140,10 +7132,10 @@
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H79" s="9" t="n">
         <v>9</v>
@@ -7154,7 +7146,7 @@
         <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2677</v>
@@ -7164,21 +7156,21 @@
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>41</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2641</v>
@@ -7188,21 +7180,21 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H81" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>35</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2825</v>
@@ -7212,21 +7204,21 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H82" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2592</v>
@@ -7236,21 +7228,21 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H83" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
         <v>51</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2126</v>
@@ -7260,10 +7252,10 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="H84" s="9" t="n">
         <v>9</v>
@@ -7274,7 +7266,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>4025</v>
@@ -7284,21 +7276,21 @@
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
         <v>25</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>3583</v>
@@ -7308,21 +7300,21 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>470</v>
-      </c>
       <c r="H86" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>2223</v>
@@ -7331,21 +7323,21 @@
         <v>39876</v>
       </c>
       <c r="F87" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>473</v>
-      </c>
       <c r="H87" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
         <v>88</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>679</v>
@@ -7354,21 +7346,21 @@
         <v>18247</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H88" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>60</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1686</v>
@@ -7378,21 +7370,21 @@
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H89" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
         <v>29</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>3369</v>
@@ -7402,16 +7394,16 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>480</v>
-      </c>
       <c r="H90" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -7423,12 +7415,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
         <v>73</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1085</v>
@@ -7438,21 +7430,21 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>483</v>
-      </c>
       <c r="H92" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>725</v>
@@ -7462,21 +7454,21 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>486</v>
-      </c>
       <c r="H93" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1696</v>
@@ -7486,10 +7478,10 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>489</v>
       </c>
       <c r="H94" s="9" t="n">
         <v>9</v>
@@ -7520,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>11804</v>
@@ -7533,10 +7525,10 @@
         <v>21353</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H101" s="9" t="n">
         <v>0</v>
@@ -7547,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3471</v>
@@ -7557,21 +7549,21 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1606</v>
@@ -7581,21 +7573,21 @@
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H103" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2665</v>
@@ -7605,21 +7597,21 @@
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H104" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>57</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>1807</v>
@@ -7629,46 +7621,46 @@
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H105" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
       <c r="F106" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H106" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
       <c r="F107" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H107" s="9" t="n">
         <v>9</v>
@@ -7695,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>22115</v>
@@ -7708,21 +7700,21 @@
         <v>27778</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
         <v>62</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1653</v>
@@ -7732,21 +7724,21 @@
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H113" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>1414</v>
@@ -7756,21 +7748,21 @@
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H114" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
         <v>84</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>760</v>
@@ -7780,21 +7772,21 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="G115" s="11" t="s">
-        <v>512</v>
-      </c>
       <c r="H115" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>1836</v>
@@ -7804,10 +7796,10 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>515</v>
       </c>
       <c r="H116" s="9" t="n">
         <v>9</v>
@@ -7815,16 +7807,16 @@
     </row>
     <row r="117" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
       <c r="F117" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H117" s="9" t="n">
         <v>0</v>
@@ -7855,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>14836</v>
@@ -7868,21 +7860,21 @@
         <v>18153</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H123" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="n">
         <v>78</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>922</v>
@@ -7892,21 +7884,21 @@
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H124" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="n">
         <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>682</v>
@@ -7915,21 +7907,21 @@
         <v>18299</v>
       </c>
       <c r="F125" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="G125" s="11" t="s">
-        <v>524</v>
-      </c>
       <c r="H125" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="n">
         <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>1713</v>
@@ -7938,24 +7930,24 @@
         <v>30722</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G126" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="H126" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="H126" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="9" t="s">
+      <c r="F127" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="H127" s="9" t="n">
         <v>0</v>
@@ -7981,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>13039</v>
@@ -7994,21 +7986,21 @@
         <v>15283</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H131" s="9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="n">
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>622</v>
@@ -8017,21 +8009,21 @@
         <v>16762</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H132" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="20.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="n">
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>923</v>
@@ -8040,21 +8032,21 @@
         <v>24836</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H133" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="n">
         <v>86</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>699</v>
@@ -8063,10 +8055,10 @@
         <v>18827</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H134" s="9" t="n">
         <v>9</v>
@@ -8085,7 +8077,7 @@
         <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>2371</v>
@@ -8098,10 +8090,10 @@
         <v>2371</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H139" s="9" t="n">
         <v>0</v>
@@ -8117,7 +8109,7 @@
         <v>98</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>335</v>
@@ -8130,10 +8122,10 @@
         <v>335</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H141" s="9" t="n">
         <v>0</v>
@@ -8149,7 +8141,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C143" s="24" t="n">
         <v>212</v>
@@ -8162,7 +8154,7 @@
         <v>212</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="9"/>
@@ -8178,7 +8170,7 @@
         <v>100</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>51</v>
@@ -8187,10 +8179,10 @@
         <v>2745</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>241</v>
+        <v>541</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H145" s="9" t="n">
         <v>0</v>
@@ -8213,7 +8205,7 @@
         <v>101</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="6" t="n">
@@ -9461,14 +9453,7 @@
       <c r="C397" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H149">
-    <filterColumn colId="7">
-      <filters>
-        <filter val=""/>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H149"/>
   <mergeCells count="1">
     <mergeCell ref="I1:L5"/>
   </mergeCells>
@@ -9490,8 +9475,8 @@
   </sheetPr>
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9501,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9536,13 +9521,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -9554,13 +9539,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9572,13 +9557,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -9590,13 +9575,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9604,13 +9589,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>23</v>
@@ -9621,13 +9606,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>27</v>
@@ -9638,13 +9623,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9652,13 +9637,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9666,13 +9651,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9680,13 +9665,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9694,13 +9679,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9708,13 +9693,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9722,13 +9707,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9736,13 +9721,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9750,13 +9735,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9764,13 +9749,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,13 +9763,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9792,13 +9777,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,13 +9791,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9820,64 +9805,64 @@
         <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -9888,81 +9873,81 @@
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10335,13 +10320,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10352,13 +10337,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>551</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -10370,13 +10355,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10388,13 +10373,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10406,13 +10391,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10424,13 +10409,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>561</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -10441,16 +10426,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10458,13 +10443,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10472,13 +10457,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>569</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10486,13 +10471,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>571</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10500,13 +10485,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>573</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10514,13 +10499,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10528,13 +10513,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>578</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10542,13 +10527,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>580</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10556,13 +10541,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,13 +10555,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>585</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10584,13 +10569,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,13 +10583,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10615,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>1</v>
@@ -10629,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>2</v>
@@ -10643,7 +10628,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>12</v>
@@ -10657,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>4</v>
@@ -10671,7 +10656,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D23" s="8" t="n">
         <v>14</v>
@@ -10685,7 +10670,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>24</v>
@@ -10699,7 +10684,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D25" s="8" t="n">
         <v>124</v>
@@ -10713,7 +10698,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D26" s="8" t="n">
         <v>8</v>
@@ -10727,7 +10712,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D27" s="8" t="n">
         <v>18</v>
@@ -10741,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D28" s="8" t="n">
         <v>28</v>
@@ -10752,10 +10737,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>48</v>
@@ -10766,10 +10751,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D30" s="8" t="n">
         <v>248</v>
@@ -10780,10 +10765,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D31" s="8" t="n">
         <v>1248</v>
@@ -10794,13 +10779,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,13 +10793,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10822,13 +10807,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10836,13 +10821,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10850,13 +10835,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,13 +10849,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10878,13 +10863,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10892,13 +10877,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10906,13 +10891,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -10947,13 +10932,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -10964,13 +10949,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -10982,13 +10967,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11000,13 +10985,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11018,13 +11003,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11036,13 +11021,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -11053,16 +11038,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11070,13 +11055,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11084,13 +11069,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11098,13 +11083,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11112,13 +11097,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11126,13 +11111,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11140,13 +11125,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,13 +11139,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11168,10 +11153,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>1</v>
@@ -11182,10 +11167,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>2</v>
@@ -11196,10 +11181,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>4</v>
@@ -11210,10 +11195,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>8</v>
@@ -11368,13 +11353,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -11385,10 +11370,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -11403,13 +11388,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>650</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11421,13 +11406,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>652</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11439,13 +11424,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>654</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11457,13 +11442,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>656</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>23</v>
@@ -11474,16 +11459,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>658</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11491,13 +11476,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>660</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11505,13 +11490,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>662</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11519,13 +11504,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>664</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11533,13 +11518,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>666</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11547,13 +11532,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>668</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,13 +11546,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11575,13 +11560,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11589,13 +11574,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11603,13 +11588,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11617,10 +11602,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="8" t="n">
         <v>1</v>
@@ -11631,10 +11616,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D18" s="8" t="n">
         <v>2</v>
@@ -11643,10 +11628,10 @@
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>4</v>
@@ -11655,10 +11640,10 @@
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>8</v>
@@ -11667,46 +11652,46 @@
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D24" s="8" t="n">
         <v>4</v>
@@ -11810,49 +11795,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="31" t="n">
         <v>48182</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D1" s="31" t="n">
         <v>76536</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F1" s="31" t="n">
         <v>49932</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1" s="31" t="n">
         <v>40447</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J1" s="31" t="n">
         <v>22115</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L1" s="31" t="n">
         <v>11804</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N1" s="31" t="n">
         <v>13039</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P1" s="31" t="n">
         <v>14836</v>
@@ -11864,31 +11849,31 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="31" t="n">
         <v>3068</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D2" s="31" t="n">
         <v>3654</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F2" s="31" t="n">
         <v>8047</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H2" s="31" t="n">
         <v>5080</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>1653</v>
@@ -11896,7 +11881,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="O2" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P2" s="34" t="n">
         <v>922</v>
@@ -11908,25 +11893,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>4494</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="31" t="n">
         <v>9615</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F3" s="31" t="n">
         <v>1670</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H3" s="31" t="n">
         <v>2677</v>
@@ -11934,7 +11919,7 @@
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L3" s="31" t="n">
         <v>3471</v>
@@ -11948,25 +11933,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>4616</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D4" s="31" t="n">
         <v>7956</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="31" t="n">
         <v>2414</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H4" s="31" t="n">
         <v>2641</v>
@@ -11974,7 +11959,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L4" s="31" t="n">
         <v>1606</v>
@@ -11988,25 +11973,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="31" t="n">
         <v>5281</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="31" t="n">
         <v>2017</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" s="31" t="n">
         <v>3554</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H5" s="31" t="n">
         <v>2825</v>
@@ -12024,25 +12009,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="31" t="n">
         <v>2715</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="31" t="n">
         <v>3419</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="34" t="n">
         <v>814</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H6" s="31" t="n">
         <v>2592</v>
@@ -12050,13 +12035,13 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L6" s="31" t="n">
         <v>2665</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N6" s="34" t="n">
         <v>622</v>
@@ -12070,25 +12055,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="31" t="n">
         <v>1536</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" s="31" t="n">
         <v>1416</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F7" s="31" t="n">
         <v>7029</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H7" s="31" t="n">
         <v>4025</v>
@@ -12100,7 +12085,7 @@
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
       <c r="O7" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P7" s="31" t="n">
         <v>1713</v>
@@ -12112,13 +12097,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" s="31" t="n">
         <v>4966</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="31" t="n">
         <v>2295</v>
@@ -12126,13 +12111,13 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H8" s="31" t="n">
         <v>2126</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J8" s="31" t="n">
         <v>1414</v>
@@ -12142,7 +12127,7 @@
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P8" s="34" t="n">
         <v>682</v>
@@ -12154,25 +12139,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="31" t="n">
         <v>6068</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" s="31" t="n">
         <v>2439</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F9" s="31" t="n">
         <v>2122</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>494</v>
@@ -12190,25 +12175,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="31" t="n">
         <v>1311</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D10" s="31" t="n">
         <v>3163</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="31" t="n">
         <v>4238</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H10" s="31" t="n">
         <v>3583</v>
@@ -12226,7 +12211,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="31" t="n">
         <v>7591</v>
@@ -12250,19 +12235,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" s="31" t="n">
         <v>1224</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F12" s="31" t="n">
         <v>3905</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H12" s="31" t="n">
         <v>1686</v>
@@ -12272,7 +12257,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N12" s="34" t="n">
         <v>699</v>
@@ -12284,19 +12269,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13" s="34" t="n">
         <v>674</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F13" s="31" t="n">
         <v>1320</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H13" s="31" t="n">
         <v>3369</v>
@@ -12304,7 +12289,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L13" s="31" t="n">
         <v>1807</v>
@@ -12318,25 +12303,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="31" t="n">
         <v>2847</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" s="31" t="n">
         <v>2178</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F14" s="31" t="n">
         <v>3749</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H14" s="31" t="n">
         <v>2223</v>
@@ -12350,31 +12335,31 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>594</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F15" s="31" t="n">
         <v>1001</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>679</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J15" s="31" t="n">
         <v>1836</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N15" s="34" t="n">
         <v>923</v>
@@ -12392,19 +12377,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="31" t="n">
         <v>1421</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="31" t="n">
         <v>2759</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F17" s="34" t="n">
         <v>794</v>
@@ -12416,19 +12401,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" s="34" t="n">
         <v>869</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D18" s="31" t="n">
         <v>1006</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F18" s="31" t="n">
         <v>3075</v>
@@ -12440,25 +12425,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="31" t="n">
         <v>1350</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="31" t="n">
         <v>1023</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" s="31" t="n">
         <v>2213</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H19" s="31" t="n">
         <v>1085</v>
@@ -12476,7 +12461,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>2848</v>
@@ -12494,13 +12479,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="34" t="n">
         <v>629</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" s="31" t="n">
         <v>1101</v>
@@ -12512,7 +12497,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F24" s="6" t="n">
         <v>2780</v>
@@ -12524,7 +12509,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>2170</v>
@@ -12536,7 +12521,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>2065</v>
@@ -12548,7 +12533,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>1991</v>
@@ -12560,7 +12545,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>1696</v>
@@ -12572,13 +12557,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>528</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J29" s="4" t="n">
         <v>760</v>
@@ -12590,7 +12575,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>921</v>
@@ -12602,7 +12587,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>833</v>
@@ -12614,7 +12599,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>725</v>
@@ -12626,7 +12611,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D33" s="36" t="n">
         <v>665</v>
@@ -12638,7 +12623,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B34" s="36" t="n">
         <v>633</v>
@@ -12650,7 +12635,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H35" s="36" t="n">
         <v>522</v>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -17,10 +17,10 @@
     <sheet name="Свободные аккорды" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$F$87</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$E$90</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право!$A$1:$F$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$E$90</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$F$87</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право!$A$1:$E$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="560">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -1703,6 +1703,9 @@
   <si>
     <t xml:space="preserve">#:#:
 #:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сч</t>
   </si>
   <si>
     <t xml:space="preserve">#:#:
@@ -2093,7 +2096,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2132,10 +2135,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2181,7 +2180,7 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
@@ -3432,7 +3431,7 @@
       <c r="C90" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F87"/>
+  <autoFilter ref="A1:E90"/>
   <mergeCells count="1">
     <mergeCell ref="G1:J5"/>
   </mergeCells>
@@ -3454,7 +3453,7 @@
   </sheetPr>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
@@ -3857,7 +3856,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -4229,10 +4228,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B40" s="2" t="n">
         <v>5940</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -4645,1084 +4644,1084 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="12"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="12"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="12"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="12"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="12"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="12"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="12"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12"/>
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="12"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="12"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="12"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="12"/>
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12"/>
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="12"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="12"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="12"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12"/>
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="12"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="12"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="12"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="12"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="12"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12"/>
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="12"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="12"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12"/>
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12"/>
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12"/>
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="12"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="12"/>
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="12"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="12"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="12"/>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="12"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="12"/>
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="12"/>
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12"/>
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="12"/>
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12"/>
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12"/>
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="12"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="12"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12"/>
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12"/>
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12"/>
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="12"/>
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="11"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12"/>
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12"/>
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="11"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12"/>
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12"/>
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12"/>
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12"/>
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12"/>
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12"/>
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12"/>
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="11"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12"/>
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="11"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12"/>
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12"/>
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="12"/>
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="12"/>
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="11"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12"/>
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="12"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="11"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12"/>
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12"/>
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="12"/>
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12"/>
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="11"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12"/>
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="11"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12"/>
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="12"/>
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="12"/>
+      <c r="A276" s="10"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="11"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="12"/>
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="12"/>
+      <c r="A278" s="10"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="11"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="12"/>
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12"/>
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12"/>
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="11"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12"/>
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="11"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12"/>
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="11"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12"/>
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="11"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12"/>
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12"/>
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="11"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="11"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12"/>
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="11"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="11"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12"/>
+      <c r="A294" s="10"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F61"/>
@@ -5747,7 +5746,7 @@
   </sheetPr>
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -6582,7 +6581,7 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -7163,7 +7162,7 @@
       <c r="A40" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>415</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -7194,7 +7193,7 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7615,7 +7614,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -8061,10 +8060,10 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8151,22 +8150,25 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>486</v>
+      </c>
       <c r="B7" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>483</v>
@@ -8174,85 +8176,85 @@
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>275</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>76</v>
@@ -8260,16 +8262,16 @@
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,46 +8279,46 @@
         <v>315</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>172</v>
@@ -8324,7 +8326,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>115</v>
@@ -8335,32 +8337,32 @@
         <v>214</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>250</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>94</v>
@@ -8368,10 +8370,10 @@
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>14</v>
@@ -8379,13 +8381,13 @@
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>17</v>
@@ -8396,65 +8398,65 @@
         <v>304</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>311</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>199</v>
@@ -8462,51 +8464,51 @@
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="618">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2170,6 +2170,9 @@
   </si>
   <si>
     <t xml:space="preserve">бл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ял</t>
   </si>
   <si>
     <t xml:space="preserve">бн</t>
@@ -3339,7 +3342,7 @@
       <c r="A90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87"/>
+  <autoFilter ref="A1:C90"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -5867,7 +5870,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -6191,7 +6194,7 @@
       <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7211,8 +7214,8 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7717,10 +7720,13 @@
       <c r="A46" s="0" t="s">
         <v>615</v>
       </c>
+      <c r="E46" s="0" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="621">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2176,6 +2176,15 @@
   </si>
   <si>
     <t xml:space="preserve">бн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">одн</t>
   </si>
 </sst>
 </file>
@@ -3342,7 +3351,7 @@
       <c r="A90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C90"/>
+  <autoFilter ref="A1:D87"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -5870,7 +5879,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -7212,10 +7221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7727,6 +7736,21 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>617</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="630">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -1845,7 +1845,55 @@
     <t xml:space="preserve">С1</t>
   </si>
   <si>
+    <t xml:space="preserve">спр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">их</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:#::</t>
+  </si>
+  <si>
     <t xml:space="preserve">св</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сказ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:##:</t>
   </si>
   <si>
     <t xml:space="preserve">ему</t>
@@ -1855,7 +1903,21 @@
 :#::</t>
   </si>
   <si>
-    <t xml:space="preserve">сам</t>
+    <t xml:space="preserve">говор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:::#</t>
   </si>
   <si>
     <t xml:space="preserve">ит</t>
@@ -1865,326 +1927,296 @@
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">сказ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть</t>
+    <t xml:space="preserve">вст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">буд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сн</t>
   </si>
   <si>
     <t xml:space="preserve">##::
 :::#</t>
   </si>
   <si>
-    <t xml:space="preserve">сн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">их</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сп</t>
+    <t xml:space="preserve">ения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">челов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аю</t>
   </si>
   <si>
     <t xml:space="preserve">#:#:
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">ас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">спр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ила</t>
+    <t xml:space="preserve">пл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ило</t>
   </si>
   <si>
     <t xml:space="preserve">#:::
 ##::</t>
   </si>
   <si>
-    <t xml:space="preserve">еще</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чк</t>
+    <t xml:space="preserve">одн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скольк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ял</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорош</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иль</t>
   </si>
   <si>
     <t xml:space="preserve">#:::
 #::#</t>
   </si>
   <si>
-    <t xml:space="preserve">говор</t>
+    <t xml:space="preserve">чк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ите</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ои</t>
+  </si>
+  <si>
+    <t xml:space="preserve">встр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ае</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бн</t>
   </si>
   <si>
     <t xml:space="preserve">:##:
 :::#</t>
   </si>
   <si>
-    <t xml:space="preserve">ели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">каз</t>
+    <t xml:space="preserve">ете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скр</t>
   </si>
   <si>
     <t xml:space="preserve">:#:#
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">ость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ои</t>
-  </si>
-  <si>
-    <t xml:space="preserve">буд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ому</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ез</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
+    <t xml:space="preserve">аете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:##
 #:::</t>
   </si>
   <si>
-    <t xml:space="preserve">::##
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ае</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ар</t>
+    <t xml:space="preserve">сх</t>
   </si>
   <si>
     <t xml:space="preserve">:::#
 #:#:</t>
   </si>
   <si>
-    <t xml:space="preserve">ии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дел</t>
+    <t xml:space="preserve">ают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:#:</t>
   </si>
   <si>
     <t xml:space="preserve">###:
 :#::</t>
   </si>
   <si>
-    <t xml:space="preserve">:###
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">человек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ило</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хорош</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ис</t>
+    <t xml:space="preserve">:##
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+##::</t>
   </si>
   <si>
     <t xml:space="preserve">:##:
 ::##</t>
   </si>
   <si>
-    <t xml:space="preserve">ите</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скольк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-##::</t>
+    <t xml:space="preserve">ии</t>
   </si>
   <si>
     <t xml:space="preserve">#::#
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">#:#:
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">иль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ял</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">одн</t>
+    <t xml:space="preserve">ис</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2291,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2270,6 +2302,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -2322,7 +2366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2363,6 +2407,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2372,6 +2424,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2395,9 +2507,9 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F60" activeCellId="0" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="1" sqref="B23 A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3376,7 +3488,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="B23 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4947,7 +5059,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="1" sqref="B23 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5904,7 +6016,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="1" sqref="B23 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6200,7 +6312,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="1" sqref="B23 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6513,7 +6625,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B23 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6665,7 +6777,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="C44" activeCellId="1" sqref="B23 C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7221,10 +7333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7244,513 +7356,512 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="10" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="0" t="s">
         <v>521</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>522</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="10" t="s">
         <v>523</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>524</v>
       </c>
+      <c r="E3" s="10" t="s">
+        <v>525</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="B5" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F5" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E6" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="E8" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E7" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F9" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E11" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F11" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="B12" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="F12" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="F14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E15" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E17" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>561</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>562</v>
+      <c r="A18" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>564</v>
+        <v>340</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>566</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>561</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="B21" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="F24" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E23" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="F26" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
         <v>301</v>
       </c>
+      <c r="E27" s="10" t="s">
+        <v>575</v>
+      </c>
       <c r="F27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B30" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="B32" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E30" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="E33" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="B35" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="E35" s="10" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="F35" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B32" s="5" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="B36" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="F36" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="F38" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F33" s="5" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B39" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="F34" s="5" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B41" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="E41" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>620</v>
+      <c r="E57" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1960,137 +1960,137 @@
     <t xml:space="preserve">сн</t>
   </si>
   <si>
+    <t xml:space="preserve">ения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вш</t>
+  </si>
+  <si>
     <t xml:space="preserve">##::
 :::#</t>
   </si>
   <si>
-    <t xml:space="preserve">ения</t>
+    <t xml:space="preserve">ость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть</t>
   </si>
   <si>
     <t xml:space="preserve">###:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">пер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">челов</t>
+    <t xml:space="preserve">пл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ило</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">одн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скольк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ял</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорош</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уть</t>
   </si>
   <si>
     <t xml:space="preserve">:#::
 :###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ср</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">каз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ез</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ило</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">одн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скольк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ял</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хорош</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уть</t>
   </si>
   <si>
     <t xml:space="preserve">кн</t>
@@ -2291,7 +2291,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2308,6 +2308,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2366,7 +2372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2411,7 +2417,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2509,7 +2519,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="1" sqref="B23 A62"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3463,7 +3473,7 @@
       <c r="A90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87"/>
+  <autoFilter ref="A1:C90"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -3488,7 +3498,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="B23 B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5059,7 +5069,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D35" activeCellId="1" sqref="B23 D35"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5991,7 +6001,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -6016,7 +6026,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F6" activeCellId="1" sqref="B23 F6"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6312,7 +6322,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="1" sqref="B23 B15"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6625,7 +6635,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B23 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6777,7 +6787,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C44" activeCellId="1" sqref="B23 C44"/>
+      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7335,8 +7345,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7499,25 +7509,25 @@
       <c r="A17" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>330</v>
@@ -7525,13 +7535,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>561</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>170</v>
@@ -7539,27 +7549,27 @@
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -7567,41 +7577,41 @@
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="E24" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>301</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>113</v>
@@ -7609,13 +7619,13 @@
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>527</v>
@@ -7623,41 +7633,41 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="E33" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>587</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>521</v>
@@ -7665,30 +7675,30 @@
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="E35" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,7 +7740,7 @@
         <v>602</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,6 +7834,9 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5" t="s">
+        <v>593</v>
+      </c>
       <c r="F55" s="5" t="s">
         <v>356</v>
       </c>
@@ -7837,7 +7850,7 @@
       <c r="B57" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="12" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7846,12 +7859,7 @@
         <v>628</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="5" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7860,7 +7868,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>629</v>
       </c>
     </row>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -2016,6 +2016,10 @@
     <t xml:space="preserve">сам</t>
   </si>
   <si>
+    <t xml:space="preserve">::##
+#:::</t>
+  </si>
+  <si>
     <t xml:space="preserve">аю</t>
   </si>
   <si>
@@ -2131,10 +2135,6 @@
   </si>
   <si>
     <t xml:space="preserve">ае</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-#:::</t>
   </si>
   <si>
     <t xml:space="preserve">бн</t>
@@ -3473,7 +3473,7 @@
       <c r="A90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C90"/>
+  <autoFilter ref="A1:D87"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -6001,7 +6001,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -7345,8 +7345,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7594,24 +7594,24 @@
         <v>570</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>131</v>
+        <v>571</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>301</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>113</v>
@@ -7619,13 +7619,13 @@
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>527</v>
@@ -7633,41 +7633,41 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>521</v>
@@ -7675,69 +7675,69 @@
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>336</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>285</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>567</v>
@@ -7745,16 +7745,16 @@
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7835,7 @@
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>356</v>
@@ -7859,7 +7859,7 @@
         <v>628</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$87</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$90</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="695">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -47,6 +47,876 @@
   </si>
   <si>
     <t xml:space="preserve">Уровень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для левой половины клавиатуры в режиме ввода двумя руками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорош</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расположение клавиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТ
+ДБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">он</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">буд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВДБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">св</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">говор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">одн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">так</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скольк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">з</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сказ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">др</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">был</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">котор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">встр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сдел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СДПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:##
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТД</t>
   </si>
   <si>
     <t xml:space="preserve">-т</t>
@@ -59,196 +929,6 @@
     <t xml:space="preserve">ТДБП</t>
   </si>
   <si>
-    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для левой половины клавиатуры в режиме ввода двумя руками.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">был</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-####</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расположение клавиш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВКТ
-ДБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">д</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">др</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-##:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТД</t>
-  </si>
-  <si>
     <t xml:space="preserve">жн</t>
   </si>
   <si>
@@ -259,284 +939,21 @@
     <t xml:space="preserve">ТДН</t>
   </si>
   <si>
-    <t xml:space="preserve">з</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">из</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">к</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">как</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">котор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">об</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">он</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:##
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">т</t>
+    <t xml:space="preserve">жд</t>
   </si>
   <si>
     <t xml:space="preserve">:::#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Т</t>
-  </si>
-  <si>
-    <t xml:space="preserve">так</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКТБ</t>
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+#:#:</t>
   </si>
   <si>
     <t xml:space="preserve">тн</t>
@@ -549,36 +966,6 @@
     <t xml:space="preserve">ТН</t>
   </si>
   <si>
-    <t xml:space="preserve">тр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КД</t>
-  </si>
-  <si>
     <t xml:space="preserve">ц</t>
   </si>
   <si>
@@ -589,101 +976,79 @@
     <t xml:space="preserve">ТП</t>
   </si>
   <si>
-    <t xml:space="preserve">ч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">щ</t>
+    <t xml:space="preserve">пер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для правой половины клавиатуры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ае</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАИ
+ЫУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">али</t>
   </si>
   <si>
     <t xml:space="preserve">::#:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ъ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">эт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для правой половины клавиатуры.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ает</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АИ</t>
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫУ</t>
   </si>
   <si>
     <t xml:space="preserve">ала</t>
@@ -696,42 +1061,10 @@
     <t xml:space="preserve">АЫУЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">али</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОАИ
-ЫУЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АУЯ</t>
+    <t xml:space="preserve">ает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ая</t>
@@ -744,10 +1077,102 @@
     <t xml:space="preserve">АЫЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">е</t>
   </si>
   <si>
     <t xml:space="preserve">Е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">их</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:##
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИ</t>
   </si>
   <si>
     <t xml:space="preserve">ё</t>
@@ -760,10 +1185,26 @@
     <t xml:space="preserve">ЕИУ</t>
   </si>
   <si>
-    <t xml:space="preserve">его</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕУ</t>
+    <t xml:space="preserve">ех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОА</t>
   </si>
   <si>
     <t xml:space="preserve">ед</t>
@@ -772,44 +1213,50 @@
     <t xml:space="preserve">ЕОАИ</t>
   </si>
   <si>
-    <t xml:space="preserve">ее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
+    <t xml:space="preserve">ания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
 #:::</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕЫ</t>
+    <t xml:space="preserve">ЕОАЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ему</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОУ</t>
   </si>
   <si>
     <t xml:space="preserve">ер</t>
@@ -822,173 +1269,46 @@
     <t xml:space="preserve">ЕОЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">и</t>
-  </si>
-  <si>
-    <t xml:space="preserve">И</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">или</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">им</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о</t>
-  </si>
-  <si>
-    <t xml:space="preserve">О</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">од</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">от</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЯ</t>
+    <t xml:space="preserve">ения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ите</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">его</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕУЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ую</t>
@@ -1018,86 +1338,345 @@
     <t xml:space="preserve">ЕУЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ило</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ял</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">или</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">им</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">о</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">од</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ои</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">э</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ы</t>
   </si>
   <si>
     <t xml:space="preserve">Ы</t>
   </si>
   <si>
+    <t xml:space="preserve">ыл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ые</t>
   </si>
   <si>
     <t xml:space="preserve">ЫУЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ый</t>
   </si>
   <si>
-    <t xml:space="preserve">::::
-#:#:</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЫЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ыл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ым</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫЬ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ыть</t>
   </si>
   <si>
-    <t xml:space="preserve">::::
-#:##</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЫЯЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">ых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУЬ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ь</t>
   </si>
   <si>
     <t xml:space="preserve">Ь</t>
   </si>
   <si>
-    <t xml:space="preserve">э</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">я</t>
   </si>
   <si>
     <t xml:space="preserve">Я</t>
   </si>
   <si>
-    <t xml:space="preserve">яй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЯЬ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ять</t>
   </si>
   <si>
@@ -1113,19 +1692,6 @@
     <t xml:space="preserve">В этой таблице приведены аккорды для ввода букв и символов в режиме ввода одной рукой на левой половине клавиатуры.</t>
   </si>
   <si>
-    <t xml:space="preserve">ВТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:#:#</t>
-  </si>
-  <si>
     <t xml:space="preserve">СБН</t>
   </si>
   <si>
@@ -1141,24 +1707,10 @@
     <t xml:space="preserve">?</t>
   </si>
   <si>
-    <t xml:space="preserve">::#:
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПН</t>
-  </si>
-  <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
     <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТПН</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
@@ -1242,9 +1794,6 @@
   </si>
   <si>
     <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДПН</t>
   </si>
   <si>
     <t xml:space="preserve">Символ</t>
@@ -1575,9 +2124,6 @@
 :::: :</t>
   </si>
   <si>
-    <t xml:space="preserve">СД</t>
-  </si>
-  <si>
     <t xml:space="preserve">F2</t>
   </si>
   <si>
@@ -1843,354 +2389,6 @@
   </si>
   <si>
     <t xml:space="preserve">С1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">спр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">их</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">св</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сказ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ему</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">говор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">раз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ила</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">буд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ому</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ср</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">каз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ез</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ило</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">одн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скольк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ял</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хорош</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">иль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ите</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ои</t>
-  </si>
-  <si>
-    <t xml:space="preserve">встр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ае</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:##
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ают</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#:#:</t>
   </si>
   <si>
     <t xml:space="preserve">###:
@@ -2291,7 +2489,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2302,18 +2500,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2401,7 +2587,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2417,14 +2611,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2434,66 +2620,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2514,12 +2640,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2552,8 +2678,8 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -2591,8 +2717,8 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2618,7 +2744,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2628,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2644,8 +2770,8 @@
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -2666,7 +2792,7 @@
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2"/>
@@ -2718,7 +2844,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2727,8 +2853,8 @@
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2872,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2755,12 +2881,12 @@
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2770,7 +2896,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +2914,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2797,12 +2923,12 @@
       <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>1</v>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2811,12 +2937,12 @@
       <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2825,12 +2951,12 @@
       <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>1</v>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2840,7 +2966,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,8 +2993,8 @@
       <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +3012,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2895,12 +3021,12 @@
       <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2910,7 +3036,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,8 +3049,8 @@
       <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,8 +3063,8 @@
       <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +3082,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2965,12 +3091,12 @@
       <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
+      <c r="D29" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2979,8 +3105,8 @@
       <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3124,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3008,7 +3134,7 @@
         <v>99</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,12 +3147,12 @@
       <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3035,12 +3161,12 @@
       <c r="C34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>1</v>
+      <c r="D34" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3050,7 +3176,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,8 +3189,8 @@
       <c r="C36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>1</v>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,8 +3217,8 @@
       <c r="C38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
+      <c r="D38" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,8 +3245,8 @@
       <c r="C40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
+      <c r="D40" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,11 +3260,11 @@
         <v>126</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3147,12 +3273,12 @@
       <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>1</v>
+      <c r="D42" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3161,8 +3287,8 @@
       <c r="C43" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
+      <c r="D43" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,8 +3301,8 @@
       <c r="C44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>1</v>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,8 +3315,8 @@
       <c r="C45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
+      <c r="D45" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,8 +3357,8 @@
       <c r="C48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3372,7 @@
         <v>150</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,8 +3399,8 @@
       <c r="C51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>1</v>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,11 +3414,11 @@
         <v>159</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3301,8 +3427,8 @@
       <c r="C53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>0</v>
+      <c r="D53" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,12 +3441,12 @@
       <c r="C54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3330,7 +3456,7 @@
         <v>168</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3474,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3357,8 +3483,8 @@
       <c r="C57" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>1</v>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,8 +3497,8 @@
       <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>0</v>
+      <c r="D58" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,11 +3512,11 @@
         <v>180</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3414,66 +3540,474 @@
       <c r="C61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="5"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87"/>
+  <autoFilter ref="A1:C83"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -3493,12 +4027,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3523,19 +4057,19 @@
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>188</v>
+        <v>285</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -3543,13 +4077,13 @@
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>191</v>
+        <v>288</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>1</v>
@@ -3560,17 +4094,17 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
+      <c r="A4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3578,17 +4112,17 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
+      <c r="A5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3597,13 +4131,13 @@
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>198</v>
+        <v>294</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>1</v>
@@ -3613,17 +4147,17 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
+      <c r="A7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -3633,35 +4167,35 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>203</v>
+        <v>298</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>204</v>
+      <c r="E8" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>206</v>
+        <v>301</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3669,27 +4203,27 @@
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>210</v>
+        <v>306</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
@@ -3697,13 +4231,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>213</v>
+        <v>309</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
@@ -3711,27 +4245,27 @@
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>215</v>
+        <v>311</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>218</v>
+        <v>314</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -3739,13 +4273,13 @@
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>220</v>
+        <v>316</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>1</v>
@@ -3753,195 +4287,195 @@
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>222</v>
+        <v>318</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>224</v>
+        <v>320</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
+      <c r="A18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1</v>
+      <c r="A19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="C24" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
+      <c r="C25" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>245</v>
+        <v>343</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>248</v>
+        <v>345</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>250</v>
+        <v>348</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>252</v>
+        <v>351</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>1</v>
@@ -3949,13 +4483,13 @@
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>255</v>
+        <v>353</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>1</v>
@@ -3963,181 +4497,181 @@
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>257</v>
+        <v>355</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
+      <c r="A32" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>0</v>
+      <c r="A33" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>1</v>
+      <c r="A34" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>265</v>
+        <v>366</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1</v>
+      <c r="A36" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>270</v>
+        <v>371</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
+      <c r="A38" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
+      <c r="A39" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>0</v>
+      <c r="A40" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>280</v>
+        <v>382</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1</v>
+      <c r="A42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>283</v>
+        <v>387</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>1</v>
@@ -4145,83 +4679,83 @@
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>286</v>
+        <v>390</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0</v>
+      <c r="A45" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>0</v>
+      <c r="A46" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1</v>
+      <c r="A47" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>1</v>
+      <c r="A48" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>297</v>
+      <c r="A49" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0</v>
@@ -4229,69 +4763,69 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>299</v>
+        <v>406</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>0</v>
+      <c r="A51" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>304</v>
+        <v>410</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>306</v>
+        <v>412</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>309</v>
+        <v>414</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>1</v>
@@ -4299,13 +4833,13 @@
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>311</v>
+        <v>417</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>1</v>
@@ -4313,27 +4847,27 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>313</v>
+        <v>419</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>315</v>
+        <v>421</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0</v>
@@ -4341,710 +4875,1090 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>317</v>
+        <v>423</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>319</v>
+        <v>425</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>321</v>
+      <c r="A60" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B61" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
+      <c r="C88" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
+      <c r="A96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
+      <c r="A97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
+      <c r="A98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
+      <c r="A99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
+      <c r="A103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
+      <c r="A105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
+      <c r="A106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
+      <c r="A107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
+      <c r="A108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
+      <c r="A113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
+      <c r="A114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
+      <c r="A115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
+      <c r="A116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
+      <c r="A117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
+      <c r="A124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
+      <c r="A125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
+      <c r="A134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
+      <c r="A135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
+      <c r="A136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
+      <c r="A139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
+      <c r="A140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
+      <c r="A141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
+      <c r="A142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
+      <c r="A143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
+      <c r="A144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
+      <c r="A145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
+      <c r="A146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
+      <c r="A147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
+      <c r="A148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
+      <c r="A149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
+      <c r="A153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
+      <c r="A154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
+      <c r="A155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
+      <c r="A156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
+      <c r="A157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
+      <c r="A158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
+      <c r="A159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
+      <c r="A160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
+      <c r="A162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
+      <c r="A163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
+      <c r="A164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
+      <c r="A166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
+      <c r="A167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
+      <c r="A168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
+      <c r="A169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
+      <c r="A170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
+      <c r="A171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
+      <c r="A172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
+      <c r="A173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
+      <c r="A174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
+      <c r="A175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
+      <c r="A176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
+      <c r="A177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
+      <c r="A178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
+      <c r="A179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
+      <c r="A180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
+      <c r="A181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
+      <c r="A182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
+      <c r="A183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
+      <c r="A184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
+      <c r="A185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
+      <c r="A186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
+      <c r="A187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
+      <c r="A188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
+      <c r="A189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
+      <c r="A190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
+      <c r="A191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
+      <c r="A192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
+      <c r="A193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
+      <c r="A194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
+      <c r="A195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
+      <c r="A196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
+      <c r="A197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
+      <c r="A198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
+      <c r="A199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
+      <c r="A200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
+      <c r="A201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
+      <c r="A202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
+      <c r="A203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
+      <c r="A204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
+      <c r="A205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
+      <c r="A206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
+      <c r="A207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
+      <c r="A208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
+      <c r="A209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
+      <c r="A210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
+      <c r="A211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
+      <c r="A212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
+      <c r="A213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
+      <c r="A214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
+      <c r="A215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
+      <c r="A216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
+      <c r="A217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
+      <c r="A218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
+      <c r="A219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
+      <c r="A220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
+      <c r="A221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
+      <c r="A222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
+      <c r="A226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
+      <c r="A227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
+      <c r="A228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
+      <c r="A229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
+      <c r="A230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
+      <c r="A231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
+      <c r="A232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
+      <c r="A233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
+      <c r="A234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
+      <c r="A235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
+      <c r="A236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8"/>
+      <c r="A237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
+      <c r="A238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="8"/>
+      <c r="A239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="8"/>
+      <c r="A240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="8"/>
+      <c r="A241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="8"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="8"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="8"/>
+      <c r="A244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8"/>
+      <c r="A245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="8"/>
+      <c r="A246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="8"/>
+      <c r="A247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="8"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="8"/>
+      <c r="A251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="8"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="8"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="8"/>
+      <c r="A255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8"/>
+      <c r="A256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="8"/>
+      <c r="A257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="8"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="8"/>
+      <c r="A259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8"/>
+      <c r="A260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8"/>
+      <c r="A261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8"/>
+      <c r="A262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="8"/>
+      <c r="A263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="8"/>
+      <c r="A264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="8"/>
+      <c r="A265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8"/>
+      <c r="A266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="8"/>
+      <c r="A267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8"/>
+      <c r="A268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="8"/>
+      <c r="A269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8"/>
+      <c r="A270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="8"/>
+      <c r="A271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="8"/>
+      <c r="A272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="8"/>
+      <c r="A273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="8"/>
+      <c r="A274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="8"/>
+      <c r="A275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="8"/>
+      <c r="A276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="8"/>
+      <c r="A277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="8"/>
+      <c r="A278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="8"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="8"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="8"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="8"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="8"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="8"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="8"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="8"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="8"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="8"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="8"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="8"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="8"/>
+      <c r="A279" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D61"/>
+  <autoFilter ref="A1:D60"/>
   <mergeCells count="1">
     <mergeCell ref="E2:G3"/>
   </mergeCells>
@@ -5067,7 +5981,7 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
@@ -5076,10 +5990,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>502</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>503</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -5092,17 +6006,17 @@
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>326</v>
+        <v>504</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -5110,14 +6024,14 @@
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -5126,14 +6040,14 @@
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5142,14 +6056,14 @@
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5158,26 +6072,26 @@
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -5185,537 +6099,537 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="5" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>318</v>
+        <v>498</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="5" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>328</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>314</v>
+        <v>470</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
-        <v>301</v>
+        <v>128</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>312</v>
+        <v>496</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="5" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>338</v>
+        <v>510</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>342</v>
+        <v>512</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>344</v>
+        <v>514</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>345</v>
+        <v>515</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>346</v>
+        <v>516</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>351</v>
+        <v>521</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>352</v>
+        <v>522</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>353</v>
+        <v>523</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>355</v>
+        <v>525</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>356</v>
+        <v>526</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>358</v>
+        <v>528</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>361</v>
+        <v>531</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>362</v>
+        <v>532</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>364</v>
+        <v>534</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>365</v>
+        <v>535</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>366</v>
+        <v>536</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>367</v>
+        <v>537</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>369</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,7 +6915,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -6033,10 +6947,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>539</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>503</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -6051,16 +6965,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>371</v>
+        <v>540</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -6071,10 +6985,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>374</v>
+        <v>543</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2</v>
@@ -6090,7 +7004,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>12</v>
@@ -6105,10 +7019,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>377</v>
+        <v>546</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>4</v>
@@ -6124,7 +7038,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>379</v>
+        <v>548</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>14</v>
@@ -6138,16 +7052,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>380</v>
+        <v>549</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>382</v>
+      <c r="F7" s="8" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,10 +7069,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>124</v>
@@ -6170,7 +7084,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>385</v>
+        <v>554</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>8</v>
@@ -6181,10 +7095,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>386</v>
+        <v>555</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>18</v>
@@ -6196,7 +7110,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>388</v>
+        <v>557</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>28</v>
@@ -6204,11 +7118,11 @@
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>48</v>
@@ -6216,11 +7130,11 @@
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>390</v>
+        <v>559</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>248</v>
@@ -6228,11 +7142,11 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>1248</v>
@@ -6240,11 +7154,11 @@
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>392</v>
+        <v>561</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>393</v>
+        <v>562</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>148</v>
@@ -6293,8 +7207,8 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -6329,10 +7243,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>539</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>503</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -6343,32 +7257,32 @@
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>394</v>
+        <v>563</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>351</v>
+        <v>521</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>4</v>
@@ -6379,13 +7293,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>352</v>
+        <v>522</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>353</v>
+        <v>523</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>2</v>
@@ -6396,13 +7310,13 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>338</v>
+        <v>510</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>385</v>
+        <v>554</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1</v>
@@ -6413,13 +7327,13 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>84</v>
@@ -6430,30 +7344,30 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>355</v>
+        <v>525</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>395</v>
+      <c r="F7" s="8" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>342</v>
+        <v>512</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>21</v>
@@ -6461,13 +7375,13 @@
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>396</v>
+        <v>565</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>397</v>
+        <v>566</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>81</v>
@@ -6475,13 +7389,13 @@
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>344</v>
+        <v>514</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>345</v>
+        <v>515</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>379</v>
+        <v>548</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>82</v>
@@ -6489,13 +7403,13 @@
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>346</v>
+        <v>516</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>388</v>
+        <v>557</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>41</v>
@@ -6503,13 +7417,13 @@
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>358</v>
+        <v>528</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>842</v>
@@ -6517,13 +7431,13 @@
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>364</v>
+        <v>534</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>390</v>
+        <v>559</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>421</v>
@@ -6531,13 +7445,13 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>367</v>
+        <v>537</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>841</v>
@@ -6545,13 +7459,13 @@
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>365</v>
+        <v>535</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>536</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>393</v>
+        <v>562</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>821</v>
@@ -6559,13 +7473,13 @@
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>361</v>
+        <v>531</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>8421</v>
@@ -6608,8 +7522,8 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -6642,7 +7556,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -6654,16 +7568,16 @@
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>401</v>
+        <v>570</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>402</v>
+        <v>571</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>403</v>
+        <v>572</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6671,13 +7585,13 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>573</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>406</v>
+        <v>575</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6686,13 +7600,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>408</v>
+        <v>577</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>409</v>
+        <v>578</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6701,13 +7615,13 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>410</v>
+        <v>579</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>412</v>
+        <v>581</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6716,13 +7630,13 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>413</v>
+        <v>582</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>415</v>
+        <v>584</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -6730,27 +7644,27 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>416</v>
+        <v>585</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>417</v>
+        <v>586</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>587</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>420</v>
+        <v>589</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>421</v>
+        <v>590</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +7673,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
@@ -6787,14 +7701,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -6805,16 +7719,16 @@
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>423</v>
+        <v>592</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>424</v>
+        <v>593</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6822,13 +7736,13 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>427</v>
+        <v>596</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6837,13 +7751,13 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6852,13 +7766,13 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>430</v>
+        <v>599</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>431</v>
+        <v>600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6867,13 +7781,13 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -6881,244 +7795,244 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>435</v>
+        <v>604</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>436</v>
+        <v>605</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>437</v>
+        <v>606</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>438</v>
+        <v>607</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>440</v>
+        <v>609</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>441</v>
+        <v>610</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>442</v>
+        <v>611</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>443</v>
+        <v>612</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>444</v>
+        <v>613</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>328</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>446</v>
+        <v>615</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>447</v>
+        <v>616</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>448</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>449</v>
+        <v>617</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>450</v>
+        <v>618</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>452</v>
+        <v>620</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>453</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>454</v>
+        <v>622</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>455</v>
+        <v>623</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>456</v>
+        <v>624</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>457</v>
+        <v>625</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>458</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>459</v>
+        <v>627</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>460</v>
+        <v>628</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>461</v>
+        <v>629</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>462</v>
+        <v>630</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>463</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>464</v>
+        <v>632</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>465</v>
+        <v>633</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>466</v>
+        <v>634</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>468</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>470</v>
+        <v>638</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>471</v>
+        <v>639</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>473</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>474</v>
+        <v>642</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>475</v>
+        <v>643</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>477</v>
+        <v>645</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>478</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>479</v>
+        <v>647</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>480</v>
+        <v>648</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>481</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>482</v>
+        <v>650</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>484</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>485</v>
+        <v>653</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>486</v>
+        <v>654</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>1</v>
@@ -7126,10 +8040,10 @@
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>487</v>
+        <v>655</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>488</v>
+        <v>656</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>2</v>
@@ -7137,10 +8051,10 @@
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>489</v>
+        <v>657</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>4</v>
@@ -7148,10 +8062,10 @@
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>491</v>
+        <v>659</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>492</v>
+        <v>660</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>8</v>
@@ -7159,134 +8073,134 @@
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>493</v>
+        <v>661</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>494</v>
+        <v>662</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>495</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>496</v>
+        <v>664</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>497</v>
+        <v>665</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>498</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>499</v>
+        <v>667</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>500</v>
+        <v>668</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>501</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>502</v>
+        <v>670</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>503</v>
+        <v>671</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>504</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>505</v>
+        <v>673</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>401</v>
+        <v>570</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>402</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>506</v>
+        <v>674</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>406</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>507</v>
+        <v>675</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>408</v>
+        <v>577</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>409</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>508</v>
+        <v>676</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>510</v>
+        <v>678</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>511</v>
+        <v>679</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>512</v>
+        <v>680</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>513</v>
+        <v>681</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>514</v>
+        <v>682</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>515</v>
+        <v>683</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>516</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>517</v>
+        <v>685</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>518</v>
+        <v>686</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>519</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,10 +8257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7365,511 +8279,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>523</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="F5" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>537</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>524</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>540</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>542</v>
+        <v>693</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>629</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="696">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2415,6 +2415,9 @@
   </si>
   <si>
     <t xml:space="preserve">ис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скаж</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2561,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2587,15 +2590,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2744,7 +2739,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2792,7 +2787,7 @@
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2"/>
@@ -2844,7 +2839,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2872,7 +2867,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2886,7 +2881,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2914,7 +2909,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2928,7 +2923,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2942,7 +2937,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2956,7 +2951,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3012,7 +3007,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3026,7 +3021,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3082,7 +3077,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3096,7 +3091,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3124,7 +3119,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3152,7 +3147,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3166,7 +3161,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3264,7 +3259,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3278,7 +3273,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3418,7 +3413,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3446,7 +3441,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3474,7 +3469,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3629,7 +3624,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3643,10 +3638,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3657,10 +3652,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3685,7 +3680,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3699,7 +3694,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3741,7 +3736,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3755,7 +3750,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3811,7 +3806,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3839,7 +3834,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3937,7 +3932,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3951,7 +3946,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3993,7 +3988,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4007,7 +4002,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C83"/>
+  <autoFilter ref="A1:D81"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -4059,10 +4054,10 @@
       <c r="A2" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D2" s="2" t="n">
@@ -4079,10 +4074,10 @@
       <c r="A3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>289</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -4094,13 +4089,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>291</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -4112,13 +4107,13 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -4133,10 +4128,10 @@
       <c r="A6" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>295</v>
       </c>
       <c r="D6" s="2" t="n">
@@ -4147,13 +4142,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -4169,16 +4164,16 @@
       <c r="A8" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F8" s="2"/>
@@ -4188,10 +4183,10 @@
       <c r="A9" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D9" s="2" t="n">
@@ -4205,10 +4200,10 @@
       <c r="A10" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D10" s="2" t="n">
@@ -4219,10 +4214,10 @@
       <c r="A11" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="2" t="n">
@@ -4233,10 +4228,10 @@
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -4247,10 +4242,10 @@
       <c r="A13" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -4261,10 +4256,10 @@
       <c r="A14" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>315</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -4275,10 +4270,10 @@
       <c r="A15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>317</v>
       </c>
       <c r="D15" s="2" t="n">
@@ -4289,10 +4284,10 @@
       <c r="A16" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>319</v>
       </c>
       <c r="D16" s="2" t="n">
@@ -4303,10 +4298,10 @@
       <c r="A17" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D17" s="2" t="n">
@@ -4314,13 +4309,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>323</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -4328,13 +4323,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -4342,13 +4337,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>329</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -4356,13 +4351,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>332</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -4370,13 +4365,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>335</v>
       </c>
       <c r="D22" s="0" t="n">
@@ -4384,13 +4379,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>338</v>
       </c>
       <c r="D23" s="0" t="n">
@@ -4398,13 +4393,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>340</v>
       </c>
       <c r="D24" s="0" t="n">
@@ -4412,13 +4407,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>342</v>
       </c>
       <c r="D25" s="0" t="n">
@@ -4429,10 +4424,10 @@
       <c r="A26" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>344</v>
       </c>
       <c r="D26" s="2" t="n">
@@ -4443,10 +4438,10 @@
       <c r="A27" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>347</v>
       </c>
       <c r="D27" s="2" t="n">
@@ -4457,10 +4452,10 @@
       <c r="A28" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>350</v>
       </c>
       <c r="D28" s="2" t="n">
@@ -4471,10 +4466,10 @@
       <c r="A29" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>352</v>
       </c>
       <c r="D29" s="2" t="n">
@@ -4485,10 +4480,10 @@
       <c r="A30" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>354</v>
       </c>
       <c r="D30" s="2" t="n">
@@ -4499,10 +4494,10 @@
       <c r="A31" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>356</v>
       </c>
       <c r="D31" s="2" t="n">
@@ -4510,13 +4505,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>357</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>359</v>
       </c>
       <c r="D32" s="0" t="n">
@@ -4524,13 +4519,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>362</v>
       </c>
       <c r="D33" s="0" t="n">
@@ -4538,13 +4533,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>363</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D34" s="0" t="n">
@@ -4555,10 +4550,10 @@
       <c r="A35" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>367</v>
       </c>
       <c r="D35" s="2" t="n">
@@ -4566,13 +4561,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>370</v>
       </c>
       <c r="D36" s="0" t="n">
@@ -4583,10 +4578,10 @@
       <c r="A37" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>373</v>
       </c>
       <c r="D37" s="2" t="n">
@@ -4594,13 +4589,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>376</v>
       </c>
       <c r="D38" s="0" t="n">
@@ -4608,13 +4603,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D39" s="0" t="n">
@@ -4622,13 +4617,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>381</v>
       </c>
       <c r="D40" s="0" t="n">
@@ -4639,10 +4634,10 @@
       <c r="A41" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>383</v>
       </c>
       <c r="D41" s="2" t="n">
@@ -4650,13 +4645,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>386</v>
       </c>
       <c r="D42" s="0" t="n">
@@ -4667,10 +4662,10 @@
       <c r="A43" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>389</v>
       </c>
       <c r="D43" s="2" t="n">
@@ -4681,10 +4676,10 @@
       <c r="A44" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>391</v>
       </c>
       <c r="D44" s="2" t="n">
@@ -4692,13 +4687,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>394</v>
       </c>
       <c r="D45" s="0" t="n">
@@ -4706,13 +4701,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>397</v>
       </c>
       <c r="D46" s="0" t="n">
@@ -4720,13 +4715,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D47" s="0" t="n">
@@ -4734,13 +4729,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>403</v>
       </c>
       <c r="D48" s="0" t="n">
@@ -4751,10 +4746,10 @@
       <c r="A49" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>405</v>
       </c>
       <c r="D49" s="2" t="n">
@@ -4765,10 +4760,10 @@
       <c r="A50" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>407</v>
       </c>
       <c r="D50" s="2" t="n">
@@ -4776,13 +4771,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>409</v>
       </c>
       <c r="D51" s="0" t="n">
@@ -4793,10 +4788,10 @@
       <c r="A52" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>411</v>
       </c>
       <c r="D52" s="2" t="n">
@@ -4807,10 +4802,10 @@
       <c r="A53" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>413</v>
       </c>
       <c r="D53" s="2" t="n">
@@ -4821,10 +4816,10 @@
       <c r="A54" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>416</v>
       </c>
       <c r="D54" s="2" t="n">
@@ -4835,10 +4830,10 @@
       <c r="A55" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>418</v>
       </c>
       <c r="D55" s="2" t="n">
@@ -4849,10 +4844,10 @@
       <c r="A56" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>420</v>
       </c>
       <c r="D56" s="2" t="n">
@@ -4863,10 +4858,10 @@
       <c r="A57" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>422</v>
       </c>
       <c r="D57" s="2" t="n">
@@ -4877,10 +4872,10 @@
       <c r="A58" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D58" s="2" t="n">
@@ -4891,10 +4886,10 @@
       <c r="A59" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>426</v>
       </c>
       <c r="D59" s="2" t="n">
@@ -4905,10 +4900,10 @@
       <c r="A60" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>428</v>
       </c>
       <c r="D60" s="2" t="n">
@@ -4919,10 +4914,10 @@
       <c r="A61" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D61" s="2" t="n">
@@ -4933,10 +4928,10 @@
       <c r="A62" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D62" s="2" t="n">
@@ -4947,10 +4942,10 @@
       <c r="A63" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>434</v>
       </c>
       <c r="D63" s="2" t="n">
@@ -4961,10 +4956,10 @@
       <c r="A64" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D64" s="2" t="n">
@@ -4972,13 +4967,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>439</v>
       </c>
       <c r="D65" s="0" t="n">
@@ -4989,10 +4984,10 @@
       <c r="A66" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>441</v>
       </c>
       <c r="D66" s="2" t="n">
@@ -5000,13 +4995,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>443</v>
       </c>
       <c r="D67" s="0" t="n">
@@ -5017,10 +5012,10 @@
       <c r="A68" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>445</v>
       </c>
       <c r="D68" s="2" t="n">
@@ -5031,10 +5026,10 @@
       <c r="A69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>446</v>
       </c>
       <c r="D69" s="2" t="n">
@@ -5042,13 +5037,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>448</v>
       </c>
       <c r="D70" s="0" t="n">
@@ -5059,10 +5054,10 @@
       <c r="A71" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>450</v>
       </c>
       <c r="D71" s="2" t="n">
@@ -5070,13 +5065,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>453</v>
       </c>
       <c r="D72" s="0" t="n">
@@ -5087,10 +5082,10 @@
       <c r="A73" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>455</v>
       </c>
       <c r="D73" s="2" t="n">
@@ -5098,13 +5093,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>457</v>
       </c>
       <c r="D74" s="0" t="n">
@@ -5112,13 +5107,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>460</v>
       </c>
       <c r="D75" s="0" t="n">
@@ -5126,13 +5121,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>463</v>
       </c>
       <c r="D76" s="0" t="n">
@@ -5140,13 +5135,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>465</v>
       </c>
       <c r="D77" s="0" t="n">
@@ -5154,13 +5149,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D78" s="0" t="n">
@@ -5171,10 +5166,10 @@
       <c r="A79" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>469</v>
       </c>
       <c r="D79" s="2" t="n">
@@ -5185,10 +5180,10 @@
       <c r="A80" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>471</v>
       </c>
       <c r="D80" s="2" t="n">
@@ -5199,10 +5194,10 @@
       <c r="A81" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>473</v>
       </c>
       <c r="D81" s="2" t="n">
@@ -5213,10 +5208,10 @@
       <c r="A82" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>475</v>
       </c>
       <c r="D82" s="2" t="n">
@@ -5227,10 +5222,10 @@
       <c r="A83" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>477</v>
       </c>
       <c r="D83" s="2" t="n">
@@ -5241,10 +5236,10 @@
       <c r="A84" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>479</v>
       </c>
       <c r="D84" s="2" t="n">
@@ -5255,10 +5250,10 @@
       <c r="A85" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>481</v>
       </c>
       <c r="D85" s="2" t="n">
@@ -5269,10 +5264,10 @@
       <c r="A86" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>483</v>
       </c>
       <c r="D86" s="2" t="n">
@@ -5283,10 +5278,10 @@
       <c r="A87" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>485</v>
       </c>
       <c r="D87" s="2" t="n">
@@ -5297,10 +5292,10 @@
       <c r="A88" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>487</v>
       </c>
       <c r="D88" s="2" t="n">
@@ -5308,13 +5303,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>489</v>
       </c>
       <c r="D89" s="0" t="n">
@@ -5325,10 +5320,10 @@
       <c r="A90" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>491</v>
       </c>
       <c r="D90" s="2" t="n">
@@ -5339,10 +5334,10 @@
       <c r="A91" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>493</v>
       </c>
       <c r="D91" s="2" t="n">
@@ -5353,10 +5348,10 @@
       <c r="A92" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>495</v>
       </c>
       <c r="D92" s="2" t="n">
@@ -5367,10 +5362,10 @@
       <c r="A93" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>497</v>
       </c>
       <c r="D93" s="2" t="n">
@@ -5381,10 +5376,10 @@
       <c r="A94" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>499</v>
       </c>
       <c r="D94" s="2" t="n">
@@ -5395,10 +5390,10 @@
       <c r="A95" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D95" s="2" t="n">
@@ -5406,556 +5401,556 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
+      <c r="A110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
+      <c r="A111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
+      <c r="A126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
+      <c r="A128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
+      <c r="A130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
+      <c r="A132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
+      <c r="A134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
+      <c r="A138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
+      <c r="A139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
+      <c r="A140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
+      <c r="A142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
+      <c r="A143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
+      <c r="A144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10"/>
+      <c r="A145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10"/>
+      <c r="A146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
+      <c r="A147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10"/>
+      <c r="A148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10"/>
+      <c r="A149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10"/>
+      <c r="A150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10"/>
+      <c r="A151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10"/>
+      <c r="A152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10"/>
+      <c r="A153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10"/>
+      <c r="A154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10"/>
+      <c r="A155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10"/>
+      <c r="A156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10"/>
+      <c r="A157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10"/>
+      <c r="A158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10"/>
+      <c r="A159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10"/>
+      <c r="A160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10"/>
+      <c r="A161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10"/>
+      <c r="A162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10"/>
+      <c r="A163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10"/>
+      <c r="A164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10"/>
+      <c r="A165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10"/>
+      <c r="A166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10"/>
+      <c r="A167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10"/>
+      <c r="A168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10"/>
+      <c r="A169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10"/>
+      <c r="A170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10"/>
+      <c r="A171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10"/>
+      <c r="A172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10"/>
+      <c r="A173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10"/>
+      <c r="A174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
+      <c r="A175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10"/>
+      <c r="A176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10"/>
+      <c r="A177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10"/>
+      <c r="A178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10"/>
+      <c r="A179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10"/>
+      <c r="A180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10"/>
+      <c r="A181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10"/>
+      <c r="A182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
+      <c r="A183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
+      <c r="A184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
+      <c r="A185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
+      <c r="A186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
+      <c r="A187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
+      <c r="A188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
+      <c r="A189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
+      <c r="A190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
+      <c r="A191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
+      <c r="A192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
+      <c r="A194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
+      <c r="A195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
+      <c r="A196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
+      <c r="A197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
+      <c r="A198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
+      <c r="A199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
+      <c r="A201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="10"/>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10"/>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10"/>
+      <c r="A205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10"/>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="10"/>
+      <c r="A207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="10"/>
+      <c r="A208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10"/>
+      <c r="A209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10"/>
+      <c r="A210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
+      <c r="A211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
+      <c r="A212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
+      <c r="A213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
+      <c r="A214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
+      <c r="A215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
+      <c r="A216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
+      <c r="A217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
+      <c r="A218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
+      <c r="A219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
+      <c r="A220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
+      <c r="A221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10"/>
+      <c r="A222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10"/>
+      <c r="A223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10"/>
+      <c r="A224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
+      <c r="A225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10"/>
+      <c r="A226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="10"/>
+      <c r="A227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
+      <c r="A228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="10"/>
+      <c r="A229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10"/>
+      <c r="A230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="10"/>
+      <c r="A231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="10"/>
+      <c r="A232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="10"/>
+      <c r="A233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10"/>
+      <c r="A234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="10"/>
+      <c r="A235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10"/>
+      <c r="A236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10"/>
+      <c r="A237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10"/>
+      <c r="A238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="10"/>
+      <c r="A239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10"/>
+      <c r="A240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="10"/>
+      <c r="A241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="10"/>
+      <c r="A242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="10"/>
+      <c r="A243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="10"/>
+      <c r="A244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10"/>
+      <c r="A245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="10"/>
+      <c r="A246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="10"/>
+      <c r="A247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="10"/>
+      <c r="A248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="10"/>
+      <c r="A249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="10"/>
+      <c r="A250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10"/>
+      <c r="A251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="10"/>
+      <c r="A252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="10"/>
+      <c r="A253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="10"/>
+      <c r="A254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="10"/>
+      <c r="A255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10"/>
+      <c r="A256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="10"/>
+      <c r="A257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="10"/>
+      <c r="A258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="10"/>
+      <c r="A259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="10"/>
+      <c r="A260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="10"/>
+      <c r="A261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="10"/>
+      <c r="A262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="10"/>
+      <c r="A263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="10"/>
+      <c r="A264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="10"/>
+      <c r="A265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="10"/>
+      <c r="A266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="10"/>
+      <c r="A267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="10"/>
+      <c r="A268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="10"/>
+      <c r="A269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="10"/>
+      <c r="A270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10"/>
+      <c r="A271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="10"/>
+      <c r="A272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="10"/>
+      <c r="A273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="10"/>
+      <c r="A274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="10"/>
+      <c r="A275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="10"/>
+      <c r="A276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="10"/>
+      <c r="A277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="10"/>
+      <c r="A278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="10"/>
+      <c r="A279" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D60"/>
@@ -6108,7 +6103,7 @@
       <c r="D8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6915,7 +6910,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -7060,7 +7055,7 @@
       <c r="D7" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7207,8 +7202,8 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -7355,7 +7350,7 @@
       <c r="D7" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -7522,8 +7517,8 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -7652,7 +7647,7 @@
       <c r="C7" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>588</v>
       </c>
     </row>
@@ -7673,7 +7668,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
@@ -7803,7 +7798,7 @@
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8257,10 +8252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8316,7 +8311,7 @@
       <c r="B10" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>692</v>
       </c>
     </row>
@@ -8334,8 +8329,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>694</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,12 +18,14 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$60</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="703">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2407,17 +2409,39 @@
 ::##</t>
   </si>
   <si>
-    <t xml:space="preserve">ии</t>
-  </si>
-  <si>
     <t xml:space="preserve">#::#
 ::#:</t>
   </si>
   <si>
+    <t xml:space="preserve">ии</t>
+  </si>
+  <si>
     <t xml:space="preserve">ис</t>
   </si>
   <si>
     <t xml:space="preserve">скаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яние</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уют</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2516,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2503,12 +2527,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -2602,7 +2620,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4002,7 +4020,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D81"/>
+  <autoFilter ref="A1:C94"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -4025,7 +4043,7 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
     </sheetView>
@@ -5953,7 +5971,7 @@
       <c r="A279" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D60"/>
+  <autoFilter ref="A1:D95"/>
   <mergeCells count="1">
     <mergeCell ref="E2:G3"/>
   </mergeCells>
@@ -6910,7 +6928,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -8252,10 +8270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8311,13 +8329,10 @@
       <c r="B10" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>59</v>
@@ -8328,14 +8343,57 @@
         <v>312</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
         <v>694</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>695</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,14 +18,14 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="704">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2442,6 +2442,9 @@
   </si>
   <si>
     <t xml:space="preserve">уют</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пол</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2661,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="1" sqref="A22:E22 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4020,7 +4023,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C94"/>
+  <autoFilter ref="A1:D81"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -4045,7 +4048,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="C88" activeCellId="1" sqref="A22:E22 C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5996,7 +5999,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="1" sqref="A22:E22 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6928,7 +6931,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -6953,7 +6956,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="1" sqref="A22:E22 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7249,7 +7252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="1" sqref="A22:E22 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7562,7 +7565,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="A22:E22 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7714,7 +7717,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="A22:E22 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8270,10 +8273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8344,7 +8347,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="2" t="s">
         <v>693</v>
       </c>
     </row>
@@ -8357,7 +8360,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>694</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -8395,6 +8398,15 @@
       <c r="E21" s="0" t="s">
         <v>702</v>
       </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,14 +18,14 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="714">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -49,6 +49,19 @@
   </si>
   <si>
     <t xml:space="preserve">Уровень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТДБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для левой половины клавиатуры в режиме ввода двумя руками.</t>
   </si>
   <si>
     <t xml:space="preserve">б</t>
@@ -61,7 +74,541 @@
     <t xml:space="preserve">Б</t>
   </si>
   <si>
-    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для левой половины клавиатуры в режиме ввода двумя руками.</t>
+    <t xml:space="preserve">бл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">буд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВДБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расположение клавиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">был</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТ
+ДБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">встр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">говор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">др</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">з</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">каз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">котор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">одн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">он</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПН</t>
   </si>
   <si>
     <t xml:space="preserve">р</t>
@@ -74,24 +621,271 @@
     <t xml:space="preserve">БН</t>
   </si>
   <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
+    <t xml:space="preserve">раз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">св</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сдел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СДПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сказ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
 :##:</t>
   </si>
   <si>
-    <t xml:space="preserve">БП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БПН</t>
+    <t xml:space="preserve">ВТБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скольк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:##
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ср</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##:#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СКН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">так</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТБН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КД</t>
   </si>
   <si>
     <t xml:space="preserve">хорош</t>
@@ -104,51 +898,14 @@
     <t xml:space="preserve">БПНТ</t>
   </si>
   <si>
-    <t xml:space="preserve">в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расположение клавиш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">об</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВКТ
-ДБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">он</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВБП</t>
+    <t xml:space="preserve">ц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТП</t>
   </si>
   <si>
     <t xml:space="preserve">ч</t>
@@ -161,14 +918,14 @@
     <t xml:space="preserve">ВД</t>
   </si>
   <si>
-    <t xml:space="preserve">буд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВДБ</t>
+    <t xml:space="preserve">чк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКД</t>
   </si>
   <si>
     <t xml:space="preserve">чн</t>
@@ -181,84 +938,44 @@
     <t xml:space="preserve">ВДН</t>
   </si>
   <si>
-    <t xml:space="preserve">зд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВДП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">св</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">как</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
+    <t xml:space="preserve">чт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
 :#::</t>
   </si>
   <si>
-    <t xml:space="preserve">ВКБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">говор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">одн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">из</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
+    <t xml:space="preserve">КБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
 ::#:</t>
   </si>
   <si>
-    <t xml:space="preserve">ВКП</t>
+    <t xml:space="preserve">СП</t>
   </si>
   <si>
     <t xml:space="preserve">эт</t>
@@ -271,776 +988,71 @@
     <t xml:space="preserve">ВКТ</t>
   </si>
   <si>
-    <t xml:space="preserve">так</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКТБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скольк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВКТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">з</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">зн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">каз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сказ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
+    <t xml:space="preserve">а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для правой половины клавиатуры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ае</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:##
 #:::</t>
   </si>
   <si>
-    <t xml:space="preserve">ВТД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">раз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#:#
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">д</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Д</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">др</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-##:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">был</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-####</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
+    <t xml:space="preserve">ЕАИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
 #::#</t>
   </si>
   <si>
-    <t xml:space="preserve">ДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-#:##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">к</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">щ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">котор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С</t>
-  </si>
-  <si>
-    <t xml:space="preserve">й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">встр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВКТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##:#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ср</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сдел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#:##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СДПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:##
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ш</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ъ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">спр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вст</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">т</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-::::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Т</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТБН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-т</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТДБП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТДП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТПН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В этой таблице приведены аккорды букв и сочетаний для правой половины клавиатуры.</t>
+    <t xml:space="preserve">ЕАЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ал</t>
   </si>
   <si>
     <t xml:space="preserve">АИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АИУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ае</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АУЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АУЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЕОАИ
 ЫУЯЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">ай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫ</t>
+    <t xml:space="preserve">ала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЫУЯ</t>
   </si>
   <si>
     <t xml:space="preserve">али</t>
@@ -1053,20 +1065,92 @@
     <t xml:space="preserve">АЫУ</t>
   </si>
   <si>
-    <t xml:space="preserve">ала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::#:
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ает</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЫЬ</t>
+    <t xml:space="preserve">аль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ают</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЫЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ая</t>
@@ -1079,54 +1163,240 @@
     <t xml:space="preserve">АЫЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">е</t>
   </si>
   <si>
     <t xml:space="preserve">Е</t>
   </si>
   <si>
+    <t xml:space="preserve">ё</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">его</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ей</t>
   </si>
   <si>
     <t xml:space="preserve">ЕА</t>
   </si>
   <si>
-    <t xml:space="preserve">их</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:##
+    <t xml:space="preserve">ел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+:#:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ему</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+:#::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
 #:::</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕАИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАУ</t>
+    <t xml:space="preserve">ЕОЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">еть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">или</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:::#
+:##:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ило</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+#::#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">им</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ин</t>
@@ -1139,146 +1409,10 @@
     <t xml:space="preserve">ЕАЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">аете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАЫЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ают</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:#:
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАЫЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">аю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ё</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕИУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ед</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОАИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОАУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОАЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ему</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-:#::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-#:::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОЫУЯ</t>
+    <t xml:space="preserve">ит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ите</t>
@@ -1291,26 +1425,153 @@
     <t xml:space="preserve">ЕОЫЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕОЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">его</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-:#:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕУЬ</t>
+    <t xml:space="preserve">ить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">их</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">о</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">од</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:##:
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ои</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОУЯЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ую</t>
@@ -1340,56 +1601,58 @@
     <t xml:space="preserve">ЕУЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ило</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЫУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">иль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#::#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЫЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ила</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЫЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕЬ</t>
+    <t xml:space="preserve">ы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ые</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ых</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЫУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">э</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ю</t>
@@ -1398,285 +1661,22 @@
     <t xml:space="preserve">ЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">я</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЯЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ял</t>
   </si>
   <si>
     <t xml:space="preserve">ЕЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">и</t>
-  </si>
-  <si>
-    <t xml:space="preserve">И</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">или</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:::#
-:##:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">им</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о</t>
-  </si>
-  <si>
-    <t xml:space="preserve">О</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">от</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">од</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:##:
-##::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ои</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОИУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОИЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОУЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ому</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-##:#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫУЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ете</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:#::
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ез</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">э</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">яй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ыл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ые</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫУЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ым</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ыть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЫЯЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">я</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я</t>
   </si>
   <si>
     <t xml:space="preserve">ять</t>
@@ -2401,34 +2401,39 @@
 #:#:</t>
   </si>
   <si>
+    <t xml:space="preserve">:##:
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#::#
+::#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#:#
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ии</t>
+  </si>
+  <si>
     <t xml:space="preserve">##::
 ##::</t>
   </si>
   <si>
-    <t xml:space="preserve">:##:
-::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#::#
-::#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">скаж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">яние</t>
-  </si>
-  <si>
     <t xml:space="preserve">хр</t>
   </si>
   <si>
-    <t xml:space="preserve">яния</t>
+    <t xml:space="preserve">::#:
+##:#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ат</t>
   </si>
   <si>
     <t xml:space="preserve">вм</t>
@@ -2438,13 +2443,45 @@
 #:::</t>
   </si>
   <si>
-    <t xml:space="preserve">ат</t>
-  </si>
-  <si>
     <t xml:space="preserve">уют</t>
   </si>
   <si>
+    <t xml:space="preserve">##::
+:#:#</t>
+  </si>
+  <si>
     <t xml:space="preserve">пол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яние</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+:###</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2623,10 +2660,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2659,9 +2692,9 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="1" sqref="A22:E22 C6"/>
+      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,8 +2727,8 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -2724,7 +2757,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2734,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2742,7 +2775,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2751,8 +2784,8 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2760,7 +2793,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2769,15 +2802,15 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2787,7 +2820,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -2824,15 +2857,15 @@
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2841,8 +2874,8 @@
       <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,12 +2888,12 @@
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2869,8 +2902,8 @@
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>2</v>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +2921,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2897,8 +2930,8 @@
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +2949,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2925,8 +2958,8 @@
       <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
+      <c r="D16" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +2991,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2968,11 +3001,11 @@
         <v>60</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2981,8 +3014,8 @@
       <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>2</v>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3033,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3009,8 +3042,8 @@
       <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,7 +3061,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3038,11 +3071,11 @@
         <v>75</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3051,12 +3084,12 @@
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
+      <c r="D25" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3065,8 +3098,8 @@
       <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>1</v>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,8 +3112,8 @@
       <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,7 +3131,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3107,12 +3140,12 @@
       <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>2</v>
+      <c r="D29" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3122,11 +3155,11 @@
         <v>93</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3135,12 +3168,12 @@
       <c r="C31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
+      <c r="D31" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3149,8 +3182,8 @@
       <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,8 +3196,8 @@
       <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +3215,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3191,8 +3224,8 @@
       <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>2</v>
+      <c r="D35" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,8 +3238,8 @@
       <c r="C36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,8 +3252,8 @@
       <c r="C37" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,12 +3266,12 @@
       <c r="C38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>1</v>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3247,8 +3280,8 @@
       <c r="C39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3327,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3303,8 +3336,8 @@
       <c r="C43" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>2</v>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,8 +3350,8 @@
       <c r="C44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
+      <c r="D44" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,7 +3365,7 @@
         <v>138</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,8 +3378,8 @@
       <c r="C46" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>1</v>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,8 +3392,8 @@
       <c r="C47" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>1</v>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3420,7 @@
       <c r="C49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3406,7 +3439,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3416,7 +3449,7 @@
         <v>156</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3467,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3444,11 +3477,11 @@
         <v>162</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3458,7 +3491,7 @@
         <v>165</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,7 +3523,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3500,11 +3533,11 @@
         <v>174</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3513,8 +3546,8 @@
       <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>1</v>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,11 +3561,11 @@
         <v>180</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3542,12 +3575,12 @@
         <v>183</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3557,11 +3590,11 @@
         <v>186</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="0" t="s">
         <v>187</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3570,8 +3603,8 @@
       <c r="C62" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
+      <c r="D62" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,11 +3618,11 @@
         <v>192</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3599,11 +3632,11 @@
         <v>195</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3612,12 +3645,12 @@
       <c r="C65" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>1</v>
+      <c r="D65" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3626,12 +3659,12 @@
       <c r="C66" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>1</v>
+      <c r="D66" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3640,12 +3673,12 @@
       <c r="C67" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>1</v>
+      <c r="D67" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3654,12 +3687,12 @@
       <c r="C68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>2</v>
+      <c r="D68" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3668,8 +3701,8 @@
       <c r="C69" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>2</v>
+      <c r="D69" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,7 +3720,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3696,8 +3729,8 @@
       <c r="C71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
+      <c r="D71" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,7 +3762,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3739,7 +3772,7 @@
         <v>225</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,7 +3790,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3766,8 +3799,8 @@
       <c r="C76" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>2</v>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,206 +3811,206 @@
         <v>233</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>1</v>
+      <c r="D78" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>2</v>
+      <c r="D81" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>2</v>
+      <c r="D83" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>0</v>
+      <c r="D85" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="D86" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>1</v>
+      <c r="D88" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="D91" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,11 +4024,11 @@
         <v>278</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="0" t="s">
         <v>279</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4004,12 +4037,12 @@
       <c r="C93" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4018,12 +4051,12 @@
       <c r="C94" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>2</v>
+      <c r="D94" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D81"/>
+  <autoFilter ref="A1:C94"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -4048,7 +4081,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C88" activeCellId="1" sqref="A22:E22 C88"/>
+      <selection pane="bottomLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4076,7 +4109,7 @@
         <v>285</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>286</v>
@@ -4092,17 +4125,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>164</v>
+      <c r="B3" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -4114,10 +4147,10 @@
         <v>290</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -4128,17 +4161,17 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>173</v>
+      <c r="A5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>294</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4146,34 +4179,34 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>137</v>
+      <c r="A6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>297</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>140</v>
+      <c r="A7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>299</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -4183,35 +4216,35 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4219,167 +4252,167 @@
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>307</v>
+      <c r="A11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>312</v>
+      <c r="A13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>158</v>
+      <c r="A15" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>191</v>
+      <c r="A16" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>227</v>
+      <c r="A17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>325</v>
+      <c r="A19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>329</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>328</v>
+      <c r="A20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>331</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -4387,69 +4420,69 @@
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="B23" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>339</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>230</v>
+      <c r="A24" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>341</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>233</v>
+      <c r="A25" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>344</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>1</v>
@@ -4457,24 +4490,24 @@
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>350</v>
@@ -4484,17 +4517,17 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>197</v>
+      <c r="B29" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
+      <c r="D29" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,13 +4535,13 @@
         <v>353</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>354</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,7 +4549,7 @@
         <v>355</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>356</v>
@@ -4526,7 +4559,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -4536,116 +4569,116 @@
         <v>359</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="B34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="7" t="s">
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="C37" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>2</v>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2</v>
@@ -4653,13 +4686,13 @@
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
@@ -4667,38 +4700,38 @@
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
+      <c r="D43" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>391</v>
@@ -4708,115 +4741,115 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="B47" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="D47" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>2</v>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>239</v>
+        <v>400</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>402</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>0</v>
+      <c r="D52" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,122 +4857,122 @@
         <v>412</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>413</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>1</v>
+      <c r="D54" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>263</v>
+      <c r="B55" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>1</v>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>272</v>
+      <c r="B56" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>280</v>
+      <c r="A58" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>1</v>
+        <v>425</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>21</v>
+      <c r="A59" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>1</v>
@@ -4947,13 +4980,13 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>1</v>
@@ -4961,13 +4994,13 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>56</v>
+        <v>435</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>1</v>
@@ -4975,13 +5008,13 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>1</v>
@@ -4989,114 +5022,114 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>89</v>
+      <c r="A66" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D66" s="2" t="n">
+        <v>442</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>28</v>
+      <c r="A69" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>29</v>
+      <c r="A70" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D70" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>452</v>
+      <c r="A72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>2</v>
+      <c r="D72" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5137,7 @@
         <v>454</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>455</v>
@@ -5118,7 +5151,7 @@
         <v>456</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>457</v>
@@ -5128,101 +5161,101 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="D76" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="B77" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="D77" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B78" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>2</v>
+      <c r="D78" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="C80" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>473</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +5263,7 @@
         <v>474</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>475</v>
@@ -5244,13 +5277,13 @@
         <v>476</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>477</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,13 +5291,13 @@
         <v>478</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>479</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,13 +5305,13 @@
         <v>480</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>481</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,7 +5319,7 @@
         <v>482</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>483</v>
@@ -5300,7 +5333,7 @@
         <v>484</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>485</v>
@@ -5314,7 +5347,7 @@
         <v>486</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>487</v>
@@ -5324,17 +5357,17 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>122</v>
+      <c r="B89" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>2</v>
+      <c r="D89" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,13 +5375,13 @@
         <v>490</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>491</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5389,7 @@
         <v>492</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>493</v>
@@ -5370,21 +5403,21 @@
         <v>494</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>495</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>497</v>
@@ -5394,17 +5427,17 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>185</v>
+      <c r="B94" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D94" s="2" t="n">
-        <v>0</v>
+      <c r="D94" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5445,7 @@
         <v>500</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>501</v>
@@ -5999,7 +6032,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D35" activeCellId="1" sqref="A22:E22 D35"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6022,14 +6055,14 @@
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>504</v>
@@ -6040,14 +6073,14 @@
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -6056,14 +6089,14 @@
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -6072,14 +6105,14 @@
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6088,26 +6121,26 @@
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -6115,14 +6148,14 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>27</v>
@@ -6130,194 +6163,194 @@
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,115 +6359,115 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="5" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="5" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="5" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>505</v>
@@ -6448,10 +6481,10 @@
         <v>507</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,10 +6495,10 @@
         <v>509</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,10 +6509,10 @@
         <v>511</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,10 +6523,10 @@
         <v>513</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,10 +6537,10 @@
         <v>515</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,10 +6565,10 @@
         <v>521</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,10 +6579,10 @@
         <v>523</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,10 +6607,10 @@
         <v>529</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,10 +6621,10 @@
         <v>531</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,10 +6633,10 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,10 +6647,10 @@
         <v>534</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,10 +6661,10 @@
         <v>536</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6642,10 +6675,10 @@
         <v>538</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,7 +6964,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -6956,7 +6989,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F6" activeCellId="1" sqref="A22:E22 F6"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7252,7 +7285,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="1" sqref="A22:E22 B15"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7565,7 +7598,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="A22:E22 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7717,7 +7750,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="A22:E22 B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7741,7 +7774,7 @@
         <v>593</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>594</v>
@@ -7758,7 +7791,7 @@
         <v>596</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -7773,7 +7806,7 @@
         <v>598</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -7788,7 +7821,7 @@
         <v>600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -7803,7 +7836,7 @@
         <v>602</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -7817,7 +7850,7 @@
         <v>604</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>588</v>
@@ -7831,7 +7864,7 @@
         <v>606</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,7 +7875,7 @@
         <v>608</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,7 +7886,7 @@
         <v>610</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7864,7 +7897,7 @@
         <v>612</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,7 +7908,7 @@
         <v>614</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,7 +7930,7 @@
         <v>618</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +7952,7 @@
         <v>623</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +7996,7 @@
         <v>633</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7985,7 +8018,7 @@
         <v>638</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,7 +8205,7 @@
         <v>677</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8216,7 @@
         <v>679</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8194,7 +8227,7 @@
         <v>681</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,10 +8306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8310,22 +8343,17 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,78 +8363,134 @@
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>697</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>698</v>
+      </c>
       <c r="E19" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="F20" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>713</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,14 +18,14 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="716">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2454,6 +2454,13 @@
   </si>
   <si>
     <t xml:space="preserve">ию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">электр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:###</t>
   </si>
   <si>
     <t xml:space="preserve">ению</t>
@@ -4056,7 +4063,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C94"/>
+  <autoFilter ref="A1:D81"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -6964,7 +6971,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -8309,7 +8316,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8459,37 +8466,43 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>707</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -18,14 +18,14 @@
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="720">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2489,6 +2489,20 @@
   <si>
     <t xml:space="preserve">###:
 :###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+###:</t>
   </si>
 </sst>
 </file>
@@ -4063,7 +4077,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D81"/>
+  <autoFilter ref="A1:C94"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -6971,7 +6985,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D49"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -8313,10 +8327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8503,6 +8517,22 @@
       </c>
       <c r="F25" s="5" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,8 @@
     <sheet name="Лево4" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Лево5" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Свободные аккорды" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="left" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="right" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="793">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -2503,6 +2505,227 @@
   <si>
     <t xml:space="preserve">###:
 ###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chorde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:#::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">igh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'s</t>
   </si>
 </sst>
 </file>
@@ -2713,9 +2936,9 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4092,6 +4315,331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4100,9 +4648,9 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8329,7 +8877,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -8533,6 +9081,315 @@
       </c>
       <c r="F27" s="5" t="s">
         <v>719</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,14 +20,14 @@
     <sheet name="right" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C94"/>
+  <autoFilter ref="A1:D81"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H4"/>
   </mergeCells>
@@ -4322,13 +4322,13 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7533,7 +7533,7 @@
       <c r="B154" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49"/>
+  <autoFilter ref="A1:D34"/>
   <mergeCells count="1">
     <mergeCell ref="F2:H4"/>
   </mergeCells>
@@ -9101,13 +9101,13 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9229,7 +9229,7 @@
         <v>736</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,7 +9237,7 @@
         <v>737</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ТаблицаАккордов.xlsx
+++ b/ТаблицаАккордов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лево1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,11 +22,11 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$D$81</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$95</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Право1!$A$1:$D$99</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лево1!$A$1:$C$94</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лево1!$A$1:$C$83</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Право1!$A$1:$D$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Право1!$A$1:$C$65</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Лево2!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="823">
   <si>
     <t xml:space="preserve">Сочетание</t>
   </si>
@@ -163,6 +163,16 @@
     <t xml:space="preserve">ВБП</t>
   </si>
   <si>
+    <t xml:space="preserve">вм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:###
+#:::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТД</t>
+  </si>
+  <si>
     <t xml:space="preserve">вн</t>
   </si>
   <si>
@@ -603,6 +613,16 @@
     <t xml:space="preserve">ДП</t>
   </si>
   <si>
+    <t xml:space="preserve">пол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КДП</t>
+  </si>
+  <si>
     <t xml:space="preserve">пр</t>
   </si>
   <si>
@@ -980,6 +1000,16 @@
     <t xml:space="preserve">СП</t>
   </si>
   <si>
+    <t xml:space="preserve">электр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::##
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТБПН</t>
+  </si>
+  <si>
     <t xml:space="preserve">эт</t>
   </si>
   <si>
@@ -1105,6 +1135,36 @@
     <t xml:space="preserve">ЕОАЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЫУЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЫУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">анию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+#:#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЫЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ания</t>
   </si>
   <si>
@@ -1127,6 +1187,12 @@
     <t xml:space="preserve">АИУ</t>
   </si>
   <si>
+    <t xml:space="preserve">ат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЯЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ать</t>
   </si>
   <si>
@@ -1158,10 +1224,6 @@
     <t xml:space="preserve">ая</t>
   </si>
   <si>
-    <t xml:space="preserve">::#:
-#:#:</t>
-  </si>
-  <si>
     <t xml:space="preserve">АЫЯ</t>
   </si>
   <si>
@@ -1265,6 +1327,36 @@
     <t xml:space="preserve">ЕЫУЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕЫУЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЫУЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:#:
+###:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕАЫУЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ения</t>
   </si>
   <si>
@@ -1343,6 +1435,16 @@
     <t xml:space="preserve">ИЫУ</t>
   </si>
   <si>
+    <t xml:space="preserve">ии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##::
+##::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОЫУ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ий</t>
   </si>
   <si>
@@ -1516,9 +1618,6 @@
   </si>
   <si>
     <t xml:space="preserve">ому</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЫУ</t>
   </si>
   <si>
     <t xml:space="preserve">ОУ</t>
@@ -1681,6 +1780,26 @@
     <t xml:space="preserve">ЕЯЬ</t>
   </si>
   <si>
+    <t xml:space="preserve">яние</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+::##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАЯЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###:
+:###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕОАУЯЬ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ять</t>
   </si>
   <si>
@@ -2421,13 +2540,6 @@
 :###</t>
   </si>
   <si>
-    <t xml:space="preserve">ии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##::
-##::</t>
-  </si>
-  <si>
     <t xml:space="preserve">хр</t>
   </si>
   <si>
@@ -2435,16 +2547,6 @@
 ##:#</t>
   </si>
   <si>
-    <t xml:space="preserve">ат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:###
-#:::</t>
-  </si>
-  <si>
     <t xml:space="preserve">уют</t>
   </si>
   <si>
@@ -2452,191 +2554,152 @@
 :#:#</t>
   </si>
   <si>
-    <t xml:space="preserve">пол</t>
-  </si>
-  <si>
     <t xml:space="preserve">ию</t>
   </si>
   <si>
-    <t xml:space="preserve">электр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">::##
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ению</t>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chorde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ears</t>
   </si>
   <si>
     <t xml:space="preserve">#:#:
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">анию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-#:#:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">яние</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
 ::##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">яния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-:###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ении</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#:::
-####</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###:
-###:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chorde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ea</t>
   </si>
   <si>
     <t xml:space="preserve">ee</t>
@@ -2691,7 +2754,26 @@
 ####</t>
   </si>
   <si>
+    <t xml:space="preserve">our</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ours</t>
+  </si>
+  <si>
     <t xml:space="preserve">ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::#:
+..#:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ars</t>
   </si>
   <si>
     <t xml:space="preserve">ay</t>
@@ -2725,7 +2807,20 @@
 ####</t>
   </si>
   <si>
+    <t xml:space="preserve">ir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::::
+#.#:</t>
+  </si>
+  <si>
     <t xml:space="preserve">'s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ur</t>
   </si>
 </sst>
 </file>
@@ -2800,7 +2895,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2811,6 +2906,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2863,7 +2964,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2904,6 +3005,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2933,12 +3042,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3137,7 +3246,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3147,7 +3256,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,7 +3288,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3188,8 +3297,8 @@
       <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>2</v>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3344,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3245,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,8 +3367,8 @@
       <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3386,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3286,12 +3395,12 @@
       <c r="C22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>2</v>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3300,8 +3409,8 @@
       <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>1</v>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,8 +3423,8 @@
       <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,12 +3437,12 @@
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3342,12 +3451,12 @@
       <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>2</v>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3356,8 +3465,8 @@
       <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
+      <c r="D27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,12 +3507,12 @@
       <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3413,11 +3522,11 @@
         <v>96</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3426,8 +3535,8 @@
       <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>1</v>
+      <c r="D32" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,12 +3549,12 @@
       <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3455,11 +3564,11 @@
         <v>105</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3468,8 +3577,8 @@
       <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,8 +3605,8 @@
       <c r="C37" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
+      <c r="D37" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3624,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3525,11 +3634,11 @@
         <v>120</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3538,8 +3647,8 @@
       <c r="C40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3666,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3566,12 +3675,12 @@
       <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>2</v>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3580,8 +3689,8 @@
       <c r="C43" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
+      <c r="D43" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,8 +3731,8 @@
       <c r="C46" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
+      <c r="D46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,8 +3759,8 @@
       <c r="C48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>1</v>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,8 +3773,8 @@
       <c r="C49" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,12 +3787,12 @@
       <c r="C50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3692,12 +3801,12 @@
       <c r="C51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>2</v>
+      <c r="D51" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3706,8 +3815,8 @@
       <c r="C52" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>1</v>
+      <c r="D52" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,12 +3829,12 @@
       <c r="C53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>0</v>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3735,7 +3844,7 @@
         <v>165</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3862,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3762,8 +3871,8 @@
       <c r="C56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>1</v>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,11 +3886,11 @@
         <v>174</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3790,8 +3899,8 @@
       <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>2</v>
+      <c r="D58" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3913,7 @@
       <c r="C59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3933,7 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3833,12 +3942,12 @@
       <c r="C61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>2</v>
+      <c r="D61" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3848,11 +3957,11 @@
         <v>189</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3861,12 +3970,12 @@
       <c r="C63" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>1</v>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="0" t="s">
         <v>193</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3876,11 +3985,11 @@
         <v>195</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3889,8 +3998,8 @@
       <c r="C65" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>2</v>
+      <c r="D65" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,7 +4031,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3931,12 +4040,12 @@
       <c r="C68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>1</v>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3945,12 +4054,12 @@
       <c r="C69" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
+      <c r="D69" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3959,12 +4068,12 @@
       <c r="C70" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>2</v>
+      <c r="D70" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3973,8 +4082,8 @@
       <c r="C71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>2</v>
+      <c r="D71" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4115,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4016,11 +4125,11 @@
         <v>225</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4029,8 +4138,8 @@
       <c r="C75" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>1</v>
+      <c r="D75" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,54 +4152,54 @@
       <c r="C76" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -4099,8 +4208,8 @@
       <c r="C80" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>1</v>
+      <c r="D80" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,8 +4222,8 @@
       <c r="C81" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="2" t="n">
-        <v>1</v>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,7 +4251,7 @@
         <v>251</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,11 +4265,11 @@
         <v>254</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4169,8 +4278,8 @@
       <c r="C85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>2</v>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4297,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4198,11 +4307,11 @@
         <v>263</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4211,8 +4320,8 @@
       <c r="C88" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>2</v>
+      <c r="D88" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,12 +4334,12 @@
       <c r="C89" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4239,8 +4348,8 @@
       <c r="C90" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D90" s="2" t="n">
-        <v>1</v>
+      <c r="D90" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,8 +4362,8 @@
       <c r="C91" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>0</v>
+      <c r="D91" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,11 +4377,11 @@
         <v>278</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4296,6 +4405,48 @@
         <v>284</v>
       </c>
       <c r="D94" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,38 +4471,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -4359,31 +4510,31 @@
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -4391,242 +4542,322 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>206</v>
+      <c r="A11" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>221</v>
+      <c r="A12" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>370</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>717</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>185</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>384</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>780</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>143</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>86</v>
+      <c r="A29" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>80</v>
+      <c r="A30" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>83</v>
+      <c r="A32" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>89</v>
+      <c r="A33" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
+      <c r="A34" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>791</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>170</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4645,12 +4876,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4675,19 +4906,19 @@
     </row>
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -4695,13 +4926,13 @@
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -4713,13 +4944,13 @@
     </row>
     <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -4731,13 +4962,13 @@
     </row>
     <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>1</v>
@@ -4749,13 +4980,13 @@
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
@@ -4766,13 +4997,13 @@
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -4785,32 +5016,32 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>1</v>
@@ -4821,13 +5052,13 @@
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
@@ -4835,13 +5066,13 @@
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -4849,13 +5080,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v